--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -283,15 +283,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>{
-  "Header": {},
-  "Params": {
-    "UserName": "anik",
-    "Password": "12345678"
-  }
-}</t>
-  </si>
-  <si>
     <t>http://localhost:8080/web-corporate/authentication/authentication/requestPasswordReset</t>
   </si>
   <si>
@@ -400,24 +391,6 @@
     <t>{
   "Header": {},
   "Params": {
-    "UserName": "ntm",
-    "Password": "12345678"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "Header": {},
-  "Params": {
-    "UserName": "ntm",
-    "Password": "123456789"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "Header": {},
-  "Params": {
     "UserName": "invalid"
   }
 }</t>
@@ -471,6 +444,15 @@
   </si>
   <si>
     <t>src/test/resources/jsonSchema/login_fail.json</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {"UserName": "anik","Password": "12345678"}}</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {"UserName": "anik","Password": "123456788"}}</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {"UserName": "ntm","Password": "12345678"}}</t>
   </si>
 </sst>
 </file>
@@ -764,23 +746,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1111,31 +1093,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1153,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1210,7 +1192,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
@@ -1405,7 +1387,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1444,7 +1426,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
         <v>17</v>
@@ -1479,7 +1461,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
@@ -1516,7 +1498,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
@@ -1594,7 +1576,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1635,7 +1617,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
         <v>45</v>
@@ -1672,7 +1654,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
         <v>48</v>
@@ -1709,7 +1691,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
         <v>17</v>
@@ -1744,7 +1726,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
         <v>17</v>
@@ -1781,7 +1763,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
         <v>17</v>
@@ -1859,7 +1841,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1898,7 +1880,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
         <v>17</v>
@@ -1933,7 +1915,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
         <v>17</v>
@@ -1970,7 +1952,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -2009,7 +1991,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
         <v>17</v>
@@ -2044,7 +2026,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15" t="s">
         <v>17</v>
@@ -2079,7 +2061,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
         <v>17</v>
@@ -2114,7 +2096,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15" t="s">
         <v>17</v>
@@ -2231,7 +2213,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2270,7 +2252,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15" t="s">
         <v>45</v>
@@ -2295,7 +2277,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
         <v>48</v>
@@ -2320,7 +2302,7 @@
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2357,7 +2339,7 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
         <v>45</v>
@@ -2394,7 +2376,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15" t="s">
         <v>48</v>
@@ -2427,7 +2409,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2450,7 +2432,7 @@
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2489,7 +2471,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -2510,7 +2492,7 @@
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -2531,7 +2513,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2570,7 +2552,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2596,6 +2578,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -2604,11 +2591,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -2643,29 +2625,29 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="C3" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2702,29 +2684,29 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>99</v>
-      </c>
       <c r="C2" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2737,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2766,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2795,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2821,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +2847,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2896,7 +2878,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2909,13 +2891,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" style="24" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" style="24" customWidth="1"/>
     <col min="4" max="16384" width="57" style="24"/>
   </cols>
@@ -2928,40 +2910,40 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>102</v>
-      </c>
       <c r="C4" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2999,18 +2981,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3043,29 +3025,29 @@
         <v>80</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3099,18 +3081,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3143,18 +3125,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3187,18 +3169,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3232,18 +3214,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="C2" s="24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3280,18 +3262,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -440,19 +440,19 @@
     <t>http://10.0.0.111:8080/web-corporate/authentication/login</t>
   </si>
   <si>
-    <t>src/test/resources/jsonSchema/login_pass.json</t>
-  </si>
-  <si>
-    <t>src/test/resources/jsonSchema/login_fail.json</t>
-  </si>
-  <si>
     <t>{"Header": {},"Params": {"UserName": "anik","Password": "12345678"}}</t>
   </si>
   <si>
-    <t>{"Header": {},"Params": {"UserName": "anik","Password": "123456788"}}</t>
-  </si>
-  <si>
     <t>{"Header": {},"Params": {"UserName": "ntm","Password": "12345678"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/login_pass.json</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {"UserName": "anik","Password": "123456728"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/login_fail.json</t>
   </si>
 </sst>
 </file>
@@ -749,6 +749,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -757,12 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1093,31 +1093,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1192,7 +1192,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
@@ -1387,7 +1387,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1426,7 +1426,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
         <v>17</v>
@@ -1461,7 +1461,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
@@ -1498,7 +1498,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
@@ -1576,7 +1576,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
         <v>45</v>
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
         <v>48</v>
@@ -1691,7 +1691,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
         <v>17</v>
@@ -1726,7 +1726,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
         <v>17</v>
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
         <v>17</v>
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="37" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
         <v>17</v>
@@ -1915,7 +1915,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
         <v>17</v>
@@ -1952,7 +1952,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -1991,7 +1991,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
         <v>17</v>
@@ -2026,7 +2026,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15" t="s">
         <v>17</v>
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
         <v>17</v>
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15" t="s">
         <v>17</v>
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2252,7 +2252,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15" t="s">
         <v>45</v>
@@ -2277,7 +2277,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
         <v>48</v>
@@ -2302,7 +2302,7 @@
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="37" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2339,7 +2339,7 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
         <v>45</v>
@@ -2376,7 +2376,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15" t="s">
         <v>48</v>
@@ -2409,7 +2409,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2432,7 +2432,7 @@
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="38" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2471,7 +2471,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -2492,7 +2492,7 @@
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -2513,7 +2513,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2552,7 +2552,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2578,11 +2578,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -2591,6 +2586,11 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -2891,7 +2891,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,10 +2918,10 @@
         <v>113</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2929,10 +2929,10 @@
         <v>113</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10260" windowHeight="7860" tabRatio="981" activeTab="1"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10260" windowHeight="7860" tabRatio="981" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="118">
   <si>
     <t>Api</t>
   </si>
@@ -283,9 +283,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/authentication/authentication/requestPasswordReset</t>
-  </si>
-  <si>
     <t>http://localhost:8080/web-corporate/authentication/authentication/verifyPasswordResetToken</t>
   </si>
   <si>
@@ -293,20 +290,6 @@
   </si>
   <si>
     <t>http://10.0.0.111:8080/web-corporate/authentication/logout</t>
-  </si>
-  <si>
-    <t>{
-  "Header": {},
-  "Params": {}
-}</t>
-  </si>
-  <si>
-    <t>{
-  "Header": {},
-  "Params": {
-    "UserName": "ntm"
-  }
-}</t>
   </si>
   <si>
     <t>{
@@ -390,14 +373,6 @@
   <si>
     <t>{
   "Header": {},
-  "Params": {
-    "UserName": "invalid"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "Header": {},
   "Params":{
       "RoleID": 2
   }
@@ -407,9 +382,6 @@
     <t>resources/jsonSchema/getRights_pass.json</t>
   </si>
   <si>
-    <t>resources/jsonSchema/logout_pass.json</t>
-  </si>
-  <si>
     <t>resources/jsonSchema/requestPasswordReset_pass.json</t>
   </si>
   <si>
@@ -453,6 +425,18 @@
   </si>
   <si>
     <t>jsonSchema/login_fail.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/logout_pass.json</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {}}</t>
+  </si>
+  <si>
+    <t>http://10.0.0.111:8080/web-corporate/authentication/authentication/requestPasswordReset</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {"UserName": "ntm"}}</t>
   </si>
 </sst>
 </file>
@@ -649,7 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -762,6 +746,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2625,29 +2612,29 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2684,29 +2671,29 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2737,7 +2724,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +2753,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2782,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +2808,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2834,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +2865,7 @@
         <v>80</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2890,8 +2877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,40 +2897,40 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2962,13 +2949,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="22" customWidth="1"/>
     <col min="3" max="3" width="45.140625" style="22" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="22"/>
   </cols>
@@ -2981,18 +2968,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3004,14 +2991,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="24" customWidth="1"/>
     <col min="3" max="3" width="60.85546875" style="24" customWidth="1"/>
     <col min="4" max="1019" width="8.5703125" style="24"/>
     <col min="1020" max="16384" width="9.140625" style="24"/>
@@ -3025,34 +3012,38 @@
         <v>80</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3081,18 +3072,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3125,18 +3116,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3169,18 +3160,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3214,18 +3205,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3262,18 +3253,18 @@
         <v>80</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="115">
   <si>
     <t>Api</t>
   </si>
@@ -382,12 +382,6 @@
     <t>resources/jsonSchema/getRights_pass.json</t>
   </si>
   <si>
-    <t>resources/jsonSchema/requestPasswordReset_pass.json</t>
-  </si>
-  <si>
-    <t>resources/jsonSchema/requestPasswordReset_fail.json</t>
-  </si>
-  <si>
     <t>resources/jsonSchema/verifyPasswordResetToken_pass.json</t>
   </si>
   <si>
@@ -421,22 +415,19 @@
     <t>jsonSchema/login_pass.json</t>
   </si>
   <si>
-    <t>{"Header": {},"Params": {"UserName": "anik","Password": "123456728"}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/login_fail.json</t>
-  </si>
-  <si>
     <t>jsonSchema/logout_pass.json</t>
   </si>
   <si>
     <t>{"Header": {},"Params": {}}</t>
   </si>
   <si>
-    <t>http://10.0.0.111:8080/web-corporate/authentication/authentication/requestPasswordReset</t>
-  </si>
-  <si>
     <t>{"Header": {},"Params": {"UserName": "ntm"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/requestPasswordReset_pass.json</t>
+  </si>
+  <si>
+    <t>http://10.0.0.111:8080/web-corporate/api/submit/authentication/authentication/requestPasswordReset</t>
   </si>
 </sst>
 </file>
@@ -633,7 +624,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -746,9 +737,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2623,7 +2611,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -2634,7 +2622,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2875,15 +2863,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" style="24" customWidth="1"/>
     <col min="2" max="2" width="66.42578125" style="24" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" style="24" customWidth="1"/>
     <col min="4" max="16384" width="57" style="24"/>
@@ -2900,47 +2888,35 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId4"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2976,10 +2952,10 @@
         <v>84</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2989,17 +2965,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="99.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="24" customWidth="1"/>
     <col min="4" max="1019" width="8.5703125" style="24"/>
     <col min="1020" max="16384" width="9.140625" style="24"/>
   </cols>
@@ -3015,35 +2991,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>116</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId3"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3051,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,7 +3044,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3127,7 +3088,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3132,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3177,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3225,7 @@
         <v>93</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10260" windowHeight="7860" tabRatio="981" activeTab="3"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10260" windowHeight="7860" tabRatio="981" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="removeRightsFromRole" sheetId="15" r:id="rId15"/>
     <sheet name="addUsersToRole" sheetId="16" r:id="rId16"/>
     <sheet name="removeUsersFromRole" sheetId="17" r:id="rId17"/>
+    <sheet name="getUserActions" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="117">
   <si>
     <t>Api</t>
   </si>
@@ -429,12 +430,18 @@
   <si>
     <t>http://10.0.0.111:8080/web-corporate/api/submit/authentication/authentication/requestPasswordReset</t>
   </si>
+  <si>
+    <t>http://10.0.0.111:8080/web-corporate/api/submit/authorize/check/getUserActions</t>
+  </si>
+  <si>
+    <t>jsonSchema/getUserActions-Pass.json</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -492,6 +499,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,7 +638,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -724,21 +738,22 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1068,31 +1083,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1143,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1167,7 +1182,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
@@ -1362,7 +1377,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1401,7 +1416,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
         <v>17</v>
@@ -1436,7 +1451,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
@@ -1473,7 +1488,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
@@ -1551,7 +1566,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1592,7 +1607,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
         <v>45</v>
@@ -1629,7 +1644,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
         <v>48</v>
@@ -1666,7 +1681,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
         <v>17</v>
@@ -1701,7 +1716,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
         <v>17</v>
@@ -1738,7 +1753,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
         <v>17</v>
@@ -1816,7 +1831,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1855,7 +1870,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
         <v>17</v>
@@ -1890,7 +1905,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
         <v>17</v>
@@ -1927,7 +1942,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -1966,7 +1981,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
         <v>17</v>
@@ -2001,7 +2016,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15" t="s">
         <v>17</v>
@@ -2036,7 +2051,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
         <v>17</v>
@@ -2071,7 +2086,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15" t="s">
         <v>17</v>
@@ -2188,7 +2203,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2227,7 +2242,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15" t="s">
         <v>45</v>
@@ -2252,7 +2267,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
         <v>48</v>
@@ -2277,7 +2292,7 @@
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2314,7 +2329,7 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
         <v>45</v>
@@ -2351,7 +2366,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15" t="s">
         <v>48</v>
@@ -2384,7 +2399,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2407,7 +2422,7 @@
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2446,7 +2461,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -2467,7 +2482,7 @@
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -2488,7 +2503,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2527,7 +2542,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2553,6 +2568,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -2561,11 +2581,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -2835,7 +2850,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,6 +2873,49 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2967,7 +3025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10260" windowHeight="7860" tabRatio="981" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10260" windowHeight="7860" tabRatio="981" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="addUsersToRole" sheetId="16" r:id="rId16"/>
     <sheet name="removeUsersFromRole" sheetId="17" r:id="rId17"/>
     <sheet name="getUserActions" sheetId="20" r:id="rId18"/>
+    <sheet name="getRolesAuthenticatedUser" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="119">
   <si>
     <t>Api</t>
   </si>
@@ -435,6 +436,12 @@
   </si>
   <si>
     <t>jsonSchema/getUserActions-Pass.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/getRolesAuthenticatedUser-pass.json</t>
+  </si>
+  <si>
+    <t>http://10.0.0.111:8080/web-corporate/api/submit/authorize/check/getRolesAuthenticatedUser</t>
   </si>
 </sst>
 </file>
@@ -738,6 +745,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -753,7 +761,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1083,31 +1090,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1150,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1182,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
@@ -1377,7 +1384,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1416,7 +1423,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
         <v>17</v>
@@ -1451,7 +1458,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
@@ -1488,7 +1495,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
         <v>17</v>
@@ -1566,7 +1573,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1607,7 +1614,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
         <v>45</v>
@@ -1644,7 +1651,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15" t="s">
         <v>48</v>
@@ -1681,7 +1688,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
         <v>17</v>
@@ -1716,7 +1723,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
         <v>17</v>
@@ -1753,7 +1760,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
         <v>17</v>
@@ -1831,7 +1838,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1870,7 +1877,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15" t="s">
         <v>17</v>
@@ -1905,7 +1912,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
         <v>17</v>
@@ -1942,7 +1949,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -1981,7 +1988,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
         <v>17</v>
@@ -2016,7 +2023,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15" t="s">
         <v>17</v>
@@ -2051,7 +2058,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
         <v>17</v>
@@ -2086,7 +2093,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15" t="s">
         <v>17</v>
@@ -2203,7 +2210,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2242,7 +2249,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15" t="s">
         <v>45</v>
@@ -2267,7 +2274,7 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
         <v>48</v>
@@ -2292,7 +2299,7 @@
       <c r="M33" s="10"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2329,7 +2336,7 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
         <v>45</v>
@@ -2366,7 +2373,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15" t="s">
         <v>48</v>
@@ -2399,7 +2406,7 @@
       <c r="M36" s="16"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2422,7 +2429,7 @@
       <c r="M37" s="10"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="37" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2461,7 +2468,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -2482,7 +2489,7 @@
       <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
@@ -2503,7 +2510,7 @@
       <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2542,7 +2549,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2878,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,7 +2910,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>115</v>
       </c>
       <c r="B2" t="s">
@@ -2911,6 +2918,61 @@
       </c>
       <c r="C2" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -27,7 +27,7 @@
     <sheet name="removeUsersFromRole" sheetId="17" state="visible" r:id="rId18"/>
     <sheet name="getUserActions" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="getRolesAuthenticatedUser" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="getGetAccounts" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="getAccounts" sheetId="20" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -869,19 +869,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -2412,9 +2412,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="43.7044534412956"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2475,9 +2475,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="43.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2540,7 +2540,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2579,7 +2579,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2619,7 +2619,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2735,7 +2735,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="25" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2774,9 +2774,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2837,9 +2837,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="79.9109311740891"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="80.5546558704453"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2889,10 +2889,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="58.5951417004049"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,14 +2951,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="46.7044534412956"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3011,9 +3011,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3063,9 +3063,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="100.797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="101.655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="19" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="19" width="9.10526315789474"/>
   </cols>
@@ -3116,9 +3116,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="59.7732793522267"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="19" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="19" width="9.10526315789474"/>
   </cols>
@@ -3169,9 +3169,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="56.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="56.663967611336"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3221,9 +3221,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="53.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="54.2024291497976"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3273,9 +3273,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="49.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -3325,9 +3325,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="35.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,11 @@
     <sheet name="getUserActions" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="getRolesAuthenticatedUser" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="getAccounts" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="insertAccounts" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="updateAccounts" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="deleteAccounts" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="getAccountContacts" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="addAccountContactAffiliations" sheetId="25" state="visible" r:id="rId26"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="136">
   <si>
     <t>Api</t>
   </si>
@@ -453,6 +458,48 @@
   </si>
   <si>
     <t>jsonSchema/corporate/account/getAccounts.json</t>
+  </si>
+  <si>
+    <t>http://10.0.0.111:8080/web-corporate/api/submit/corporate/account/insertAccounts</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/insertAccounts.json</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/web-corporate/api/submit/corporate/account/updateAccounts</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Accounts":[{"AccountID":38,"oca":1}]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccounts.json</t>
+  </si>
+  <si>
+    <t>http://10.0.0.111:8080/web-corporate/api/submit/corporate/account/deleteAccounts</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountIDs": [43}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/deleteAccounts.json</t>
+  </si>
+  <si>
+    <t>http://10.0.0.111:8080/web-corporate/api/submit/corporate/account/getAccountContacts</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"DESC"}]},"Params":{"AcountIDs":[40]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getAccountContacts.json</t>
+  </si>
+  <si>
+    <t>http://10.0.0.111:8080/web-corporate/api/submit/corporate/account/addAccountContactAffiliations</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountIDs":[39,40],"ContactIDs":[1,2],"AffiliationTypeIDs":[1,2]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/addAccountContactAffiliations.json</t>
   </si>
 </sst>
 </file>
@@ -861,27 +908,27 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topRight" activeCell="F30" activeCellId="1" sqref="C:C F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -2406,15 +2453,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="36.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="47.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2469,15 +2516,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2532,15 +2579,15 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2573,13 +2620,13 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="C:C B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2612,8 +2659,8 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2652,8 +2699,8 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2690,8 +2737,8 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2728,14 +2775,14 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C:C A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="25" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2768,15 +2815,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C:C B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2831,15 +2878,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="C:C B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="80.5546558704453"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="87.8380566801619"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2883,16 +2930,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C:C A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="56.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="68.2348178137652"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="43.919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="63.7368421052632"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,15 +2997,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2988,6 +3035,272 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://10.0.0.111:8080/web-corporate/api/submit/corporate/account/getAccounts"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C:C"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="66.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="25" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C:C"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="66.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost:8080/web-corporate/api/submit/corporate/account/updateAccounts"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C:C"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="66.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="C:C A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://10.0.0.111:8080/web-corporate/api/submit/corporate/account/getAccountContacts"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="25" width="77.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="25" width="91.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="25" width="53.7246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="25" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3005,15 +3318,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C:C B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3057,15 +3370,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C:C B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="101.655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="111.080971659919"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="49.2753036437247"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="19" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="19" width="9.10526315789474"/>
   </cols>
@@ -3110,15 +3423,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C:C A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="59.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="65.1295546558705"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="19" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="19" width="9.10526315789474"/>
   </cols>
@@ -3163,15 +3476,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="56.663967611336"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="61.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3215,15 +3528,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="54.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3267,15 +3580,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="54.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -3319,15 +3632,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,6 +36,8 @@
     <sheet name="deleteAccounts" sheetId="26" state="visible" r:id="rId27"/>
     <sheet name="getAccountContacts" sheetId="27" state="visible" r:id="rId28"/>
     <sheet name="addAccountContactAffiliations" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="insertUser" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="updateUser" sheetId="30" state="visible" r:id="rId31"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="147">
   <si>
     <t>URL</t>
   </si>
@@ -512,6 +514,18 @@
   </si>
   <si>
     <t>jsonSchema/corporate/account/addAccountContactAffiliations.json</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/web-corporate/api/submit/corporate/user/insertUser</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/user/insertUser.json</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/web-corporate/api/submit/corporate/user/updateUser</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/user/updateUser.json</t>
   </si>
 </sst>
 </file>
@@ -523,7 +537,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -597,6 +611,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,7 +738,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,6 +859,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -920,16 +944,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="83.7935222672065"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.2550607287449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.5182186234818"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="66.412955465587"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,15 +997,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.4858299595142"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1025,15 +1049,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.5587044534413"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -1077,15 +1101,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1129,15 +1153,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1192,15 +1216,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1255,7 +1279,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1296,7 +1320,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1335,7 +1359,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1375,7 +1399,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1413,7 +1437,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1451,16 +1475,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.9676113360324"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="66.8866396761134"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="66.412955465587"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,14 +1528,14 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1544,15 +1568,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1607,15 +1631,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1659,15 +1683,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1711,15 +1735,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="71.2348178137652"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1763,15 +1787,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1815,15 +1839,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="72.6275303643725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="73.2712550607288"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="48.8461538461539"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1867,15 +1891,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.3036437246964"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1919,15 +1943,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.7651821862348"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="94.6923076923077"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.5182186234818"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="95.5506072874494"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1951,6 +1975,58 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1971,15 +2047,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.7651821862348"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.5182186234818"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2003,6 +2079,58 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2023,7 +2151,7 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F30" activeCellId="0" sqref="F30"/>
@@ -2031,19 +2159,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -3568,16 +3696,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="63.412955465587"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="63.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="66.412955465587"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,15 +3759,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3686,15 +3814,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="115.153846153846"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.9676113360324"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="116.117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="75.6275303643725"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
@@ -3739,15 +3867,14 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="82.502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="67.4331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="83.2307692307692"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="68.0202429149798"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -3792,15 +3919,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="78.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="111.910931174089"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="79.1619433198381"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="112.902834008097"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="64.2712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="28"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,6 +38,7 @@
     <sheet name="addAccountContactAffiliations" sheetId="28" state="visible" r:id="rId29"/>
     <sheet name="insertUser" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="updateUser" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="getRoleActions" sheetId="31" state="visible" r:id="rId32"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="150">
   <si>
     <t>URL</t>
   </si>
@@ -60,7 +61,7 @@
     <t>SchemaPath</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/authentication/authentication/deactivateUserLogins</t>
+    <t>/web-corporate/api/submit/authentication/authentication/deactivateUserLogins</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{"UserNames":["aaa@bss.com"]}}</t>
@@ -69,13 +70,13 @@
     <t>jsonSchema/authentication/authentication/deactivateUserLogins.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/authentication/authentication/activateUserLogins</t>
+    <t>/web-corporate/api/submit/authentication/authentication/activateUserLogins</t>
   </si>
   <si>
     <t>jsonSchema/authentication/authentication/activateUserLogins.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/authentication/getAuthenticatedUser</t>
+    <t>/web-corporate/authentication/getAuthenticatedUser</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{}}</t>
@@ -324,7 +325,7 @@
     <t>/authorize/setupService/relateUsersToRole</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/authentication/login</t>
+    <t>/web-corporate/authentication/login</t>
   </si>
   <si>
     <t>{"Header": {},"Params": {"UserName": "anik","Password": "12345678"}}</t>
@@ -336,7 +337,7 @@
     <t>{"Header": {},"Params": {"UserName": "ntm","Password": "12345678"}}</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/authentication/logout</t>
+    <t>/web-corporate/authentication/logout</t>
   </si>
   <si>
     <t>{"Header": {},"Params": {}}</t>
@@ -345,7 +346,7 @@
     <t>jsonSchema/authentication/logout.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/authentication/authentication/requestPasswordReset</t>
+    <t>/web-corporate/api/submit/authentication/authentication/requestPasswordReset</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{"UserName":"aaa@bss.com"}}</t>
@@ -354,7 +355,7 @@
     <t>jsonSchema/authentication/authentication/requestPasswordReset.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/authentication/authentication/verifyPasswordResetToken</t>
+    <t>/web-corporate/authentication/authentication/verifyPasswordResetToken</t>
   </si>
   <si>
     <t>{ "Header": {}, "Params": { "ResetToken": "74Oe1VioEd+elt61qc2HFg=="}}</t>
@@ -363,7 +364,7 @@
     <t>jsonSchema/authentication/authentication/verifyPasswordResetToken.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/authentication/authentication/updatePassword</t>
+    <t>/web-corporate/authentication/authentication/updatePassword</t>
   </si>
   <si>
     <t>{  "Header": {},  "Params":{ "Password": "12345678", "ConfirmPassword": "12345678", "ExistingPassword": "12345678"}}</t>
@@ -385,7 +386,7 @@
     <t>resources/jsonSchema/updatePasswordGuest_pass.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/authorize/setup/insertRole</t>
+    <t>/web-corporate/api/submit/authorize/setup/insertRole</t>
   </si>
   <si>
     <t>{
@@ -401,7 +402,7 @@
     <t>resources/jsonSchema/insertRole_pass.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/authorize/setup/deleteRole</t>
+    <t>/web-corporate/api/submit/authorize/setup/deleteRole</t>
   </si>
   <si>
     <t>{
@@ -439,7 +440,7 @@
     <t>resources/jsonSchema/deleteRole_fail.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/authorize/setup/getRights</t>
+    <t>/web-corporate/api/submit/authorize/setup/getRights</t>
   </si>
   <si>
     <t>{
@@ -453,19 +454,19 @@
     <t>resources/jsonSchema/getRights_pass.json</t>
   </si>
   <si>
-    <t>http://10.0.0.111:8080/web-corporate/api/submit/authorize/check/getUserActions</t>
-  </si>
-  <si>
-    <t>jsonSchema/getUserActions-Pass.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/web-corporate/api/submit/authorize/check/getRolesAuthenticatedUser</t>
-  </si>
-  <si>
-    <t>jsonSchema/getRolesAuthenticatedUser-pass.json</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/web-corporate/api/submit/corporate/account/getAccounts</t>
+    <t>/web-corporate/api/submit/authorize/check/getUserActions</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/check/getUserActions.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/authorize/check/getRolesAuthenticatedUser</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/check/getRolesAuthenticatedUser.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/getAccounts</t>
   </si>
   <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"DESC"}]},"Params":{}}</t>
@@ -474,13 +475,13 @@
     <t>jsonSchema/corporate/account/getAccounts.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/corporate/account/insertAccounts</t>
+    <t>/web-corporate/api/submit/corporate/account/insertAccounts</t>
   </si>
   <si>
     <t>jsonSchema/corporate/account/insertAccounts.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/corporate/account/updateAccounts</t>
+    <t>/web-corporate/api/submit/corporate/account/updateAccounts</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{"Accounts":[{"AccountID":38,"oca":1}]}}</t>
@@ -489,7 +490,7 @@
     <t>jsonSchema/corporate/account/updateAccounts.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/corporate/account/deleteAccounts</t>
+    <t>/web-corporate/api/submit/corporate/account/deleteAccounts</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{"AccountIDs": [43}}</t>
@@ -498,7 +499,7 @@
     <t>jsonSchema/corporate/account/deleteAccounts.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/corporate/account/getAccountContacts</t>
+    <t>/web-corporate/api/submit/corporate/account/getAccountContacts</t>
   </si>
   <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"DESC"}]},"Params":{"AcountIDs":[40]}}</t>
@@ -507,7 +508,7 @@
     <t>jsonSchema/corporate/account/getAccountContacts.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/corporate/account/addAccountContactAffiliations</t>
+    <t>/web-corporate/api/submit/corporate/account/addAccountContactAffiliations</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{"AccountIDs":[39,40],"ContactIDs":[1,2],"AffiliationTypeIDs":[1,2]}}</t>
@@ -516,16 +517,25 @@
     <t>jsonSchema/corporate/account/addAccountContactAffiliations.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/corporate/user/insertUser</t>
+    <t>/web-corporate/api/submit/corporate/user/insertUser</t>
   </si>
   <si>
     <t>jsonSchema/corporate/user/insertUser.json</t>
   </si>
   <si>
-    <t>http://localhost:8080/web-corporate/api/submit/corporate/user/updateUser</t>
+    <t>/web-corporate/api/submit/corporate/user/updateUser</t>
   </si>
   <si>
     <t>jsonSchema/corporate/user/updateUser.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/authorize/check/getRoleActions</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"RoleIDs":[13]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/check/getRoleActions.json</t>
   </si>
 </sst>
 </file>
@@ -537,7 +547,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -603,20 +613,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -738,7 +734,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -855,14 +851,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -874,66 +862,6 @@
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF1155CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -944,16 +872,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.5182186234818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="69.5182186234818"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="68.2348178137652"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,15 +925,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1020,7 +948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
         <v>104</v>
       </c>
@@ -1049,15 +977,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -1072,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
         <v>109</v>
       </c>
@@ -1101,15 +1029,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1124,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
         <v>112</v>
       </c>
@@ -1153,15 +1081,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1216,15 +1144,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1239,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
         <v>119</v>
       </c>
@@ -1250,7 +1178,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
         <v>119</v>
       </c>
@@ -1279,7 +1207,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1320,7 +1248,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1359,7 +1287,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1399,7 +1327,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1437,7 +1365,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1475,16 +1403,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="87.9433198380567"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="68.2348178137652"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,14 +1456,14 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1566,17 +1494,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1591,25 +1519,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1631,15 +1548,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.8016194331984"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="81.5182186234818"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1683,15 +1600,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1735,15 +1652,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="73.1619433198381"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1787,15 +1704,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="49.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1839,15 +1756,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="73.2712550607288"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.0890688259109"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="49.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1891,15 +1808,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.9473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1943,15 +1860,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.5182186234818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="95.5506072874494"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="98.1214574898785"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1995,16 +1912,16 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.3562753036437"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,13 +1936,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="5" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2047,15 +1964,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.5182186234818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2099,16 +2016,16 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.3562753036437"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,13 +2040,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="5" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2144,6 +2061,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -2151,7 +2120,7 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F30" activeCellId="0" sqref="F30"/>
@@ -2159,19 +2128,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -3696,16 +3665,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="63.9514170040486"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="65.663967611336"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="68.2348178137652"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,15 +3728,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3782,8 +3751,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -3794,9 +3763,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://localhost:8080/web-corporate/authentication/logout"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3814,15 +3780,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="116.117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="119.331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
@@ -3867,14 +3833,14 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="83.2307692307692"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="69.7327935222672"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -3919,15 +3885,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="79.1619433198381"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="112.902834008097"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="81.1943319838057"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="115.902834008097"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3942,7 +3908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
         <v>104</v>
       </c>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="20"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,6 +39,7 @@
     <sheet name="insertUser" sheetId="29" state="visible" r:id="rId30"/>
     <sheet name="updateUser" sheetId="30" state="visible" r:id="rId31"/>
     <sheet name="getRoleActions" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="getLogicalRoles" sheetId="32" state="visible" r:id="rId33"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="150">
   <si>
     <t>URL</t>
   </si>
@@ -389,55 +390,25 @@
     <t>/web-corporate/api/submit/authorize/setup/insertRole</t>
   </si>
   <si>
-    <t>{
-  "Header": {},
-  "Params":{
-    "Name": "Co-ordinator87",
-    "Description": "Test Description",
-    "LogicalRoles": [1,2,3,4]
-   }
-}</t>
-  </si>
-  <si>
-    <t>resources/jsonSchema/insertRole_pass.json</t>
+    <t>jsonSchema/authorize/setup/insertRole.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/authorize/setup/updateRole</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"ID":"30","oca":"1"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/setup/updateRole.json</t>
   </si>
   <si>
     <t>/web-corporate/api/submit/authorize/setup/deleteRole</t>
   </si>
   <si>
-    <t>{
-  "Header": {},
-  "Params":{
-      "ID": 16,
-      "oca": 1,
-      "Name": "Co-ordinator2"
-   }
-}</t>
-  </si>
-  <si>
-    <t>resources/jsonSchema/updateRole_pass.json</t>
-  </si>
-  <si>
-    <t>{
-  "Header": {},
-  "Params":{
-      "RoleID": 2
-  }
-}</t>
-  </si>
-  <si>
-    <t>resources/jsonSchema/deleteRole_pass.json</t>
-  </si>
-  <si>
-    <t>{
-  "Header": {},
-  "Params":{
-      "RoleID": 16
-  }
-}</t>
-  </si>
-  <si>
-    <t>resources/jsonSchema/deleteRole_fail.json</t>
+    <t>{ "Header": {}, "Params":{"ID": 32}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/setup/deleteRole.json</t>
   </si>
   <si>
     <t>/web-corporate/api/submit/authorize/setup/getRights</t>
@@ -536,6 +507,12 @@
   </si>
   <si>
     <t>jsonSchema/authorize/check/getRoleActions.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/authorize/setup/getLogicalRoles</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/setup/getLogicalRoles.json</t>
   </si>
 </sst>
 </file>
@@ -878,10 +855,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="86.7651821862348"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="70.7004048582996"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,9 +908,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.2348178137652"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -978,14 +955,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -1000,15 +977,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="25" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1030,14 +1007,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1052,15 +1029,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1081,15 +1058,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1104,9 +1081,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>115</v>
@@ -1115,17 +1092,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1150,9 +1117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1169,24 +1136,24 @@
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1409,10 +1376,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="87.9433198380567"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="91.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="70.7004048582996"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,7 +1430,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1496,15 +1463,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1521,13 +1488,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1554,9 +1521,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="81.5182186234818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.4089068825911"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1573,13 +1540,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1606,9 +1573,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1625,13 +1592,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1658,9 +1625,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.6275303643725"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1677,13 +1644,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1710,9 +1677,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1729,13 +1696,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1762,9 +1729,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.0890688259109"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.7692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1781,13 +1748,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1814,9 +1781,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1833,13 +1800,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1866,9 +1833,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.7651821862348"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="98.1214574898785"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="101.550607287449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1885,13 +1852,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1918,9 +1885,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="69.412955465587"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="72.5182186234818"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1937,13 +1904,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1970,9 +1937,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.7651821862348"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2022,9 +1989,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="69.412955465587"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="72.5182186234818"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2041,13 +2008,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2074,9 +2041,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2093,10 +2060,62 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>147</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>149</v>
@@ -2128,19 +2147,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -3671,10 +3690,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="70.7004048582996"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,9 +3753,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3786,9 +3805,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="119.331983805668"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="123.615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.3400809716599"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
@@ -3839,8 +3858,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="85.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="88.5870445344129"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="72.0890688259109"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -3891,9 +3910,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="81.1943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="115.902834008097"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.0890688259109"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="120.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="68.2348178137652"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="155">
   <si>
     <t>URL</t>
   </si>
@@ -423,6 +423,21 @@
   </si>
   <si>
     <t>resources/jsonSchema/getRights_pass.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/authorize/setup/addRightsToRole</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"RoleIDs":[29,30],"ActionIDs":[98,99]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/setup/addRightsToRole.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/authorize/setup/removeRightsFromRole</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/setup/removeRightsFromRole.json</t>
   </si>
   <si>
     <t>/web-corporate/api/submit/authorize/check/getUserActions</t>
@@ -855,10 +870,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="71.2348178137652"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,9 +923,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -960,9 +975,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.2388663967611"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -1012,9 +1027,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1058,15 +1073,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1117,9 +1132,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1252,16 +1267,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="5" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="55.8947368421053"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="46.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1274,6 +1290,17 @@
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1292,15 +1319,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="60.085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="57.5506072874494"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="47.2955465587045"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,6 +1342,17 @@
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1417,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.4493927125506"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="71.2348178137652"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,7 +1471,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1469,9 +1510,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1488,13 +1529,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1521,9 +1562,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.4089068825911"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="85.1578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1540,13 +1581,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1573,9 +1614,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1592,13 +1633,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1625,9 +1666,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="76.3765182186235"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1644,13 +1685,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1677,9 +1718,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1696,13 +1737,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1729,9 +1770,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.7692307692308"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="78.412955465587"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1748,13 +1789,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1781,9 +1822,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="81.4089068825911"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="55.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1800,13 +1841,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1833,9 +1874,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="101.550607287449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="102.404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1852,13 +1893,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1885,9 +1926,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.0566801619433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="73.1619433198381"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1904,13 +1945,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1937,9 +1978,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1989,9 +2030,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.0566801619433"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="73.1619433198381"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2008,13 +2049,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2041,9 +2082,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2060,13 +2101,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2093,9 +2134,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2112,13 +2153,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2147,19 +2188,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -3690,10 +3731,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.0202429149798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="71.2348178137652"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3753,9 +3794,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3805,9 +3846,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="123.615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="124.793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.9838056680162"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
@@ -3858,8 +3899,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="88.5870445344129"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="89.336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="72.7327935222672"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -3910,9 +3951,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.0890688259109"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="120.080971659919"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.8380566801619"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="121.14979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="68.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="159">
   <si>
     <t>URL</t>
   </si>
@@ -86,6 +86,9 @@
     <t>jsonSchema/authentication/getAuthenticatedUser.json</t>
   </si>
   <si>
+    <t>jsonSchema/authentication/getAuthenticatedUserAfterLogin.json</t>
+  </si>
+  <si>
     <t>Api</t>
   </si>
   <si>
@@ -338,10 +341,19 @@
     <t>{"Header": {},"Params": {"UserName": "ntm","Password": "12345678"}}</t>
   </si>
   <si>
+    <t>{"Header": {},"Params": {"UserName": "anik2","Password": "12345678"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/login_failed_invalid_user_or_pass.json</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/login_invalid_request_format.json</t>
+  </si>
+  <si>
     <t>/web-corporate/authentication/logout</t>
-  </si>
-  <si>
-    <t>{"Header": {},"Params": {}}</t>
   </si>
   <si>
     <t>jsonSchema/authentication/logout.json</t>
@@ -865,15 +877,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="95.6558704453441"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="74.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,14 +930,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="69.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -942,13 +954,13 @@
     </row>
     <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -970,14 +982,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A5 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.5951417004049"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.7368421052632"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -994,13 +1006,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" s="25" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1022,14 +1034,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A5 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1046,13 +1058,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1074,14 +1086,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1098,13 +1110,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1127,14 +1139,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A5 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1151,24 +1163,24 @@
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1202,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1231,7 +1243,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1270,14 +1282,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="55.8947368421053"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="46.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1294,13 +1306,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1321,15 +1333,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="A5 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="60.085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="57.5506072874494"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="47.2955465587045"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1346,13 +1358,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1374,7 +1386,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1412,15 +1424,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="91.8016194331984"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="96.7287449392713"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="74.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,13 +1477,13 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1505,14 +1517,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1529,13 +1541,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1557,14 +1569,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="85.1578947368421"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.6599190283401"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1581,13 +1593,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1609,14 +1621,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="100.906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="106.477732793522"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1633,13 +1645,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1661,14 +1673,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="80.3400809716599"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1685,13 +1697,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1713,14 +1725,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.7368421052632"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1737,13 +1749,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1765,14 +1777,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="78.412955465587"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.7368421052632"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1789,13 +1801,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1817,14 +1829,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="1" sqref="A5 B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="81.4089068825911"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="85.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1841,13 +1853,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1869,14 +1881,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="102.404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="95.6558704453441"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="107.975708502024"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1893,13 +1905,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1921,14 +1933,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="73.6963562753036"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="77.0202429149798"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1945,13 +1957,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1970,17 +1982,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="A5 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="95.6558704453441"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2004,6 +2016,17 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2025,14 +2048,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="73.6963562753036"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="77.0202429149798"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2049,13 +2072,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2077,14 +2100,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2101,13 +2124,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2129,14 +2152,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2153,13 +2176,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2183,43 +2206,43 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topRight" activeCell="F30" activeCellId="1" sqref="A5 F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2231,69 +2254,69 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="n">
@@ -2307,25 +2330,25 @@
       <c r="A4" s="11"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>12345678</v>
@@ -2340,117 +2363,117 @@
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="15" t="n">
         <v>8</v>
@@ -2461,34 +2484,34 @@
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="n">
@@ -2500,31 +2523,31 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="12" t="n">
         <v>12345678</v>
@@ -2541,25 +2564,25 @@
       <c r="A10" s="11"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="20" t="n">
         <v>12345678</v>
@@ -2576,31 +2599,31 @@
       <c r="A11" s="11"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11" s="20" t="n">
         <v>12345678</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L11" s="20" t="n">
         <v>8</v>
@@ -2613,31 +2636,31 @@
       <c r="A12" s="11"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>32</v>
@@ -2648,57 +2671,57 @@
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>1000</v>
@@ -2707,35 +2730,35 @@
         <v>-1</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="J14" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="20" t="n">
         <v>0</v>
@@ -2744,165 +2767,165 @@
         <v>0</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>8</v>
@@ -2913,429 +2936,429 @@
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" s="20" t="n">
         <v>10</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" s="20" t="n">
         <v>2</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="J29" s="22" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>1000</v>
@@ -3344,33 +3367,33 @@
         <v>-1</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="20" t="n">
         <v>0</v>
@@ -3379,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -3392,19 +3415,19 @@
       <c r="A33" s="11"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -3415,16 +3438,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>1000</v>
@@ -3433,19 +3456,19 @@
         <v>-1</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L34" s="12"/>
       <c r="M34" s="14"/>
@@ -3454,10 +3477,10 @@
       <c r="A35" s="11"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>0</v>
@@ -3466,19 +3489,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L35" s="20" t="n">
         <v>8</v>
@@ -3491,31 +3514,31 @@
       <c r="A36" s="11"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
@@ -3529,57 +3552,57 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="J38" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,13 +3614,13 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -3612,13 +3635,13 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -3626,41 +3649,41 @@
     </row>
     <row r="41" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="J41" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,20 +3695,20 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3723,18 +3746,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="74.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,26 +3773,49 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3789,14 +3835,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3813,13 +3859,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3841,14 +3887,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="124.793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="131.647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.3724696356275"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
@@ -3866,13 +3912,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3894,13 +3940,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="89.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="76.6963562753036"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -3918,13 +3964,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3946,14 +3992,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.8380566801619"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="121.14979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="89.4453441295547"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="127.793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.5182186234818"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3970,13 +4016,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,41 +5,42 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="activateUserLogins" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="getAuthenticatedUser" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="API Request Matrix" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="login" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="logout" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="requestPasswordReset" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="verifyPasswordResetToken" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="updatePassword" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="updatePasswordGuest" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="insertRole" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="updateRole" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="deleteRole" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="getRights" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="getRoleUsers" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="getUsers" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="addRightsToRole" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="removeRightsFromRole" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="addUsersToRole" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="removeUsersFromRole" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="getUserActions" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="getRolesAuthenticatedUser" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="getAccounts" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="insertAccounts" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="updateAccounts" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="deleteAccounts" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="getAccountContacts" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="addAccountContactAffiliations" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="insertUser" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="updateUser" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="getRoleActions" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="getLogicalRoles" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="login_failed" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="login" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="logout" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="requestPasswordReset" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="verifyPasswordResetToken" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="updatePassword" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="updatePasswordGuest" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="insertRole" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="updateRole" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="deleteRole" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="getRights" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="getRoleUsers" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="getUsers" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="addRightsToRole" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="removeRightsFromRole" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="addUsersToRole" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="removeUsersFromRole" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="getUserActions" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="getRolesAuthenticatedUser" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="getAccounts" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="insertAccounts" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="updateAccounts" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="deleteAccounts" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="getAccountContacts" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="addAccountContactAffiliations" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="insertUser" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="updateUser" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="getRoleActions" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="getLogicalRoles" sheetId="33" state="visible" r:id="rId34"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="170">
   <si>
     <t>URL</t>
   </si>
@@ -332,6 +333,18 @@
     <t>/web-corporate/authentication/login</t>
   </si>
   <si>
+    <t>{"Header": {},"Params": {"UserName": "anik2","Password": "12345678"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/login_failed_invalid_user_or_pass.json</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/login_invalid_request_format.json</t>
+  </si>
+  <si>
     <t>{"Header": {},"Params": {"UserName": "anik","Password": "12345678"}}</t>
   </si>
   <si>
@@ -341,18 +354,6 @@
     <t>{"Header": {},"Params": {"UserName": "ntm","Password": "12345678"}}</t>
   </si>
   <si>
-    <t>{"Header": {},"Params": {"UserName": "anik2","Password": "12345678"}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/authentication/login_failed_invalid_user_or_pass.json</t>
-  </si>
-  <si>
-    <t>{"Header": {},"Params": {}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/authentication/login_invalid_request_format.json</t>
-  </si>
-  <si>
     <t>/web-corporate/authentication/logout</t>
   </si>
   <si>
@@ -368,7 +369,16 @@
     <t>jsonSchema/authentication/authentication/requestPasswordReset.json</t>
   </si>
   <si>
-    <t>/web-corporate/authentication/authentication/verifyPasswordResetToken</t>
+    <t>{"Header":{},"Params":{"UserName":"invalid"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/authentication/requestPasswordReset_invalidUser.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/authentication/requestPasswordReset_invalidParam.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/authentication/authentication/verifyPasswordResetToken</t>
   </si>
   <si>
     <t>{ "Header": {}, "Params": { "ResetToken": "74Oe1VioEd+elt61qc2HFg=="}}</t>
@@ -377,13 +387,37 @@
     <t>jsonSchema/authentication/authentication/verifyPasswordResetToken.json</t>
   </si>
   <si>
-    <t>/web-corporate/authentication/authentication/updatePassword</t>
+    <t>{ "Header": {}, "Params": { "ResetToken": "invalid"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/authentication/verifyPasswordResetTokenInvalidToken.json</t>
+  </si>
+  <si>
+    <t>{ "Header": {}, "Params": {}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/authentication/verifyPasswordResetTokenInvalidParam.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/authentication/authentication/updatePassword</t>
   </si>
   <si>
     <t>{  "Header": {},  "Params":{ "Password": "12345678", "ConfirmPassword": "12345678", "ExistingPassword": "12345678"}}</t>
   </si>
   <si>
     <t>jsonSchema/authentication/authentication/updatePassword.json</t>
+  </si>
+  <si>
+    <t>{  "Header": {},  "Params":{ "Password": "112", "ConfirmPassword": "12", "ExistingPassword": "12"}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/authentication/updatePasswordInvalidPass.json</t>
+  </si>
+  <si>
+    <t>{  "Header": {},  "Params":{ }}</t>
+  </si>
+  <si>
+    <t>jsonSchema/authentication/authentication/updatePasswordInvalidParam.json</t>
   </si>
   <si>
     <t>{
@@ -876,16 +910,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="95.6558704453441"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="77.0202429149798"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,17 +961,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="91.8016194331984"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="131.327935222672"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.3400809716599"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -952,15 +986,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -981,16 +1037,16 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A5 C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="49.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,24 +1060,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="25" t="n">
+        <v>115</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1033,19 +1089,19 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A5 C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1057,14 +1113,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>117</v>
+      <c r="A2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="25" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1083,17 +1139,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5 B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1109,17 +1165,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>118</v>
+      <c r="A2" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1138,19 +1193,19 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A5 A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.5587044534413"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1161,35 +1216,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>121</v>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1199,29 +1244,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1242,14 +1309,16 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5 B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="6.53441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,18 +1348,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="58.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="49.0607287449393"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,17 +1369,6 @@
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1333,15 +1389,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="A5 C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="63.1983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1356,15 +1412,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1383,15 +1439,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="64.8056680161943"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,6 +1462,17 @@
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1423,16 +1493,16 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="96.7287449392713"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="75.9473684210526"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="99.2995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="77.0202429149798"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,15 +1546,13 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,18 +1582,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5 B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,17 +1604,6 @@
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1568,16 +1624,16 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.6599190283401"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,13 +1649,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1620,19 +1676,19 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="92.0161943319838"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1645,22 +1701,22 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1672,15 +1728,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="109.368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1697,13 +1753,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>123</v>
+        <v>144</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1724,15 +1780,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1749,13 +1805,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1776,15 +1832,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="82.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1801,13 +1857,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1828,15 +1884,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="1" sqref="A5 B29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="85.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.8380566801619"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1853,13 +1909,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1880,15 +1936,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="95.6558704453441"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="107.975708502024"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="87.9433198380567"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1905,13 +1961,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1932,15 +1988,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="110.866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.7004048582996"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1957,13 +2013,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>123</v>
+        <v>158</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1984,15 +2040,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="A5 C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="95.6558704453441"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.7004048582996"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2047,15 +2103,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.6275303643725"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="79.0526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2072,13 +2128,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2099,15 +2155,67 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2124,13 +2232,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2144,22 +2252,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5 A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2176,13 +2284,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2203,27 +2311,27 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F30" activeCellId="1" sqref="A5 F30"/>
+      <selection pane="topRight" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -3746,18 +3854,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="73.0566801619433"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="77.0202429149798"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3771,7 +3879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>92</v>
       </c>
@@ -3782,7 +3890,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>92</v>
       </c>
@@ -3790,31 +3898,11 @@
         <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3832,18 +3920,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="77.0202429149798"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,16 +3946,30 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3886,39 +3988,38 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="131.647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3937,39 +4038,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="76.6963562753036"/>
-    <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3989,18 +4113,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5 A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="89.4453441295547"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="127.793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,7 +4139,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4023,6 +4147,28 @@
       </c>
       <c r="C2" s="4" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="175">
   <si>
     <t>URL</t>
   </si>
@@ -72,10 +72,22 @@
     <t>jsonSchema/authentication/authentication/deactivateUserLogins.json</t>
   </si>
   <si>
+    <t>{"Header":{},"Params":{}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"UserNames":["aaaw2@b323ss.com"]}}</t>
+  </si>
+  <si>
     <t>/web-corporate/api/submit/authentication/authentication/activateUserLogins</t>
   </si>
   <si>
     <t>jsonSchema/authentication/authentication/activateUserLogins.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"UserNames":["aaa@bss.com2"]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"UserNames":["test"]}}</t>
   </si>
   <si>
     <t>/web-corporate/authentication/getAuthenticatedUser</t>
@@ -478,6 +490,9 @@
   </si>
   <si>
     <t>jsonSchema/authorize/setup/addRightsToRole.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"RoleIDs":[1],"ActionIDs":[1]}}</t>
   </si>
   <si>
     <t>/web-corporate/api/submit/authorize/setup/removeRightsFromRole</t>
@@ -908,18 +923,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="98.2267206477733"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="100.797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.0526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +959,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -963,15 +1010,15 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="91.8016194331984"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="131.327935222672"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="94.2631578947368"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="134.971659919028"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="76.3765182186235"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -988,35 +1035,35 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1043,9 +1090,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="73.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1062,13 +1109,13 @@
     </row>
     <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1095,9 +1142,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.0607287449393"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -1114,13 +1161,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B2" s="25" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1147,9 +1194,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1166,13 +1213,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1199,9 +1246,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1218,13 +1265,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1252,9 +1299,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1271,24 +1318,24 @@
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1387,17 +1434,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1414,13 +1461,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1447,9 +1516,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="64.8056680161943"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1466,13 +1535,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1491,18 +1560,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="99.2995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="101.975708502024"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.0161943319838"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.0526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,16 +1587,48 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1591,7 +1692,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1630,9 +1731,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1649,13 +1750,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1682,9 +1783,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="92.0161943319838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="94.4777327935223"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1701,13 +1802,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1734,9 +1835,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="109.368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="112.368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1753,13 +1854,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1786,9 +1887,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.6234817813765"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1805,13 +1906,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1838,9 +1939,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1857,13 +1958,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1890,9 +1991,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.8380566801619"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="87.0890688259109"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1909,13 +2010,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1942,9 +2043,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="87.9433198380567"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="90.1943319838057"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1961,13 +2062,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1994,9 +2095,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="98.2267206477733"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="110.866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="100.797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="113.761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2013,13 +2114,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2046,9 +2147,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="98.2267206477733"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="100.797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2065,24 +2166,24 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2101,17 +2202,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="80.9838056680162"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2128,13 +2229,46 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2161,9 +2295,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="80.9838056680162"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2180,13 +2314,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2213,9 +2347,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2232,13 +2366,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2265,9 +2399,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2284,13 +2418,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2319,38 +2453,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2362,69 +2496,69 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="n">
@@ -2438,25 +2572,25 @@
       <c r="A4" s="11"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>12345678</v>
@@ -2471,117 +2605,117 @@
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L7" s="15" t="n">
         <v>8</v>
@@ -2592,34 +2726,34 @@
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="n">
@@ -2631,31 +2765,31 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J9" s="12" t="n">
         <v>12345678</v>
@@ -2672,25 +2806,25 @@
       <c r="A10" s="11"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J10" s="20" t="n">
         <v>12345678</v>
@@ -2707,31 +2841,31 @@
       <c r="A11" s="11"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J11" s="20" t="n">
         <v>12345678</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L11" s="20" t="n">
         <v>8</v>
@@ -2744,31 +2878,31 @@
       <c r="A12" s="11"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>32</v>
@@ -2779,57 +2913,57 @@
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>1000</v>
@@ -2838,35 +2972,35 @@
         <v>-1</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J14" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" s="20" t="n">
         <v>0</v>
@@ -2875,165 +3009,165 @@
         <v>0</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J16" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J18" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>8</v>
@@ -3044,429 +3178,429 @@
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="J21" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J24" s="20" t="n">
         <v>10</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J25" s="20" t="n">
         <v>2</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J29" s="22" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>1000</v>
@@ -3475,33 +3609,33 @@
         <v>-1</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E32" s="20" t="n">
         <v>0</v>
@@ -3510,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -3523,19 +3657,19 @@
       <c r="A33" s="11"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -3546,16 +3680,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>1000</v>
@@ -3564,19 +3698,19 @@
         <v>-1</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L34" s="12"/>
       <c r="M34" s="14"/>
@@ -3585,10 +3719,10 @@
       <c r="A35" s="11"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>0</v>
@@ -3597,19 +3731,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L35" s="20" t="n">
         <v>8</v>
@@ -3622,31 +3756,31 @@
       <c r="A36" s="11"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
@@ -3660,57 +3794,57 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J38" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3722,13 +3856,13 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -3743,13 +3877,13 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -3757,41 +3891,41 @@
     </row>
     <row r="41" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="D41" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J41" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,20 +3937,20 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3862,10 +3996,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="74.0202429149798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.0526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,24 +4015,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3928,10 +4062,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="74.0202429149798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="89.9797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.0526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,24 +4081,24 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3994,9 +4128,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4013,13 +4147,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4046,9 +4180,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="87.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="89.9797570850202"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
@@ -4066,35 +4200,35 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4121,8 +4255,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="78.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="80.6599190283401"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -4140,35 +4274,35 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="174">
   <si>
     <t>URL</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>{"Header":{},"Params":{}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/authentication/getAuthenticatedUser.json</t>
   </si>
   <si>
     <t>jsonSchema/authentication/getAuthenticatedUserAfterLogin.json</t>
@@ -931,10 +928,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="100.797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="101.655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.6963562753036"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,9 +1013,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="94.2631578947368"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="134.971659919028"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="95.0161943319838"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="136.255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.0202429149798"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1035,35 +1032,35 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1090,9 +1087,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="83.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="73.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="73.6963562753036"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1109,13 +1106,13 @@
     </row>
     <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1142,9 +1139,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.7004048582996"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -1161,13 +1158,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="25" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1194,9 +1191,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1213,13 +1210,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>131</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1246,9 +1243,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.1295546558704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1265,13 +1262,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1299,9 +1296,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1318,24 +1315,24 @@
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1436,15 +1433,15 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="61.8056680161943"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1461,35 +1458,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1516,9 +1513,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1535,13 +1532,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1568,10 +1565,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="101.975708502024"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.0161943319838"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="102.939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.6963562753036"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,7 +1689,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1731,9 +1728,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1750,13 +1747,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1783,9 +1780,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="94.4777327935223"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="95.2267206477733"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1802,13 +1799,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1835,9 +1832,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="112.368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="113.331983805668"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1854,13 +1851,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1887,9 +1884,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.6234817813765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="85.3724696356275"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1906,13 +1903,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1939,9 +1936,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1958,13 +1955,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1991,9 +1988,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="87.0890688259109"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="87.8380566801619"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="58.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2010,13 +2007,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2043,9 +2040,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="90.1943319838057"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="61.4858299595142"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2062,13 +2059,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2095,9 +2092,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="100.797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="113.761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="101.655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="114.82995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.9473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2114,13 +2111,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2139,17 +2136,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="100.797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="101.655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.9473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2173,17 +2170,6 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2210,9 +2196,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="78.3036437246964"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="81.7327935222672"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2229,46 +2215,46 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2295,9 +2281,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="78.3036437246964"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="81.7327935222672"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2314,13 +2300,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2347,9 +2333,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2366,13 +2352,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2399,9 +2385,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="58.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2418,13 +2404,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2453,38 +2439,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2496,69 +2482,69 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="n">
@@ -2572,25 +2558,25 @@
       <c r="A4" s="11"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>12345678</v>
@@ -2605,117 +2591,117 @@
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="I5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="L7" s="15" t="n">
         <v>8</v>
@@ -2726,34 +2712,34 @@
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="n">
@@ -2765,31 +2751,31 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="12" t="n">
         <v>12345678</v>
@@ -2806,25 +2792,25 @@
       <c r="A10" s="11"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J10" s="20" t="n">
         <v>12345678</v>
@@ -2841,31 +2827,31 @@
       <c r="A11" s="11"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="20" t="n">
         <v>12345678</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L11" s="20" t="n">
         <v>8</v>
@@ -2878,31 +2864,31 @@
       <c r="A12" s="11"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>32</v>
@@ -2913,57 +2899,57 @@
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>1000</v>
@@ -2972,35 +2958,35 @@
         <v>-1</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="20" t="n">
         <v>0</v>
@@ -3009,165 +2995,165 @@
         <v>0</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>63</v>
-      </c>
       <c r="K15" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="E16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="I16" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="K19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>8</v>
@@ -3178,429 +3164,429 @@
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="I21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="K23" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="I24" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J24" s="20" t="n">
         <v>10</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25" s="20" t="n">
         <v>2</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="K28" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J29" s="22" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="I30" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>1000</v>
@@ -3609,33 +3595,33 @@
         <v>-1</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="20" t="n">
         <v>0</v>
@@ -3644,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -3657,19 +3643,19 @@
       <c r="A33" s="11"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="F33" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -3680,16 +3666,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>1000</v>
@@ -3698,19 +3684,19 @@
         <v>-1</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L34" s="12"/>
       <c r="M34" s="14"/>
@@ -3719,10 +3705,10 @@
       <c r="A35" s="11"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>0</v>
@@ -3731,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="I35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="J35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="K35" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L35" s="20" t="n">
         <v>8</v>
@@ -3756,31 +3742,31 @@
       <c r="A36" s="11"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="F36" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H36" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>87</v>
-      </c>
       <c r="K36" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
@@ -3794,57 +3780,57 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>89</v>
-      </c>
       <c r="K37" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="F38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="I38" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J38" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,13 +3842,13 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -3877,13 +3863,13 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -3891,41 +3877,41 @@
     </row>
     <row r="41" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="F41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="I41" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J41" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,20 +3923,20 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3996,10 +3982,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.9473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.6963562753036"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,24 +4001,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4057,15 +4043,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.9473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.6963562753036"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4081,24 +4067,24 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4128,9 +4114,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4147,13 +4133,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4180,9 +4166,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="90.8380566801619"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
@@ -4200,35 +4186,35 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4255,8 +4241,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="81.4089068825911"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -4274,35 +4260,35 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,42 +5,43 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="activateUserLogins" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="getAuthenticatedUser" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="API Request Matrix" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="login_failed" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="login" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="logout" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="requestPasswordReset" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="verifyPasswordResetToken" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="updatePassword" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="updatePasswordGuest" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="insertRole" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="updateRole" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="deleteRole" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="getRights" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="getRoleUsers" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="getUsers" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="addRightsToRole" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="removeRightsFromRole" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="addUsersToRole" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="removeUsersFromRole" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="getUserActions" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="getRolesAuthenticatedUser" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="getAccounts" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="insertAccounts" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="updateAccounts" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="deleteAccounts" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="getAccountContacts" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="addAccountContactAffiliations" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="insertUser" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="updateUser" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="getRoleActions" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="getLogicalRoles" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="getAuthenticatedUserLogout" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="getAuthenticatedUser" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="API Request Matrix" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="login_failed" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="login" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="logout" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="requestPasswordReset" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="verifyPasswordResetToken" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="updatePassword" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="updatePasswordGuest" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="insertRole" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="updateRole" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="deleteRole" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="getRights" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="getRoleUsers" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="getUsers" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="addRightsToRole" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="removeRightsFromRole" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="addUsersToRole" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="removeUsersFromRole" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="getUserActions" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="getRolesAuthenticatedUser" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="getAccounts" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="insertAccounts" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="updateAccounts" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="deleteAccounts" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="getAccountContacts" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="addAccountContactAffiliations" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="insertUser" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="updateUser" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="getRoleActions" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="getLogicalRoles" sheetId="34" state="visible" r:id="rId35"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="176">
   <si>
     <t>URL</t>
   </si>
@@ -96,6 +97,9 @@
     <t>{"Header":{},"Params":{}}</t>
   </si>
   <si>
+    <t>jsonSchema/authentication/getAuthenticatedUser.json</t>
+  </si>
+  <si>
     <t>jsonSchema/authentication/getAuthenticatedUserAfterLogin.json</t>
   </si>
   <si>
@@ -361,6 +365,9 @@
   </si>
   <si>
     <t>{"Header": {},"Params": {"UserName": "ntm","Password": "12345678"}}</t>
+  </si>
+  <si>
+    <t>{"Header": {},"Params": {"UserName": "ntm","Password": "123"}}</t>
   </si>
   <si>
     <t>/web-corporate/authentication/logout</t>
@@ -928,10 +935,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="101.655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="80.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,15 +1015,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="95.0161943319838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="136.255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="101.761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="82.8016194331984"/>
+    <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,36 +1038,36 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1079,17 +1086,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="84.6234817813765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="96.7287449392713"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="138.720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="78.3036437246964"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1104,14 +1111,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1134,15 +1163,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,12 +1185,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="25" t="n">
-        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>128</v>
@@ -1169,11 +1198,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1191,13 +1220,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="46.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,14 +1238,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="25" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1235,17 +1264,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1261,17 +1290,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1291,14 +1319,67 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="26" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1315,24 +1396,24 @@
     </row>
     <row r="2" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1387,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1426,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1439,82 +1520,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="62.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="51.9514170040486"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.412955465587"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
@@ -1530,15 +1537,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>143</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +1594,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="102.939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="104.655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.1619433198381"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="80.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,15 +1671,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,6 +1694,17 @@
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1688,9 +1731,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,18 +1761,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,17 +1783,6 @@
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1775,15 +1804,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="95.2267206477733"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,15 +1859,15 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="84.6234817813765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="113.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="96.9433198380567"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1854,19 +1883,19 @@
         <v>148</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1884,9 +1913,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="115.368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1903,10 +1932,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>152</v>
@@ -1937,8 +1966,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1957,11 +1986,11 @@
       <c r="A2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1988,9 +2017,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="87.8380566801619"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="58.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="88.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2007,13 +2036,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2035,14 +2064,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.4453441295547"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.0242914979757"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2059,13 +2088,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2087,14 +2116,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="101.655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="114.82995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="92.5506072874494"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2111,13 +2140,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2138,15 +2167,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="101.655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="68.1295546558705"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2188,17 +2217,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="116.761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="68.1295546558705"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2215,45 +2244,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>123</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2273,17 +2269,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="79.6963562753036"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="83.1255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2306,6 +2302,39 @@
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2328,18 +2357,18 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2354,20 +2383,20 @@
       <c r="A2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2380,14 +2409,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2404,13 +2433,65 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>172</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2429,6 +2510,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="103.582995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2439,38 +2572,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2482,69 +2615,69 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="n">
@@ -2558,25 +2691,25 @@
       <c r="A4" s="11"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" s="15" t="n">
         <v>12345678</v>
@@ -2591,117 +2724,117 @@
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="15" t="n">
         <v>8</v>
@@ -2712,34 +2845,34 @@
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="n">
@@ -2751,31 +2884,31 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="12" t="n">
         <v>12345678</v>
@@ -2792,25 +2925,25 @@
       <c r="A10" s="11"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="20" t="n">
         <v>12345678</v>
@@ -2827,31 +2960,31 @@
       <c r="A11" s="11"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" s="20" t="n">
         <v>12345678</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" s="20" t="n">
         <v>8</v>
@@ -2864,31 +2997,31 @@
       <c r="A12" s="11"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>32</v>
@@ -2899,57 +3032,57 @@
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>1000</v>
@@ -2958,35 +3091,35 @@
         <v>-1</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="J14" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="20" t="n">
         <v>0</v>
@@ -2995,165 +3128,165 @@
         <v>0</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J18" s="20" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>8</v>
@@ -3164,429 +3297,429 @@
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M22" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J24" s="20" t="n">
         <v>10</v>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M24" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J25" s="20" t="n">
         <v>2</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M27" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
       <c r="B28" s="15"/>
       <c r="C28" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="J29" s="22" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>1000</v>
@@ -3595,33 +3728,33 @@
         <v>-1</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" s="20" t="n">
         <v>0</v>
@@ -3630,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -3643,19 +3776,19 @@
       <c r="A33" s="11"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -3666,16 +3799,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>1000</v>
@@ -3684,19 +3817,19 @@
         <v>-1</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L34" s="12"/>
       <c r="M34" s="14"/>
@@ -3705,10 +3838,10 @@
       <c r="A35" s="11"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35" s="20" t="n">
         <v>0</v>
@@ -3717,19 +3850,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L35" s="20" t="n">
         <v>8</v>
@@ -3742,31 +3875,31 @@
       <c r="A36" s="11"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
@@ -3780,57 +3913,57 @@
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="J38" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,13 +3975,13 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
@@ -3863,13 +3996,13 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -3877,41 +4010,41 @@
     </row>
     <row r="41" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="J41" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,20 +4056,20 @@
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3969,7 +4102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3982,10 +4115,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="77.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="80.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,90 +4134,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="76.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="79.6963562753036"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4106,18 +4173,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.6518218623482"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="80.9838056680162"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4132,16 +4199,50 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C3" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4158,29 +4259,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="90.8380566801619"/>
-    <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4189,32 +4289,10 @@
         <v>105</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4236,59 +4314,60 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="100.048582995951"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="81.4089068825911"/>
-    <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="177">
   <si>
     <t>URL</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>jsonSchema/authorize/check/getRoleActions.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/authorize/check/getRoleActionsInvalidParam.json</t>
   </si>
   <si>
     <t>/web-corporate/api/submit/authorize/setup/getLogicalRoles</t>
@@ -930,15 +933,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="83.8744939271255"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,8 +1023,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="82.8016194331984"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="85.6963562753036"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -1094,9 +1097,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="96.7287449392713"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="138.720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="100.263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="143.753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.9838056680162"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1168,9 +1171,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1220,9 +1223,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="55.2753036437247"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.2348178137652"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -1272,9 +1275,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="64.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1324,9 +1327,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1377,9 +1380,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1520,9 +1523,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="63.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.663967611336"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1594,10 +1597,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="104.655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.1619433198381"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="83.8744939271255"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,9 +1682,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="68.2348178137652"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1770,7 +1773,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1803,15 +1806,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="51.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1856,14 +1859,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="96.9433198380567"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="100.368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1913,9 +1916,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.1255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="115.368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.2307692307692"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="119.546558704453"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1965,9 +1968,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.9797570850202"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2017,9 +2020,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="88.4817813765182"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="61.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2069,9 +2072,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.4453441295547"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="92.5506072874494"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="61.0566801619433"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2121,9 +2124,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="92.5506072874494"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="95.8704453441296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.7004048582996"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2173,9 +2176,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2225,9 +2228,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="116.761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="120.935222672065"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2277,9 +2280,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="82.4817813765182"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="86.1255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2362,9 +2365,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="82.4817813765182"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="86.1255060728745"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2406,17 +2409,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2440,6 +2443,17 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2466,9 +2480,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2485,13 +2499,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2518,9 +2532,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="103.582995951417"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="107.226720647773"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2572,19 +2586,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -4115,10 +4129,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="77.9838056680162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="80.6599190283401"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="83.8744939271255"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,16 +4189,16 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="34.251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="63.6518218623482"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="83.8744939271255"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,9 +4281,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="62.663967611336"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="64.8056680161943"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4319,9 +4333,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="95.7651821862348"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="deactivateUserLogins" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="179">
   <si>
     <t>URL</t>
   </si>
@@ -571,7 +571,13 @@
     <t>/web-corporate/api/submit/corporate/user/insertUser</t>
   </si>
   <si>
+    <t>{"Header":{},"Params":{"UserName":"test82@gmail.com","Password":"12345678","FirstName":"test82","LastName":"test82","EmailAddress":"test82@gmail.com"}}</t>
+  </si>
+  <si>
     <t>jsonSchema/corporate/user/insertUser.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/user/insertUserParamError.json</t>
   </si>
   <si>
     <t>/web-corporate/api/submit/corporate/user/updateUser</t>
@@ -938,10 +944,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="85.3724696356275"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,8 +1029,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="105.51012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="85.6963562753036"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="107.441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="87.1943319838057"/>
     <col collapsed="false" hidden="false" max="1015" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1016" style="1" width="9.10526315789474"/>
   </cols>
@@ -1097,9 +1103,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="100.263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="143.753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.9838056680162"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="101.975708502024"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="146.323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="82.4817813765182"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1171,9 +1177,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="79.0526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1223,9 +1229,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="72.5182186234818"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="11.5708502024291"/>
   </cols>
   <sheetData>
@@ -1275,9 +1281,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.2348178137652"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1327,9 +1333,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="59.4493927125506"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.663967611336"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1380,9 +1386,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1523,9 +1529,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="67.5910931174089"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1597,10 +1603,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="85.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="86.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="85.3724696356275"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,9 +1688,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="70.7004048582996"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1773,7 +1779,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1806,15 +1812,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="51.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="67.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1864,9 +1870,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="100.368421052632"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="102.085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="67.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1916,9 +1922,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.2307692307692"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="119.546558704453"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="90.8380566801619"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="121.793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="67.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -1968,9 +1974,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="89.9797570850202"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.6923076923077"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="67.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2020,9 +2026,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.1295546558704"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2072,9 +2078,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="92.5506072874494"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="94.2631578947368"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="62.1295546558704"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2124,9 +2130,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="95.8704453441296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="78.3036437246964"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="97.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="65.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2176,9 +2182,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="71.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2228,9 +2234,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="120.935222672065"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="123.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="71.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2272,17 +2278,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="139.255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="87.6234817813765"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2301,44 +2307,22 @@
       <c r="A2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>123</v>
+      <c r="B2" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>123</v>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>123</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2365,9 +2349,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="83.8744939271255"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="5" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="87.6234817813765"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2384,13 +2368,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2417,9 +2401,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="102.728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="104.546558704453"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="67.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2436,24 +2420,24 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2480,9 +2464,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="61.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="67.5910931174089"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2499,13 +2483,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2532,9 +2516,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="107.226720647773"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="109.153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="71.7692307692308"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="5" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2586,19 +2570,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="7" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="7" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="7" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="7" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="7" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="7" width="14.1417004048583"/>
   </cols>
   <sheetData>
@@ -4129,10 +4113,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="80.6599190283401"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="98.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="82.1619433198381"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="85.3724696356275"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,10 +4179,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="85.3724696356275"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,9 +4265,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="64.8056680161943"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="66.9473684210526"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4333,9 +4317,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="97.4777327935223"/>
     <col collapsed="false" hidden="false" max="1019" min="4" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="1" width="9.10526315789474"/>
   </cols>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="29" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="26" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,19 @@
     <sheet name="updateUser" sheetId="33" r:id="rId28"/>
     <sheet name="verifyPasswordResetToken" sheetId="34" r:id="rId29"/>
     <sheet name="insertAccounts" sheetId="18" r:id="rId30"/>
-    <sheet name="updateAccounts" sheetId="19" r:id="rId31"/>
-    <sheet name="getAccounts" sheetId="20" r:id="rId32"/>
-    <sheet name="deleteAccounts" sheetId="21" r:id="rId33"/>
-    <sheet name="getAccountContacts" sheetId="13" r:id="rId34"/>
-    <sheet name="getContacts" sheetId="35" r:id="rId35"/>
-    <sheet name="insertContacts" sheetId="36" r:id="rId36"/>
-    <sheet name="insertContact" sheetId="37" r:id="rId37"/>
-    <sheet name="updateContacts" sheetId="39" r:id="rId38"/>
-    <sheet name="updateContact" sheetId="40" r:id="rId39"/>
-    <sheet name="deleteContact" sheetId="38" r:id="rId40"/>
+    <sheet name="insertAccount" sheetId="42" r:id="rId31"/>
+    <sheet name="updateAccounts" sheetId="19" r:id="rId32"/>
+    <sheet name="updateAccount" sheetId="43" r:id="rId33"/>
+    <sheet name="getAccounts" sheetId="20" r:id="rId34"/>
+    <sheet name="readAccount" sheetId="41" r:id="rId35"/>
+    <sheet name="deleteAccount" sheetId="21" r:id="rId36"/>
+    <sheet name="getAccountContacts" sheetId="13" r:id="rId37"/>
+    <sheet name="getContacts" sheetId="35" r:id="rId38"/>
+    <sheet name="insertContacts" sheetId="36" r:id="rId39"/>
+    <sheet name="insertContact" sheetId="37" r:id="rId40"/>
+    <sheet name="updateContacts" sheetId="39" r:id="rId41"/>
+    <sheet name="updateContact" sheetId="40" r:id="rId42"/>
+    <sheet name="deleteContact" sheetId="38" r:id="rId43"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="330">
   <si>
     <t>Api</t>
   </si>
@@ -521,9 +524,6 @@
     <t>jsonSchema/corporate/account/getAccounts.json</t>
   </si>
   <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountIDs":[1],"AccountName":"Hir-Account1","AccountTypeIDs":[1],"AccountTypeName":"Individual"}}</t>
-  </si>
-  <si>
     <t>jsonSchema/corporate/account/getAccounts_Filtered.json</t>
   </si>
   <si>
@@ -539,15 +539,9 @@
     <t>jsonSchema/corporate/account/getAccounts_StartPosition.json</t>
   </si>
   <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountIDs":[1,5]}}</t>
-  </si>
-  <si>
     <t>jsonSchema/corporate/account/getAccounts_AccountIDs.json</t>
   </si>
   <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountName":"Hir-Account1"}}</t>
-  </si>
-  <si>
     <t>jsonSchema/corporate/account/getAccounts_AccountName.json</t>
   </si>
   <si>
@@ -567,27 +561,6 @@
   </si>
   <si>
     <t>jsonSchema/corporate/account/getAccounts_InvalidHTTPRequestBody.json</t>
-  </si>
-  <si>
-    <t>/web-corporate/api/submit/corporate/account/deleteAccounts</t>
-  </si>
-  <si>
-    <t>{"Header":{},"Params":{"AccountIDs":[27,28,29,30]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/deleteAccounts_AllParams.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/deleteAccounts_non-existingAccountIDs.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/deleteAccounts_WithoutAccountIDs.json</t>
-  </si>
-  <si>
-    <t>"Header":{},"Params":{"AccountIDs":[27,28,29,30]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/deleteAccounts_InvalidHTTPRequestBody.json</t>
   </si>
   <si>
     <t>/web-corporate/api/submit/corporate/user/insertUser</t>
@@ -828,27 +801,9 @@
     <t>{"Header":{},"Params":{"Contacts":[{"ContactID":26,"FirstName":"Test","LastName":"Contact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":3},{"ContactID":27,"FirstName":"Test","LastName":"Contact_01b_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":2}]}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/updateContacts_WithoutOCA.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/updateContacts_MaxLimitData.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/updateContacts_RequiredParams.json</t>
-  </si>
-  <si>
     <t>{"Header":{},"Params":{"Contacts":[{"ContactID":26,"oca":3}]}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/updateContacts_non-existingContactID.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/updateContacts_WithoutContactID.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/updateContacts_WithoutContacts.json</t>
-  </si>
-  <si>
     <t>{"Header":{},"Params":{"Contacts":[{"ContactID":10,"FirstName":"Test","LastName":"Contact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":1}]}}</t>
   </si>
   <si>
@@ -867,36 +822,21 @@
     <t>{"Header":{},"Params":{"ContactID":26,"FirstName":"Test","LastName":"Contact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":4}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/updateContact_RequiredParams.json</t>
-  </si>
-  <si>
     <t>{"Header":{},"Params":{"ContactID":26,"oca":6}}</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{"ContactID":10,"FirstName":"Test","LastName":"Contact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":1}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/updateContact_non-existingContactID.json</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/contact/updateContact</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{"FirstName":"Test","LastName":"Contact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":1}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/updateContact_WithoutContactID.json</t>
-  </si>
-  <si>
     <t>{"Header":{},"Params":{"ContactID":26,"FirstName":"Test","LastName":"Contact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/updateContact_WithoutOCA.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/updateContact_WithoutParams.json</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/contact/deleteContact</t>
   </si>
   <si>
@@ -925,6 +865,204 @@
   </si>
   <si>
     <t>{"Header":{},"Params":{"ContactID":7}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/readAccount_AllParams.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":100}}</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/readAccount</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/readAccount_non-existingAccountID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/readAccount_WithoutAccountID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/readAccount_InvalidHTTPRequestBody.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/insertAccount</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/insertAccount_AllParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/insertAccount_DupeParams.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Description":"Test-AC01_b Description","AccountTypeID":1,"PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/insertAccount_WithoutName.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Name":"Test-AC01_b","Description":"Test-AC01_b Description","PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/insertAccount_WithoutAccountTypeID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/insertAccount_WithoutParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/insertAccount_MaxLimitData.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/insertAccount_RequiredParams.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/updateAccount</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccount_AllParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccount_RequiredParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccount_non-existingAccountID.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"oca":4,"Name":"Test-AC001_UPD","Description":"Test-AC001 Description_UPD","AccountTypeID":1,"PaymentTerm":"Pay Later_UPD","FEID":"222","EmployeeCount":100}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccount_WithoutAccountID.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":31,"Name":"Test-AC001_UPD","Description":"Test-AC001 Description_UPD","AccountTypeID":1,"PaymentTerm":"Pay Later_UPD","FEID":"222","EmployeeCount":100}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccount_WithoutOCA.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccount_WithoutParams.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":31,"oca":1,"Name":"Test-AC001_UPD","Description":"Test-AC001 Description_UPD","AccountTypeID":1,"PaymentTerm":"Pay Later_UPD","FEID":"222222222222","EmployeeCount":100}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccount_MaxLimitData.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccount_DupeAccountName.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/updateAccounts_DupeAccountName.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Accounts":[{"AccountID":2,"oca":1,"Name":"Test-AC001_UPD","Description":"Test-AC001 Description_UPD","AccountTypeID":1,"PaymentTerm":"Pay Later_UPD","FEID":"222","EmployeeCount":100}]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Contacts":[{"ContactID":27,"FirstName":"Test","LastName":"Contact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":1}]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContacts_RequiredParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContacts_non-existingContactID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContacts_DupeName.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContacts_WithoutContactID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContacts_WithoutOCA.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContacts_WithoutContacts.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContacts_MaxLimitData.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"ContactID":27,"FirstName":"Test","LastName":"Contact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":1}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContact_RequiredParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContact_non-existingContactID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContact_DupeName.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContact_WithoutContactID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContact_WithoutOCA.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContact_WithoutParams.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"ContactID":26,"FirstName":"Test","LastName":"Contact_01a_UPDContact_01a_UPDContact_01a_UPDContact_01a_UPD","MiddleName":"M","OtherName":"nickname","Prefix":"Dr.","Suffix":"Phd.","Title":"Mr.","GenderTypeID":1,"EmailAddresses":[{"Type":"personal","Email":"jcarter.dsi@gmail.com"}],"Telephones":[{"Type":"personal","Phone":"777-857-2589"}],"AdditionalInformation":"Addiltional","CEUCredits":25.5,"oca":1}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/updateContact_MaxLimitData.json</t>
+  </si>
+  <si>
+    <t>"Header":{},"Params":{"AccountID":34}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":32,"oca":1,"Name":"Test-AC002_UPD","Description":"Test-AC002_Description_UPD","AccountTypeID":1,"PaymentTerm":"Pay Later_UPD","FEID":"333","EmployeeCount":200}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":32,"oca":2}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":100,"oca":3,"Name":"Test-AC002_UPD","Description":"Test-AC002_Description_UPD","AccountTypeID":1,"PaymentTerm":"Pay Later_UPD","FEID":"333","EmployeeCount":200}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":31,"oca":4,"Name":"Test-AC002_UPD","Description":"Test-AC001 Description_UPD","AccountTypeID":1,"PaymentTerm":"Pay Later_UPD","FEID":"222","EmployeeCount":100}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountIDs":[31,32]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountName":"Test-AC002_UPD"}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountIDs":[1],"AccountName":"Test-AC002_UPD","AccountTypeIDs":[1001],"AccountTypeName":"Personal"}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":32}}</t>
+  </si>
+  <si>
+    <t>"Header":{},"Params":{"AccountID":32}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Name":"Test-AC01_C","Description":"Test-AC01_C_Description","AccountTypeID":1,"PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Name":"Test-AC01_D","AccountTypeID":1001}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Name":"Test-AC01_E","Description":"Test-AC01_E Description","AccountTypeID":1,"PaymentTerm":"Pay Later","FEID":"22222222222","EmployeeCount":100}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":35}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/deleteAccount_AllParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/deleteAccount_non-existingAccountIDs.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/deleteAccount_WithoutAccountIDs.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/deleteAccount_InvalidHTTPRequestBody.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/deleteAccount</t>
   </si>
 </sst>
 </file>
@@ -1120,23 +1258,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1234,6 +1357,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1547,1508 +1691,1513 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="6"/>
-    <col min="2" max="2" width="6.85546875" style="6"/>
-    <col min="3" max="3" width="12.85546875" style="6"/>
-    <col min="4" max="4" width="10.85546875" style="6"/>
-    <col min="5" max="5" width="13.28515625" style="6"/>
-    <col min="6" max="6" width="21.85546875" style="6"/>
-    <col min="7" max="7" width="22.42578125" style="6"/>
-    <col min="8" max="8" width="24.5703125" style="6"/>
-    <col min="9" max="9" width="10.5703125" style="6"/>
-    <col min="10" max="10" width="24.85546875" style="6"/>
-    <col min="11" max="11" width="12.85546875" style="6"/>
-    <col min="12" max="12" width="15.5703125" style="6"/>
-    <col min="13" max="13" width="21.85546875" style="6"/>
-    <col min="14" max="1025" width="13.28515625" style="6"/>
+    <col min="1" max="1" width="26" style="1"/>
+    <col min="2" max="2" width="6.85546875" style="1"/>
+    <col min="3" max="3" width="12.85546875" style="1"/>
+    <col min="4" max="4" width="10.85546875" style="1"/>
+    <col min="5" max="5" width="13.28515625" style="1"/>
+    <col min="6" max="6" width="21.85546875" style="1"/>
+    <col min="7" max="7" width="22.42578125" style="1"/>
+    <col min="8" max="8" width="24.5703125" style="1"/>
+    <col min="9" max="9" width="10.5703125" style="1"/>
+    <col min="10" max="10" width="24.85546875" style="1"/>
+    <col min="11" max="11" width="12.85546875" style="1"/>
+    <col min="12" max="12" width="15.5703125" style="1"/>
+    <col min="13" max="13" width="21.85546875" style="1"/>
+    <col min="14" max="1025" width="13.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4">
         <v>8</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="6">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="7">
         <v>12345678</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>8</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="8">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>8</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
         <v>32</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="4">
         <v>12345678</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>8</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="6">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="12">
         <v>12345678</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12">
         <v>8</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="13">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="12">
         <v>12345678</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="12">
         <v>8</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="13">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="7">
         <v>32</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="8">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="20" t="s">
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>1000</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="4">
         <v>-1</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="4">
         <v>1</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="12">
         <v>0</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="12">
         <v>0</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="17" t="s">
+      <c r="G15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="18" t="s">
+      <c r="L15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="17" t="s">
+      <c r="F16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <v>1</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="17" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="18" t="s">
+      <c r="L17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="12">
         <v>1</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="18" t="s">
+      <c r="L18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="7">
         <v>8</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="8">
         <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="11" t="s">
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="11" t="s">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="17" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17" t="s">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="18" t="s">
+      <c r="L22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="13" t="s">
+      <c r="L23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="C24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="12">
         <v>10</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="18" t="s">
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="12">
         <v>2</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M25" s="18" t="s">
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17" t="s">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="18" t="s">
+      <c r="L26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17" t="s">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="18" t="s">
+      <c r="L27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="12" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="13" t="s">
+      <c r="L28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="19" t="s">
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="14">
         <v>1</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="20" t="s">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="19" t="s">
+      <c r="C30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L30" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="20" t="s">
+      <c r="L30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="4">
         <v>1000</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="4">
         <v>-1</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="9" t="s">
+      <c r="G31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="11" t="s">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="12">
         <v>0</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="12">
         <v>0</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="18"/>
+      <c r="G32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
+      <c r="F33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="4">
         <v>1000</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="4">
         <v>-1</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="11"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <v>0</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="12">
         <v>0</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="17" t="s">
+      <c r="G35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="12">
         <v>8</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="13">
         <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="17" t="s">
+      <c r="F36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="18"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="9" t="s">
+      <c r="F38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="4">
         <v>1</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="11" t="s">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="18"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17" t="s">
+      <c r="A40" s="40"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="18"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="9" t="s">
+      <c r="F41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="4">
         <v>1</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="11" t="s">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="13" t="s">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -3057,11 +3206,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -3082,18 +3226,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="22"/>
-    <col min="2" max="1025" width="8" style="22"/>
+    <col min="1" max="1" width="9.85546875" style="17"/>
+    <col min="2" max="1025" width="8" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3113,31 +3257,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" style="22"/>
-    <col min="2" max="2" width="33" style="22"/>
-    <col min="3" max="3" width="65" style="22"/>
-    <col min="4" max="1025" width="8" style="22"/>
+    <col min="1" max="1" width="50.42578125" style="17"/>
+    <col min="2" max="2" width="33" style="17"/>
+    <col min="3" max="3" width="65" style="17"/>
+    <col min="4" max="1025" width="8" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3157,31 +3301,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.28515625" style="22"/>
-    <col min="2" max="2" width="33" style="22"/>
-    <col min="3" max="3" width="65" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="98.28515625" style="17"/>
+    <col min="2" max="2" width="33" style="17"/>
+    <col min="3" max="3" width="65" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3201,42 +3345,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" style="22"/>
-    <col min="2" max="2" width="36.85546875" style="22"/>
-    <col min="3" max="3" width="65" style="22"/>
-    <col min="4" max="1025" width="8" style="22"/>
+    <col min="1" max="1" width="100.7109375" style="17"/>
+    <col min="2" max="2" width="36.85546875" style="17"/>
+    <col min="3" max="3" width="65" style="17"/>
+    <col min="4" max="1025" width="8" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3256,31 +3400,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.28515625" style="22"/>
-    <col min="2" max="2" width="28.42578125" style="22"/>
-    <col min="3" max="3" width="65" style="22"/>
-    <col min="4" max="1025" width="8" style="22"/>
+    <col min="1" max="1" width="60.28515625" style="17"/>
+    <col min="2" max="2" width="28.42578125" style="17"/>
+    <col min="3" max="3" width="65" style="17"/>
+    <col min="4" max="1025" width="8" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3300,31 +3444,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" style="22"/>
-    <col min="2" max="2" width="29.7109375" style="22"/>
-    <col min="3" max="3" width="69" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="105.42578125" style="17"/>
+    <col min="2" max="2" width="29.7109375" style="17"/>
+    <col min="3" max="3" width="69" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3348,31 +3492,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" style="22"/>
-    <col min="2" max="2" width="29.7109375" style="22"/>
-    <col min="3" max="3" width="69" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="105.42578125" style="17"/>
+    <col min="2" max="2" width="29.7109375" style="17"/>
+    <col min="3" max="3" width="69" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3396,43 +3540,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" style="22"/>
-    <col min="2" max="2" width="134.28515625" style="22"/>
-    <col min="3" max="3" width="84.5703125" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="44.85546875" style="17"/>
+    <col min="2" max="2" width="134.28515625" style="17"/>
+    <col min="3" max="3" width="84.5703125" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>177</v>
+      <c r="A2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>178</v>
+      <c r="C3" s="17" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3455,32 +3599,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" style="25"/>
-    <col min="2" max="2" width="7.85546875" style="25"/>
-    <col min="3" max="3" width="69.85546875" style="25"/>
-    <col min="4" max="1025" width="10.7109375" style="25"/>
+    <col min="1" max="1" width="53.85546875" style="20"/>
+    <col min="2" max="2" width="7.85546875" style="20"/>
+    <col min="3" max="3" width="69.85546875" style="20"/>
+    <col min="4" max="1025" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="25">
         <v>123</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>180</v>
+      <c r="C2" s="22" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3503,43 +3647,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.140625" style="25"/>
-    <col min="2" max="2" width="96.42578125" style="25"/>
-    <col min="3" max="3" width="80" style="25"/>
-    <col min="4" max="1025" width="82.28515625" style="25"/>
+    <col min="1" max="1" width="79.140625" style="20"/>
+    <col min="2" max="2" width="96.42578125" style="20"/>
+    <col min="3" max="3" width="80" style="20"/>
+    <col min="4" max="1025" width="82.28515625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>183</v>
+      <c r="A2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>185</v>
+      <c r="A3" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3558,53 +3702,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65" style="22"/>
-    <col min="2" max="2" width="64.28515625" style="22"/>
-    <col min="3" max="3" width="53.42578125" style="22"/>
-    <col min="4" max="1025" width="8" style="22"/>
+    <col min="1" max="1" width="65" style="17"/>
+    <col min="2" max="2" width="64.28515625" style="17"/>
+    <col min="3" max="3" width="53.42578125" style="17"/>
+    <col min="4" max="1025" width="8" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3624,65 +3768,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="25"/>
-    <col min="2" max="2" width="64.42578125" style="25"/>
-    <col min="3" max="3" width="80" style="25"/>
-    <col min="4" max="1025" width="82.28515625" style="25"/>
+    <col min="1" max="1" width="34.140625" style="20"/>
+    <col min="2" max="2" width="64.42578125" style="20"/>
+    <col min="3" max="3" width="80" style="20"/>
+    <col min="4" max="1025" width="82.28515625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>187</v>
+      <c r="A2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>187</v>
+      <c r="A3" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>185</v>
+      <c r="A4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>183</v>
+      <c r="A5" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3701,32 +3845,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" style="25"/>
-    <col min="2" max="2" width="62.5703125" style="25"/>
-    <col min="3" max="3" width="64.42578125" style="25"/>
-    <col min="4" max="1025" width="8.42578125" style="25"/>
+    <col min="1" max="1" width="63.42578125" style="20"/>
+    <col min="2" max="2" width="62.5703125" style="20"/>
+    <col min="3" max="3" width="64.42578125" style="20"/>
+    <col min="4" max="1025" width="8.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>191</v>
+      <c r="A2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3745,55 +3889,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.28515625" style="25"/>
-    <col min="2" max="2" width="51.28515625" style="25"/>
-    <col min="3" max="3" width="93.85546875" style="25"/>
-    <col min="4" max="1019" width="8" style="25"/>
-    <col min="1020" max="1025" width="8.42578125" style="25"/>
+    <col min="1" max="1" width="72.28515625" style="20"/>
+    <col min="2" max="2" width="51.28515625" style="20"/>
+    <col min="3" max="3" width="93.85546875" style="20"/>
+    <col min="4" max="1019" width="8" style="20"/>
+    <col min="1020" max="1025" width="8.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>194</v>
+      <c r="A2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>196</v>
+      <c r="A3" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>197</v>
+      <c r="C4" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3812,32 +3956,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.28515625" style="22"/>
-    <col min="2" max="2" width="66.28515625" style="22"/>
-    <col min="3" max="3" width="54.28515625" style="22"/>
-    <col min="4" max="1025" width="8" style="22"/>
+    <col min="1" max="1" width="69.28515625" style="17"/>
+    <col min="2" max="2" width="66.28515625" style="17"/>
+    <col min="3" max="3" width="54.28515625" style="17"/>
+    <col min="4" max="1025" width="8" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>199</v>
+      <c r="C2" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3854,19 +3998,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" style="22"/>
-    <col min="3" max="3" width="24.7109375" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="2" width="8.42578125" style="17"/>
+    <col min="3" max="3" width="24.7109375" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3886,54 +4030,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.28515625" style="25"/>
-    <col min="2" max="2" width="141" style="25"/>
-    <col min="3" max="3" width="79.42578125" style="25"/>
-    <col min="4" max="1025" width="8.42578125" style="25"/>
+    <col min="1" max="1" width="98.28515625" style="20"/>
+    <col min="2" max="2" width="141" style="20"/>
+    <col min="3" max="3" width="79.42578125" style="20"/>
+    <col min="4" max="1025" width="8.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>202</v>
+      <c r="A2" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>204</v>
+      <c r="A3" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>206</v>
+      <c r="A4" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3952,32 +4096,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.5703125" style="25"/>
-    <col min="2" max="2" width="59.5703125" style="25"/>
-    <col min="3" max="3" width="76.140625" style="25"/>
-    <col min="4" max="1025" width="8.42578125" style="25"/>
+    <col min="1" max="1" width="87.5703125" style="20"/>
+    <col min="2" max="2" width="59.5703125" style="20"/>
+    <col min="3" max="3" width="76.140625" style="20"/>
+    <col min="4" max="1025" width="8.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>208</v>
+      <c r="A2" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3996,32 +4140,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" style="25"/>
-    <col min="2" max="2" width="47.85546875" style="25"/>
-    <col min="3" max="3" width="62.5703125" style="25"/>
-    <col min="4" max="1025" width="8.42578125" style="25"/>
+    <col min="1" max="1" width="54.7109375" style="20"/>
+    <col min="2" max="2" width="47.85546875" style="20"/>
+    <col min="3" max="3" width="62.5703125" style="20"/>
+    <col min="4" max="1025" width="8.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>211</v>
+      <c r="A2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4044,32 +4188,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" style="22"/>
-    <col min="2" max="2" width="8.42578125" style="22"/>
-    <col min="3" max="3" width="84.5703125" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="80.7109375" style="17"/>
+    <col min="2" max="2" width="8.42578125" style="17"/>
+    <col min="3" max="3" width="84.5703125" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="22">
+      <c r="A2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="17">
         <v>123</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>213</v>
+      <c r="C2" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4090,54 +4234,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.5703125" style="25"/>
-    <col min="2" max="3" width="84" style="25"/>
-    <col min="4" max="1015" width="8" style="25"/>
-    <col min="1016" max="1025" width="8.42578125" style="25"/>
+    <col min="1" max="1" width="103.5703125" style="20"/>
+    <col min="2" max="3" width="84" style="20"/>
+    <col min="4" max="1015" width="8" style="20"/>
+    <col min="1016" max="1025" width="8.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>216</v>
+      <c r="A2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>218</v>
+      <c r="A3" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>220</v>
+      <c r="A4" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4154,17 +4298,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8" style="22"/>
+    <col min="1" max="1025" width="8" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4178,103 +4322,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" style="31"/>
-    <col min="2" max="2" width="74.7109375" style="31"/>
-    <col min="3" max="3" width="69" style="31"/>
-    <col min="4" max="1025" width="8.42578125" style="31"/>
+    <col min="1" max="1" width="56.7109375" style="26"/>
+    <col min="2" max="2" width="74.7109375" style="26"/>
+    <col min="3" max="3" width="69" style="26"/>
+    <col min="4" max="1025" width="8.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="26" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="26" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="26" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4292,104 +4436,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" style="22"/>
-    <col min="2" max="2" width="76.7109375" style="31"/>
-    <col min="3" max="3" width="67.42578125" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="61.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.140625" style="25" customWidth="1"/>
+    <col min="4" max="1025" width="9.140625" style="25"/>
+    <col min="1026" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="31" t="s">
+    <row r="2" spans="1:3" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="25" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="25" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>148</v>
+      <c r="C7" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4404,128 +4549,117 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK10"/>
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="22"/>
-    <col min="2" max="2" width="106.5703125" style="22"/>
-    <col min="3" max="3" width="65" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="69" style="17" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" style="26"/>
+    <col min="3" max="3" width="67.42578125" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>151</v>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>161</v>
+      <c r="A3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>167</v>
+      <c r="A8" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4540,73 +4674,118 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="65.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" style="22"/>
-    <col min="2" max="2" width="58.5703125" style="22"/>
-    <col min="3" max="3" width="75.5703125" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="65.85546875" style="38"/>
+    <col min="2" max="2" width="65.85546875" style="25"/>
+    <col min="3" max="3" width="77.85546875" style="38" customWidth="1"/>
+    <col min="4" max="1025" width="65.85546875" style="38"/>
+    <col min="1026" max="16384" width="65.85546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="22" t="s">
+    <row r="2" spans="1:3" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>174</v>
+      <c r="C8" s="38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="38" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4621,40 +4800,128 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.140625" style="22"/>
-    <col min="2" max="2" width="76.7109375" style="22"/>
-    <col min="3" max="3" width="63.28515625" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="60.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="121.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="65" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>112</v>
+      <c r="A2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4669,6 +4936,210 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="17"/>
+    <col min="3" max="3" width="75.5703125" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK2"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94.140625" style="17"/>
+    <col min="2" max="2" width="76.7109375" style="17"/>
+    <col min="3" max="3" width="63.28515625" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -4676,75 +5147,75 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52"/>
-    <col min="2" max="2" width="45.7109375" style="33"/>
+    <col min="2" max="2" width="45.7109375" style="28"/>
     <col min="3" max="3" width="53.5703125"/>
     <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:3" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4753,7 +5224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4762,428 +5233,102 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375"/>
-    <col min="2" max="2" width="65.42578125" style="33"/>
+    <col min="2" max="2" width="65.42578125" style="28"/>
     <col min="3" max="3" width="71.5703125"/>
     <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="34" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="55.7109375"/>
-    <col min="2" max="2" width="65.42578125" style="33"/>
-    <col min="3" max="3" width="71.5703125"/>
-    <col min="4" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.42578125" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.42578125" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="39"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5197,31 +5342,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" style="22"/>
-    <col min="2" max="2" width="118.7109375" style="22"/>
-    <col min="3" max="3" width="69" style="22"/>
-    <col min="4" max="1025" width="8.42578125" style="22"/>
+    <col min="1" max="1" width="105.42578125" style="17"/>
+    <col min="2" max="2" width="118.7109375" style="17"/>
+    <col min="3" max="3" width="69" style="17"/>
+    <col min="4" max="1025" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5237,11 +5382,357 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.7109375"/>
+    <col min="2" max="2" width="65.42578125" style="28"/>
+    <col min="3" max="3" width="71.5703125"/>
+    <col min="4" max="1025" width="8.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.42578125" style="36" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" style="36" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5252,69 +5743,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>277</v>
+      <c r="A2" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>279</v>
+      <c r="A3" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>283</v>
+      <c r="A4" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>281</v>
+      <c r="C5" s="33" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>282</v>
+      <c r="A6" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5337,64 +5828,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" style="25"/>
-    <col min="2" max="2" width="53.85546875" style="25"/>
-    <col min="3" max="3" width="83.28515625" style="25"/>
-    <col min="4" max="1025" width="82.28515625" style="25"/>
+    <col min="1" max="1" width="66.42578125" style="20"/>
+    <col min="2" max="2" width="53.85546875" style="20"/>
+    <col min="3" max="3" width="83.28515625" style="20"/>
+    <col min="4" max="1025" width="82.28515625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5412,64 +5903,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" style="25"/>
-    <col min="2" max="2" width="96.42578125" style="25"/>
-    <col min="3" max="3" width="83.5703125" style="25"/>
-    <col min="4" max="1025" width="82.28515625" style="25"/>
+    <col min="1" max="1" width="105.42578125" style="20"/>
+    <col min="2" max="2" width="96.42578125" style="20"/>
+    <col min="3" max="3" width="83.5703125" style="20"/>
+    <col min="4" max="1025" width="82.28515625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5489,31 +5980,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="25"/>
-    <col min="2" max="2" width="53.42578125" style="25"/>
-    <col min="3" max="3" width="60.28515625" style="25"/>
-    <col min="4" max="1025" width="8.42578125" style="25"/>
+    <col min="1" max="1" width="58.140625" style="20"/>
+    <col min="2" max="2" width="53.42578125" style="20"/>
+    <col min="3" max="3" width="60.28515625" style="20"/>
+    <col min="4" max="1025" width="8.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5537,42 +6028,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" style="25"/>
-    <col min="2" max="2" width="31.85546875" style="25"/>
-    <col min="3" max="3" width="59.5703125" style="25"/>
-    <col min="4" max="1025" width="8.42578125" style="25"/>
+    <col min="1" max="1" width="57.5703125" style="20"/>
+    <col min="2" max="2" width="31.85546875" style="20"/>
+    <col min="3" max="3" width="59.5703125" style="20"/>
+    <col min="4" max="1025" width="8.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="25" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5590,20 +6081,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="22"/>
-    <col min="2" max="2" width="6.140625" style="22"/>
-    <col min="3" max="3" width="12.85546875" style="22"/>
-    <col min="4" max="1025" width="8" style="22"/>
+    <col min="1" max="1" width="3.85546875" style="17"/>
+    <col min="2" max="2" width="6.140625" style="17"/>
+    <col min="3" max="3" width="12.85546875" style="17"/>
+    <col min="4" max="1025" width="8" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -5,52 +5,52 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="34"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="addRightsToRole" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="addUsersToRole" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="addAccountContactAffiliations" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="activateUserLogins" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="deactivateUserLogins" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="deleteRole" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="getRights" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="getRoleUsers" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="getUsers" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="getUserActions" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="getRolesAuthenticatedUser" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="getRoleActions" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="getLogicalRoles" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="getAuthenticatedUserLogout" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="getAuthenticatedUser" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="insertUser" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="insertRole" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="login_failed" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="login" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="logout" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="requestPasswordReset" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="removeRightsFromRole" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="removeUsersFromRole" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="updatePassword" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="updatePasswordGuest" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="updateRole" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="updateUser" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="verifyPasswordResetToken" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="insertAccounts" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="insertAccount" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="updateAccounts" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="updateAccount" sheetId="33" state="visible" r:id="rId34"/>
-    <sheet name="getAccounts" sheetId="34" state="visible" r:id="rId35"/>
-    <sheet name="readAccount" sheetId="35" state="visible" r:id="rId36"/>
-    <sheet name="deleteAccount" sheetId="36" state="visible" r:id="rId37"/>
-    <sheet name="getAccountContacts" sheetId="37" state="visible" r:id="rId38"/>
-    <sheet name="getContacts" sheetId="38" state="visible" r:id="rId39"/>
-    <sheet name="insertContacts" sheetId="39" state="visible" r:id="rId40"/>
-    <sheet name="insertContact" sheetId="40" state="visible" r:id="rId41"/>
-    <sheet name="updateContacts" sheetId="41" state="visible" r:id="rId42"/>
-    <sheet name="updateContact" sheetId="42" state="visible" r:id="rId43"/>
-    <sheet name="deleteContact" sheetId="43" state="visible" r:id="rId44"/>
+    <sheet name="activateUserLogins" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="deactivateUserLogins" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="deleteRole" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="getRights" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="getRoleUsers" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="getUsers" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="getUserActions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="getRolesAuthenticatedUser" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="getRoleActions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="getLogicalRoles" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="getAuthenticatedUserLogout" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="getAuthenticatedUser" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="insertUser" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="insertRole" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="login_failed" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="login" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="logout" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="requestPasswordReset" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="removeRightsFromRole" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="removeUsersFromRole" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="updatePassword" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="updatePasswordGuest" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="updateRole" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="updateUser" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="verifyPasswordResetToken" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="insertAccounts" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="insertAccount" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="updateAccounts" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="updateAccount" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="getAccounts" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="readAccount" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="deleteAccount" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="getAccountContacts" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="getContacts" sheetId="37" state="visible" r:id="rId38"/>
+    <sheet name="insertContacts" sheetId="38" state="visible" r:id="rId39"/>
+    <sheet name="insertContact" sheetId="39" state="visible" r:id="rId40"/>
+    <sheet name="updateContacts" sheetId="40" state="visible" r:id="rId41"/>
+    <sheet name="updateContact" sheetId="41" state="visible" r:id="rId42"/>
+    <sheet name="deleteContact" sheetId="42" state="visible" r:id="rId43"/>
+    <sheet name="addAccountContactAffiliations" sheetId="43" state="visible" r:id="rId44"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="349">
   <si>
     <t>Api</t>
   </si>
@@ -326,15 +326,6 @@
   </si>
   <si>
     <t>{"Header":{},"Params":{"RoleIDs":[1],"ActionIDs":[1]}}</t>
-  </si>
-  <si>
-    <t>/web-corporate/api/submit/corporate/account/addAccountContactAffiliations</t>
-  </si>
-  <si>
-    <t>{"Header":{},"Params":{"AccountIDs":[39,40],"ContactIDs":[1,2],"AffiliationTypeIDs":[1,2]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/addAccountContactAffiliations.json</t>
   </si>
   <si>
     <t>/web-corporate/api/submit/authentication/authentication/activateUserLogins</t>
@@ -1106,6 +1097,30 @@
   </si>
   <si>
     <t>jsonSchema/corporate/contact/deleteContact_InvalidHTTPRequestBody.json</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/addAccountContactAffiliations</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountIDs":[31,32],"ContactIDs":[27,28],"AffiliationTypeIDs":[1,2]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/addAccountContactAffiliations_AllParams.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountIDs":[33],"ContactIDs":[29],"AffiliationTypeIDs":[1]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountIDs":[33]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/addAccountContactAffiliations_WithoutParams.json</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"ContactIDs":[29]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AffiliationTypeIDs":[1]}}</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1132,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1183,6 +1198,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1304,7 +1325,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1457,6 +1478,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1481,25 +1506,25 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topRight" activeCell="F30" activeCellId="1" sqref="C7 F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3021,16 +3046,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C7 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="19" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="49.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,6 +3069,17 @@
       </c>
       <c r="C1" s="21" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3063,15 +3101,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="49.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="95.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,13 +3125,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3112,18 +3150,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="C7 B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="97.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="98.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,13 +3177,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3164,18 +3213,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="C7 D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="99.6224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="58.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,24 +3240,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3230,15 +3268,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="C7 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="59.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="103"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="67.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,22 +3292,22 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3282,15 +3320,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="C7 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="104.214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="103"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="67.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,13 +3344,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3331,18 +3369,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C7 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="104.214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="131.34693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="82.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,10 +3399,21 @@
         <v>116</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3383,51 +3432,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C7 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="132.831632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="83.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="52.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="68.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="27" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3446,18 +3484,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="1" sqref="C7 A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="77.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="94.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="78.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="80.4540816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,23 +3510,34 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="27" t="n">
+      <c r="A2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>123</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -3498,18 +3547,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C7 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="78.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="95.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="79.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="81.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="62.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="78.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="80.4540816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,26 +3572,48 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>129</v>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3564,15 +3635,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="63.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="62.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3635,18 +3706,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="33.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="63.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="79.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="81.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="61.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="62.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3660,48 +3731,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3720,40 +3758,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="C7 A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="61.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="63.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="70.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="91.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1019" min="4" style="22" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="22" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3772,63 +3833,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="71.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="50.6224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="92.7397959183674"/>
-    <col collapsed="false" hidden="false" max="1019" min="4" style="22" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="67.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="64.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="B2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3847,18 +3885,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="68.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="65.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="19" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,17 +3907,6 @@
       </c>
       <c r="C1" s="21" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3899,28 +3925,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="C7 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="19" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="95.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="137.826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="77.6224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3939,18 +3999,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="97.1938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="139.44387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="78.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="85.5867346938775"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="58.1836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="74.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,37 +4024,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="24" t="s">
         <v>149</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4016,18 +4054,18 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C7 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="86.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="75.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="61.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.10204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
@@ -4038,24 +4076,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="24" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="27" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4068,37 +4106,37 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="54.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="61.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="78.8367346938775"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="82.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4117,49 +4155,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="79.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="83.5612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="101.244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="22" width="82.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1015" min="4" style="22" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="22" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="19" t="n">
-        <v>123</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -4169,18 +4229,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="102.459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="22" width="83.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1015" min="4" style="22" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="55.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="73.030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="67.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="29" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,46 +4254,90 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="24" t="s">
+    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4246,12 +4350,12 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="19" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="19" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,19 +4387,19 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="29" width="56.0204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="73.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="29" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="29" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="82.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="77.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="30" width="8.77551020408163"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
@@ -4306,81 +4410,81 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>172</v>
+    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>177</v>
+      <c r="B8" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4399,106 +4503,117 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="C7 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="30" width="61.015306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="83.5612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="78.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="30" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="67.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="74.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>178</v>
+    <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C8" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>190</v>
+      <c r="B9" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4520,18 +4635,18 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="29" width="75.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="66.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="32" width="76.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="32" width="64.2551020408163"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
@@ -4542,92 +4657,92 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>197</v>
+    <row r="2" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>203</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>206</v>
+      <c r="B9" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4646,117 +4761,159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="C7 B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="32" width="76.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="32" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="59.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="118.658163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B9" s="27" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="B2" s="19" t="s">
         <v>222</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4775,159 +4932,174 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="C7 B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="59.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="26.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="120.005102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="59.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="68.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="19" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="C7 B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="57.234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="73.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>223</v>
+      <c r="B1" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>225</v>
+        <v>261</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>261</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>234</v>
+        <v>261</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4941,124 +5113,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="61.015306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="57.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="74.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="91.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="74.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="61.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5074,45 +5145,12 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="19" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5132,17 +5170,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="C7 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="93.0102040816326"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="75.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="62.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="58.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="69.8163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="52.2397959183674"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -5150,31 +5188,1096 @@
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="36" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -5184,18 +6287,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,59 +6312,81 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" s="36" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>277</v>
+        <v>282</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>285</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>279</v>
+        <v>282</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>283</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>284</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5283,15 +6408,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C7 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="64.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="63.984693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="69.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,81 +6430,81 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5398,49 +6523,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="1" sqref="C7 C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="104.214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="117.44387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="68.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="64.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="52.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="81.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="80.4540816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -5450,18 +6608,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="C7 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="64.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="75.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="37" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,81 +6633,92 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>287</v>
+    <row r="2" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="29" t="s">
+      <c r="B3" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>295</v>
+      <c r="B4" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>296</v>
+      <c r="C8" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5570,16 +6739,16 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="C7 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="76.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="37" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="61.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="37" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5593,92 +6762,92 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>306</v>
+        <v>318</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>308</v>
+        <v>320</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>310</v>
+        <v>322</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>312</v>
+        <v>324</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>326</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>315</v>
+      <c r="C8" s="26" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>317</v>
+        <v>329</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -5697,18 +6866,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C7 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="62.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="37" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="73.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1021" min="4" style="19" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="19" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,101 +6892,68 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>320</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="A3" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C5" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>333</v>
+      <c r="B6" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5826,22 +6963,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.015306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1021" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.9897959183674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.5051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.5102040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
@@ -5852,59 +6988,70 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>335</v>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>342</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>337</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>344</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>339</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>345</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B5" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>343</v>
+      <c r="C7" s="19" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5926,15 +7073,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="65.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="82.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="81.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="103"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="94.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="81.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="80.4540816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,46 +7097,46 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="C3" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6008,18 +7155,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="104.214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="95.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="82.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="81.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="58.8571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.10204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="C7 A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="58.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6033,48 +7232,26 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>98</v>
+    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>98</v>
+      <c r="A3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6088,108 +7265,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="52.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="59.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.23469387755102"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="22" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.69387755102041"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6211,18 +7314,16 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="C7 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="19" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="19" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="19" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="19" width="7.69387755102041"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
         <v>80</v>
       </c>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="36" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="31" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -39,19 +39,19 @@
     <sheet name="insertAccount" sheetId="30" r:id="rId30"/>
     <sheet name="updateAccounts" sheetId="31" r:id="rId31"/>
     <sheet name="updateAccount" sheetId="32" r:id="rId32"/>
-    <sheet name="getAccounts" sheetId="33" r:id="rId33"/>
-    <sheet name="readAccount" sheetId="34" r:id="rId34"/>
-    <sheet name="deleteAccount" sheetId="35" r:id="rId35"/>
-    <sheet name="getAccountContacts" sheetId="36" r:id="rId36"/>
-    <sheet name="getContacts" sheetId="37" r:id="rId37"/>
-    <sheet name="insertContacts" sheetId="38" r:id="rId38"/>
-    <sheet name="insertContact" sheetId="39" r:id="rId39"/>
-    <sheet name="updateContacts" sheetId="40" r:id="rId40"/>
-    <sheet name="updateContact" sheetId="41" r:id="rId41"/>
-    <sheet name="deleteContact" sheetId="42" r:id="rId42"/>
-    <sheet name="addAccountContactAffiliations" sheetId="43" r:id="rId43"/>
-    <sheet name="getCollection_reference" sheetId="44" r:id="rId44"/>
-    <sheet name="get_reference" sheetId="45" r:id="rId45"/>
+    <sheet name="deleteAccount" sheetId="35" r:id="rId33"/>
+    <sheet name="getAccountContacts" sheetId="36" r:id="rId34"/>
+    <sheet name="getContacts" sheetId="37" r:id="rId35"/>
+    <sheet name="insertContacts" sheetId="38" r:id="rId36"/>
+    <sheet name="insertContact" sheetId="39" r:id="rId37"/>
+    <sheet name="updateContacts" sheetId="40" r:id="rId38"/>
+    <sheet name="updateContact" sheetId="41" r:id="rId39"/>
+    <sheet name="deleteContact" sheetId="42" r:id="rId40"/>
+    <sheet name="addAccountContactAffiliations" sheetId="43" r:id="rId41"/>
+    <sheet name="getCollection_reference" sheetId="44" r:id="rId42"/>
+    <sheet name="get_reference" sheetId="45" r:id="rId43"/>
+    <sheet name="getCollection_account" sheetId="33" r:id="rId44"/>
+    <sheet name="get_account" sheetId="34" r:id="rId45"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="564">
   <si>
     <t>Api</t>
   </si>
@@ -737,129 +737,48 @@
     <t>jsonSchema/corporate/account/updateAccount_MaxLimitData.json</t>
   </si>
   <si>
-    <t>Test Case</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/account/getAccounts</t>
   </si>
   <si>
-    <t>TC000</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"DESC"}]},"Params":{}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts.json</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountIDs":[1],"AccountName":"Test-AC002_UPD","AccountTypeIDs":[1001],"AccountTypeName":"Personal"}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts_Filtered.json</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":1,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts_PageSize.json</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":2,"StartPosition":1,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts_StartPosition.json</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountIDs":[31,32]}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts_AccountIDs.json</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountName":"Test-AC002_UPD"}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts_AccountName.json</t>
-  </si>
-  <si>
-    <t>TC006</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountTypeIDs":[1,1001]}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts_AccountTypeIDs.json</t>
-  </si>
-  <si>
-    <t>TC007</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountTypeName":"Individual"}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts_AccountTypeName.json</t>
-  </si>
-  <si>
-    <t>TC008</t>
-  </si>
-  <si>
     <t>"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountTypeName":"Individual"}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getAccounts_InvalidHTTPRequestBody.json</t>
-  </si>
-  <si>
-    <t>TC-001</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/account/readAccount</t>
   </si>
   <si>
     <t>{"Header":{},"Params":{"AccountID":32}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/readAccount_AllParams.json</t>
-  </si>
-  <si>
-    <t>TC-002</t>
-  </si>
-  <si>
     <t>{"Header":{},"Params":{"AccountID":100}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/readAccount_non-existingAccountID.json</t>
-  </si>
-  <si>
-    <t>TC-003</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/readAccount_WithoutAccountID.json</t>
-  </si>
-  <si>
-    <t>TC-004</t>
-  </si>
-  <si>
     <t>"Header":{},"Params":{"AccountID":32}}</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/readAccount_InvalidHTTPRequestBody.json</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/account/deleteAccount</t>
   </si>
   <si>
@@ -1193,9 +1112,6 @@
     <t>{"Header":{"ReferenceType":"AddressType"},"Params":{"Description":"Snail Mail Address"}}</t>
   </si>
   <si>
-    <t>{"Header":{"ReferenceType":"AddressType"},"Params":{"IDs":[2001]}}</t>
-  </si>
-  <si>
     <t>{"Header":{"ReferenceType":"RegionCode"},"Params":{}}</t>
   </si>
   <si>
@@ -1296,13 +1212,568 @@
   </si>
   <si>
     <t>jsonSchema/corporate/reference/get_reference_AccountType_failure.json</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AccountType_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AccountType_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AccountType_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AccountType_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AccountType_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AccountType_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_GenderType_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_GenderType_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_GenderType_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_GenderType_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_GenderType_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_GenderType_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AddressType_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AddressType_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AddressType_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AddressType_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AddressType_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AddressType_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_RegionCode_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_RegionCode_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_RegionCode_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_RegionCode_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_RegionCode_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_RegionCode_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_RegionCode_007</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_CountryCode_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_CountryCode_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_CountryCode_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_CountryCode_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_CountryCode_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_CountryCode_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AcAffiliationType_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AcAffiliationType_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AcAffiliationType_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AcAffiliationType_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AcAffiliationType_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_AcAffiliationType_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_PaymentType_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_PaymentType_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_PaymentType_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_PaymentType_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_PaymentType_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_PaymentType_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_REF_001</t>
+  </si>
+  <si>
+    <t>GET_REF_AccountType_001</t>
+  </si>
+  <si>
+    <t>GET_REF_AccountType_002</t>
+  </si>
+  <si>
+    <t>GET_REF_AccountType_003</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"GenderType"},"Params":{"ID":100}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"GenderType"},"Params":{"ID":1003}}</t>
+  </si>
+  <si>
+    <t>GET_REF_GenderType_001</t>
+  </si>
+  <si>
+    <t>GET_REF_GenderType_002</t>
+  </si>
+  <si>
+    <t>GET_REF_GenderType_003</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"AddressType"},"Params":{"IDs":[100]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"AddressType"},"Params":{"ID":100}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"AddressType"},"Params":{"ID":2001}}</t>
+  </si>
+  <si>
+    <t>GET_REF_AddressType_001</t>
+  </si>
+  <si>
+    <t>GET_REF_AddressType_002</t>
+  </si>
+  <si>
+    <t>GET_REF_AddressType_003</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"RegionCode"},"Params":{"ID":2001}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"RegionCode"},"Params":{"ID":1}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"CountryCode"},"Params":{"ID":223}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"CountryCode"},"Params":{"ID":2001}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"AccountAffiliationType"},"Params":{"ID":2001}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"AccountAffiliationType"},"Params":{"ID":2}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"PaymentType"},"Params":{"ID":1}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"ReferenceType":"PaymentType"},"Params":{"ID":2001}}</t>
+  </si>
+  <si>
+    <t>GET_REF_RegionCode_001</t>
+  </si>
+  <si>
+    <t>GET_REF_RegionCode_002</t>
+  </si>
+  <si>
+    <t>GET_REF_RegionCode_003</t>
+  </si>
+  <si>
+    <t>GET_REF_CountryCode_001</t>
+  </si>
+  <si>
+    <t>GET_REF_CountryCode_002</t>
+  </si>
+  <si>
+    <t>GET_REF_CountryCode_003</t>
+  </si>
+  <si>
+    <t>GET_REF_AcAffiliationType_001</t>
+  </si>
+  <si>
+    <t>GET_REF_AcAffiliationType_002</t>
+  </si>
+  <si>
+    <t>GET_REF_AcAffiliationType_003</t>
+  </si>
+  <si>
+    <t>GET_REF_PaymentType_001</t>
+  </si>
+  <si>
+    <t>GET_REF_PaymentType_002</t>
+  </si>
+  <si>
+    <t>GET_REF_PaymentType_003</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_GenderType_success.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_GenderType_failure.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_AddressType_failure.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_CountryCode_failure.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_RegionCode_failure.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_AccountAffiliationType_failure.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_PaymentType_failure.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_AddressType_success.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_RegionCode_success.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_CountryCode_success.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_AccountAffiliationType_success.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_PaymentType_success.json</t>
+  </si>
+  <si>
+    <t>GET_REF_001</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"ID":4}}</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_007</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_008</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_009</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_Filtered.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_PageSize.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_StartPosition.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_AccountIDs.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_AccountName.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_AccountTypeIDs.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_AccountTypeName.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_InvalidHTTPRequestBody.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/get_account_AllParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/get_account_non-existingAccountID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/get_account_WithoutAccountID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/get_account_InvalidHTTPRequestBody.json</t>
+  </si>
+  <si>
+    <t>GET_ACCOUNT_001</t>
+  </si>
+  <si>
+    <t>GET_ACCOUNT_002</t>
+  </si>
+  <si>
+    <t>GET_ACCOUNT_003</t>
+  </si>
+  <si>
+    <t>GET_ACCOUNT_004</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns [NULL Data] when request params sent with non-existing ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns [Filtered List] when request params sent with ["IDs", "Name" &amp; "Description"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns [Filtered List] when request params sent with ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns [Filtered List] when request params sent with ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns [Filtered List] when request params sent with ["Description"]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns [Filtered List] when request params sent with ["IDs", "Name" &amp; "Description"]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns [Filtered List] when request params sent with ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns [Filtered List] when request params sent with ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns [Filtered List] when request params sent with ["Description"]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns [NULL Data] when request params sent with non-existing ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns [Filtered List] when request params sent with ["IDs", "Name" &amp; "Description"]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns [Filtered List] when request params sent with ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns [Filtered List] when request params sent with ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns [Filtered List] when request params sent with ["Description"]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns [NULL Data] when request params sent with non-existing ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [Filtered List] when request params sent with ["IDs", "Name", "Description" &amp; "CountryCode"]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [Filtered List] when request params sent with ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [Filtered List] when request params sent with ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [Filtered List] when request params sent with ["Description"]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [Filtered List] when request params sent with ["CountryCode"]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [NULL Data] when request params sent with non-existing ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns [Filtered List] when request params sent with ["IDs", "Name" &amp; "Description"]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns [Filtered List] when request params sent with ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns [Filtered List] when request params sent with ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns [Filtered List] when request params sent with ["Description"]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns [NULL Data] when request params sent with non-existing ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountAffiliationType" api returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "AccountAffiliationType" api returns [Filtered List] when request params sent with ["IDs", "Name" &amp; "Description"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountAffiliationType" api returns [Filtered List] when request params sent with ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountAffiliationType" api returns [Filtered List] when request params sent with ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountAffiliationType" api returns [Filtered List] when request params sent with ["Description"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountAffiliationType" api returns [NULL Data] when request params sent with non-existing ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns [Filtered List] when request params sent with ["IDs", "Name" &amp; "Description"]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns [Filtered List] when request params sent with ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns [Filtered List] when request params sent with ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns [Filtered List] when request params sent with ["Description"]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns [NULL Data] when request params sent with non-existing ["IDs"]</t>
+  </si>
+  <si>
+    <t>Verify "Reference" api returns [error msg: "Reference type not found"] when request header sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns record when request params sent with existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns record when request params sent with existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "AccountType" api returns [NULL Data] when request params sent with non-existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "GenderType" api returns [NULL Data] when request params sent with non-existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns record when request params sent with existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns [NULL Data] when request params sent with non-existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "AddressType" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns record when request params sent with existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [NULL Data] when request params sent with non-existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "RegionCode" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns record when request params sent with existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns [NULL Data] when request params sent with non-existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "CountryCode" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "AcAffiliationType" api returns record when request params sent with existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "AcAffiliationType" api returns [NULL Data] when request params sent with non-existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "AcAffiliationType" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns record when request params sent with existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns [NULL Data] when request params sent with non-existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "PaymentType" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1355,6 +1826,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1491,7 +1969,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1587,6 +2065,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1595,12 +2086,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1991,7 +2476,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2030,7 +2515,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -2225,7 +2710,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2264,7 +2749,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
@@ -2299,7 +2784,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -2336,7 +2821,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -2414,7 +2899,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="42" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2455,7 +2940,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
         <v>45</v>
@@ -2492,7 +2977,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>48</v>
@@ -2529,7 +3014,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>17</v>
@@ -2564,7 +3049,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>17</v>
@@ -2601,7 +3086,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -2679,7 +3164,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2718,7 +3203,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>17</v>
@@ -2753,7 +3238,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
@@ -2790,7 +3275,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -2829,7 +3314,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -2864,7 +3349,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
         <v>17</v>
@@ -2899,7 +3384,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
         <v>17</v>
@@ -2934,7 +3419,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
         <v>17</v>
@@ -3051,7 +3536,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="42" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3090,7 +3575,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
         <v>45</v>
@@ -3115,7 +3600,7 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>48</v>
@@ -3140,7 +3625,7 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3177,7 +3662,7 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
         <v>45</v>
@@ -3214,7 +3699,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
         <v>48</v>
@@ -3247,7 +3732,7 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3270,7 +3755,7 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="43" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3309,7 +3794,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3330,7 +3815,7 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3351,7 +3836,7 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="42" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3390,7 +3875,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3416,11 +3901,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -3429,6 +3909,11 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -4996,266 +5481,6 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK10"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" activeCellId="1" sqref="C7 B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="59.140625" style="17"/>
-    <col min="2" max="2" width="25.7109375" style="17"/>
-    <col min="3" max="3" width="118.7109375" style="17"/>
-    <col min="4" max="4" width="63.5703125" style="17"/>
-    <col min="5" max="1025" width="8.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" activeCellId="1" sqref="C7 B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" style="17"/>
-    <col min="2" max="2" width="59.28515625" style="17"/>
-    <col min="3" max="3" width="52.28515625" style="17"/>
-    <col min="4" max="4" width="68.85546875" style="17"/>
-    <col min="5" max="1025" width="8.42578125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5283,46 +5508,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5335,7 +5560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
@@ -5364,13 +5589,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5383,7 +5608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -6433,57 +6658,57 @@
     </row>
     <row r="2" spans="1:1024" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6492,7 +6717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -6521,79 +6746,79 @@
     </row>
     <row r="2" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6602,7 +6827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -6631,79 +6856,321 @@
     </row>
     <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" activeCellId="1" sqref="C7 A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" style="32"/>
+    <col min="2" max="2" width="46.7109375" style="32"/>
+    <col min="3" max="3" width="75.7109375" style="32"/>
+    <col min="4" max="1025" width="8.7109375" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK9"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" activeCellId="1" sqref="C7 B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.85546875" style="32"/>
+    <col min="2" max="2" width="46.7109375" style="32"/>
+    <col min="3" max="3" width="61.7109375" style="32"/>
+    <col min="4" max="1025" width="8.7109375" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>293</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -6791,248 +7258,6 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="C7 A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.85546875" style="32"/>
-    <col min="2" max="2" width="46.7109375" style="32"/>
-    <col min="3" max="3" width="75.7109375" style="32"/>
-    <col min="4" max="1025" width="8.7109375" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="1" sqref="C7 B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.85546875" style="32"/>
-    <col min="2" max="2" width="46.7109375" style="32"/>
-    <col min="3" max="3" width="61.7109375" style="32"/>
-    <col min="4" max="1025" width="8.7109375" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>330</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7061,57 +7286,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7124,7 +7349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -7153,68 +7378,1275 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="111.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" customWidth="1"/>
+    <col min="4" max="4" width="140.5703125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="93.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>403</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>346</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>406</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>416</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>419</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>421</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>422</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>423</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="76" style="32" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="E15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="E18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>560</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>456</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -7229,512 +8661,159 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.28515625" customWidth="1"/>
-    <col min="2" max="2" width="140.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" style="17"/>
+    <col min="2" max="2" width="31.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="123.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="17" customWidth="1"/>
+    <col min="5" max="1025" width="8.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>353</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>357</v>
+        <v>221</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>474</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>351</v>
+        <v>223</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>475</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>352</v>
+        <v>224</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>476</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>354</v>
+        <v>225</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>477</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>358</v>
+        <v>226</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>478</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>361</v>
+        <v>227</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>479</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>362</v>
+        <v>228</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>480</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>355</v>
+        <v>229</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -7749,508 +8828,94 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:AMH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
-    <col min="2" max="2" width="140.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19" style="17" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="17"/>
+    <col min="3" max="3" width="52.28515625" style="17"/>
+    <col min="4" max="4" width="68.85546875" style="17"/>
+    <col min="5" max="1022" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>403</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>404</v>
+        <v>231</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>353</v>
+        <v>232</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>355</v>
+        <v>86</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="31" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="31" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="581">
   <si>
     <t>Api</t>
   </si>
@@ -737,9 +737,6 @@
     <t>jsonSchema/corporate/account/updateAccount_MaxLimitData.json</t>
   </si>
   <si>
-    <t>/web-corporate/api/submit/corporate/account/getAccounts</t>
-  </si>
-  <si>
     <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"DESC"}]},"Params":{}}</t>
   </si>
   <si>
@@ -1767,6 +1764,60 @@
   </si>
   <si>
     <t>Verify "PaymentType" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/getCollection</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["AccountIDs", "Name", "AccountTypeIDs", "AccountTypeName", "PaymentTerm" &amp; "IsActive"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [List] acording to request header [PageSize] value</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [List] acording to request header [StartPosition] value</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [List] acording to request header [SortBy] value</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [List] acording to request header [SortDir] value</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["AccountIDs"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["AccountTypeIDs"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["AccountTypeName"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["PaymentTerm"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["IsActive"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [NULL Data] when request params sent with non-existing ["AccountIDs"]</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_010</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_011</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_012</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_ACCOUNT_013</t>
   </si>
 </sst>
 </file>
@@ -2072,12 +2123,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2086,6 +2131,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2416,31 +2467,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2527,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2515,7 +2566,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -2710,7 +2761,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2749,7 +2800,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
@@ -2784,7 +2835,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -2821,7 +2872,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -2899,7 +2950,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2940,7 +2991,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
         <v>45</v>
@@ -2977,7 +3028,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>48</v>
@@ -3014,7 +3065,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>17</v>
@@ -3049,7 +3100,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>17</v>
@@ -3086,7 +3137,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -3164,7 +3215,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3203,7 +3254,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>17</v>
@@ -3238,7 +3289,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
@@ -3275,7 +3326,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="42" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3314,7 +3365,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -3349,7 +3400,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
         <v>17</v>
@@ -3384,7 +3435,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
         <v>17</v>
@@ -3419,7 +3470,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
         <v>17</v>
@@ -3536,7 +3587,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3575,7 +3626,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
         <v>45</v>
@@ -3600,7 +3651,7 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>48</v>
@@ -3625,7 +3676,7 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="40" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3662,7 +3713,7 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
         <v>45</v>
@@ -3699,7 +3750,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
         <v>48</v>
@@ -3732,7 +3783,7 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3755,7 +3806,7 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="41" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3794,7 +3845,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3815,7 +3866,7 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3836,7 +3887,7 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3875,7 +3926,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3901,6 +3952,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -3909,11 +3965,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -5508,46 +5559,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5589,13 +5640,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6658,57 +6709,57 @@
     </row>
     <row r="2" spans="1:1024" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6746,79 +6797,79 @@
     </row>
     <row r="2" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="22" t="s">
         <v>256</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>256</v>
-      </c>
       <c r="C4" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6856,79 +6907,79 @@
     </row>
     <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>268</v>
-      </c>
       <c r="C2" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>268</v>
-      </c>
       <c r="C4" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6966,90 +7017,90 @@
     </row>
     <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7087,90 +7138,90 @@
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>291</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>295</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>297</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>299</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>302</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -7286,57 +7337,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>312</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7378,68 +7429,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" t="s">
         <v>314</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="17" t="s">
         <v>315</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -7456,8 +7507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7471,10 +7522,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>80</v>
@@ -7488,750 +7539,750 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C3" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>323</v>
-      </c>
       <c r="E3" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>332</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D24" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>349</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D29" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>354</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D39" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -8249,7 +8300,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8263,10 +8314,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>80</v>
@@ -8280,373 +8331,373 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C2" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>375</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>376</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -8661,160 +8712,279 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK10"/>
+  <dimension ref="A1:AML26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.140625" style="17"/>
-    <col min="2" max="2" width="31.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="123.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" style="17" customWidth="1"/>
-    <col min="5" max="1025" width="8.140625" style="17"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.140625" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="1026" width="8.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B3" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="B4" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="C4" s="17" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="C5" s="17" t="s">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" s="17" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E14" s="17" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="C8" s="17" t="s">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="C9" s="17" t="s">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>489</v>
-      </c>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="32"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="32"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="32"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -8831,7 +9001,7 @@
   <dimension ref="A1:AMH5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8845,7 +9015,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>80</v>
@@ -8859,58 +9029,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>231</v>
-      </c>
       <c r="D2" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="31" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="36" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="573">
   <si>
     <t>Api</t>
   </si>
@@ -737,45 +737,9 @@
     <t>jsonSchema/corporate/account/updateAccount_MaxLimitData.json</t>
   </si>
   <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"DESC"}]},"Params":{}}</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountIDs":[1],"AccountName":"Test-AC002_UPD","AccountTypeIDs":[1001],"AccountTypeName":"Personal"}}</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":1,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{}}</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":2,"StartPosition":1,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{}}</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountIDs":[31,32]}}</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountName":"Test-AC002_UPD"}}</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountTypeIDs":[1,1001]}}</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountTypeName":"Individual"}}</t>
-  </si>
-  <si>
-    <t>"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"ID","Dir":"ASC"}]},"Params":{"AccountTypeName":"Individual"}}</t>
-  </si>
-  <si>
-    <t>/web-corporate/api/submit/corporate/account/readAccount</t>
-  </si>
-  <si>
-    <t>{"Header":{},"Params":{"AccountID":32}}</t>
-  </si>
-  <si>
     <t>{"Header":{},"Params":{"AccountID":100}}</t>
   </si>
   <si>
-    <t>"Header":{},"Params":{"AccountID":32}}</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/account/deleteAccount</t>
   </si>
   <si>
@@ -1517,45 +1481,9 @@
     <t>GETCOLLECTION_ACCOUNT_009</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getCollection_account.json</t>
-  </si>
-  <si>
     <t>jsonSchema/corporate/account/getCollection_account_Filtered.json</t>
   </si>
   <si>
-    <t>jsonSchema/corporate/account/getCollection_account_PageSize.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/getCollection_account_StartPosition.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/getCollection_account_AccountIDs.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/getCollection_account_AccountName.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/getCollection_account_AccountTypeIDs.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/getCollection_account_AccountTypeName.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/getCollection_account_InvalidHTTPRequestBody.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/get_account_AllParams.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/get_account_non-existingAccountID.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/get_account_WithoutAccountID.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/get_account_InvalidHTTPRequestBody.json</t>
-  </si>
-  <si>
     <t>GET_ACCOUNT_001</t>
   </si>
   <si>
@@ -1565,9 +1493,6 @@
     <t>GET_ACCOUNT_003</t>
   </si>
   <si>
-    <t>GET_ACCOUNT_004</t>
-  </si>
-  <si>
     <t>Test Case Description</t>
   </si>
   <si>
@@ -1775,18 +1700,6 @@
     <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["AccountIDs", "Name", "AccountTypeIDs", "AccountTypeName", "PaymentTerm" &amp; "IsActive"]</t>
   </si>
   <si>
-    <t>Verify "getCollection" api for "Account" returns [List] acording to request header [PageSize] value</t>
-  </si>
-  <si>
-    <t>Verify "getCollection" api for "Account" returns [List] acording to request header [StartPosition] value</t>
-  </si>
-  <si>
-    <t>Verify "getCollection" api for "Account" returns [List] acording to request header [SortBy] value</t>
-  </si>
-  <si>
-    <t>Verify "getCollection" api for "Account" returns [List] acording to request header [SortDir] value</t>
-  </si>
-  <si>
     <t>Verify "getCollection" api for "Account" returns [Filtered List] when request params sent with ["AccountIDs"]</t>
   </si>
   <si>
@@ -1811,13 +1724,76 @@
     <t>GETCOLLECTION_ACCOUNT_010</t>
   </si>
   <si>
-    <t>GETCOLLECTION_ACCOUNT_011</t>
-  </si>
-  <si>
-    <t>GETCOLLECTION_ACCOUNT_012</t>
-  </si>
-  <si>
-    <t>GETCOLLECTION_ACCOUNT_013</t>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"AccountIDs","SortDir":"ASC"},"Params":{"AccountIDs":[208],"Name":"assad","AccountTypeIDs":[1],"AccountTypeName":"Individual","PaymentTerm":"someSty","IsActive":true}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"AccountIDs","SortDir":"ASC"},"Params":{}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"AccountIDs","SortDir":"ASC"},"Params":{"AccountIDs":[208]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"Name","SortDir":"ASC"},"Params":{"Name":"assad"}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"AccountTypeIDs","SortDir":"ASC"},"Params":{"AccountTypeIDs":[1]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"AccountTypeName","SortDir":"ASC"},"Params":{"AccountTypeName":"Individual"}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"PaymentTerm","SortDir":"ASC"},"Params":{"PaymentTerm":"someSty"}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"AccountIDs","SortDir":"ASC"},"Params":{"IsActive":true}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":3,"StartPosition":1,"SortBy":"AccountIDs","SortDir":"ASC"},"Params":{}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"AccountIDs","SortDir":"ASC"},"Params":{"AccountIDs":[-1]}}</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Account" returns [List] according to request header [PageSize, StartPosition, SortBy, SortDir] value</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_Header.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_All.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getCollection_account_non-existingParams.json</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Account" returns record when request params sent with existing ["ID"]</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Account" returns [NULL Data] when request params sent with non-existing ["ID"]</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/get</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":208}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"AccountID":-1}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/get_account_non-existingParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/get_account_AccountID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/get_account_Failure.json</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Account" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/reference/get_reference_failure.json</t>
   </si>
 </sst>
 </file>
@@ -2123,6 +2099,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2131,12 +2113,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2467,31 +2443,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2527,7 +2503,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2566,7 +2542,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -2761,7 +2737,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2800,7 +2776,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
@@ -2835,7 +2811,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -2872,7 +2848,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -2950,7 +2926,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="42" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2991,7 +2967,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
         <v>45</v>
@@ -3028,7 +3004,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>48</v>
@@ -3065,7 +3041,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>17</v>
@@ -3100,7 +3076,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>17</v>
@@ -3137,7 +3113,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -3215,7 +3191,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3254,7 +3230,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>17</v>
@@ -3289,7 +3265,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
@@ -3326,7 +3302,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="44" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3365,7 +3341,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -3400,7 +3376,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
         <v>17</v>
@@ -3435,7 +3411,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
         <v>17</v>
@@ -3470,7 +3446,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
         <v>17</v>
@@ -3587,7 +3563,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="42" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3626,7 +3602,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
         <v>45</v>
@@ -3651,7 +3627,7 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>48</v>
@@ -3676,7 +3652,7 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3713,7 +3689,7 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
         <v>45</v>
@@ -3750,7 +3726,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
         <v>48</v>
@@ -3783,7 +3759,7 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3806,7 +3782,7 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3845,7 +3821,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3866,7 +3842,7 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3887,7 +3863,7 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="42" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3926,7 +3902,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3952,11 +3928,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -3965,6 +3936,11 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -5559,46 +5535,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5640,13 +5616,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6709,57 +6685,57 @@
     </row>
     <row r="2" spans="1:1024" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6797,79 +6773,79 @@
     </row>
     <row r="2" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -6907,79 +6883,79 @@
     </row>
     <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7017,90 +6993,90 @@
     </row>
     <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -7138,90 +7114,90 @@
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>287</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7337,57 +7313,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7429,68 +7405,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -7507,31 +7483,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="111.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" customWidth="1"/>
-    <col min="4" max="4" width="140.5703125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>82</v>
@@ -7539,750 +7515,750 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>325</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>322</v>
+        <v>475</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>329</v>
+        <v>476</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>323</v>
+        <v>477</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>324</v>
+        <v>478</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>326</v>
+        <v>473</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>330</v>
+        <v>479</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C9" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>333</v>
+      <c r="D9" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>334</v>
+        <v>481</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>335</v>
+        <v>482</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>336</v>
+        <v>483</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>331</v>
+        <v>484</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>338</v>
+        <v>485</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>340</v>
+        <v>486</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>341</v>
+        <v>487</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>513</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>342</v>
+        <v>488</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>343</v>
+        <v>489</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>431</v>
+        <v>490</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>344</v>
+        <v>491</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>350</v>
+        <v>492</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>346</v>
+        <v>493</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>347</v>
+        <v>494</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>348</v>
+        <v>495</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>351</v>
+        <v>496</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>345</v>
+        <v>497</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>352</v>
+        <v>498</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>355</v>
+        <v>499</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>353</v>
+        <v>500</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>357</v>
+        <v>501</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>356</v>
+        <v>502</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>358</v>
+        <v>503</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>359</v>
+        <v>504</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>362</v>
+        <v>505</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>363</v>
+        <v>506</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>364</v>
+        <v>507</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>365</v>
+        <v>508</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>361</v>
+        <v>509</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>366</v>
+        <v>510</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>371</v>
+        <v>511</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>368</v>
+        <v>512</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>370</v>
+        <v>513</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>372</v>
+        <v>514</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>369</v>
+        <v>515</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>328</v>
+        <v>516</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>309</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8299,31 +8275,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="107.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="76" style="32" customWidth="1"/>
-    <col min="5" max="5" width="86" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="86.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>81</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>82</v>
@@ -8331,373 +8307,376 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>374</v>
+        <v>517</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>375</v>
+        <v>521</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>325</v>
+        <v>518</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>427</v>
+        <v>519</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>426</v>
+        <v>522</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>330</v>
+        <v>520</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>433</v>
+        <v>523</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>432</v>
+        <v>524</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>338</v>
+        <v>525</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>438</v>
+        <v>526</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E11" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>437</v>
+        <v>527</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E12" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>344</v>
+        <v>528</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E13" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>439</v>
+        <v>529</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>440</v>
+        <v>530</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>556</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>352</v>
+        <v>531</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E16" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>442</v>
+        <v>532</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>441</v>
+        <v>533</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E18" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>359</v>
+        <v>534</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>560</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>443</v>
+        <v>535</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>561</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>444</v>
+        <v>536</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E21" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>562</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>366</v>
+        <v>537</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>470</v>
+        <v>516</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -8712,34 +8691,34 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML26"/>
+  <dimension ref="A1:AML11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.140625" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="161.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="1026" width="8.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>82</v>
@@ -8747,244 +8726,173 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>220</v>
+        <v>539</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>221</v>
+        <v>541</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>563</v>
+        <v>542</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>563</v>
+        <v>543</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>544</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>563</v>
+        <v>545</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>574</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>563</v>
+        <v>546</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>563</v>
+        <v>540</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>222</v>
+        <v>559</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>223</v>
+        <v>547</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>579</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>580</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+        <v>562</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -8998,89 +8906,88 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH5"/>
+  <dimension ref="A1:ALK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="17" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="17"/>
-    <col min="3" max="3" width="52.28515625" style="17"/>
-    <col min="4" max="4" width="68.85546875" style="17"/>
-    <col min="5" max="1022" width="8.42578125" style="17"/>
+    <col min="1" max="1" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="999" width="8.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>80</v>
+        <v>366</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>472</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>229</v>
+        <v>469</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>563</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>230</v>
+        <v>566</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>229</v>
+        <v>470</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>564</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>231</v>
+        <v>567</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>229</v>
+        <v>471</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>571</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>492</v>
+        <v>565</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="36" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="36" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -35,23 +35,23 @@
     <sheet name="updateRole" sheetId="26" r:id="rId26"/>
     <sheet name="updateUser" sheetId="27" r:id="rId27"/>
     <sheet name="verifyPasswordResetToken" sheetId="28" r:id="rId28"/>
-    <sheet name="insertAccounts" sheetId="29" r:id="rId29"/>
-    <sheet name="insertAccount" sheetId="30" r:id="rId30"/>
-    <sheet name="updateAccounts" sheetId="31" r:id="rId31"/>
-    <sheet name="updateAccount" sheetId="32" r:id="rId32"/>
-    <sheet name="deleteAccount" sheetId="35" r:id="rId33"/>
-    <sheet name="getAccountContacts" sheetId="36" r:id="rId34"/>
-    <sheet name="getContacts" sheetId="37" r:id="rId35"/>
-    <sheet name="insertContacts" sheetId="38" r:id="rId36"/>
-    <sheet name="insertContact" sheetId="39" r:id="rId37"/>
-    <sheet name="updateContacts" sheetId="40" r:id="rId38"/>
-    <sheet name="updateContact" sheetId="41" r:id="rId39"/>
-    <sheet name="deleteContact" sheetId="42" r:id="rId40"/>
-    <sheet name="addAccountContactAffiliations" sheetId="43" r:id="rId41"/>
-    <sheet name="getCollection_reference" sheetId="44" r:id="rId42"/>
-    <sheet name="get_reference" sheetId="45" r:id="rId43"/>
-    <sheet name="getCollection_account" sheetId="33" r:id="rId44"/>
-    <sheet name="get_account" sheetId="34" r:id="rId45"/>
+    <sheet name="getAccountContacts" sheetId="36" r:id="rId29"/>
+    <sheet name="getContacts" sheetId="37" r:id="rId30"/>
+    <sheet name="insertContacts" sheetId="38" r:id="rId31"/>
+    <sheet name="insertContact" sheetId="39" r:id="rId32"/>
+    <sheet name="updateContacts" sheetId="40" r:id="rId33"/>
+    <sheet name="updateContact" sheetId="41" r:id="rId34"/>
+    <sheet name="deleteContact" sheetId="42" r:id="rId35"/>
+    <sheet name="addAccountContactAffiliations" sheetId="43" r:id="rId36"/>
+    <sheet name="getCollection_reference" sheetId="44" r:id="rId37"/>
+    <sheet name="get_reference" sheetId="45" r:id="rId38"/>
+    <sheet name="getCollection_account" sheetId="33" r:id="rId39"/>
+    <sheet name="get_account" sheetId="34" r:id="rId40"/>
+    <sheet name="postCollection_account" sheetId="29" r:id="rId41"/>
+    <sheet name="post_account" sheetId="30" r:id="rId42"/>
+    <sheet name="updateAccounts" sheetId="31" r:id="rId43"/>
+    <sheet name="updateAccount" sheetId="32" r:id="rId44"/>
+    <sheet name="deleteAccount" sheetId="35" r:id="rId45"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="591">
   <si>
     <t>Api</t>
   </si>
@@ -563,45 +563,6 @@
     <t>jsonSchema/authentication/authentication/verifyPasswordResetTokenInvalidParam.json</t>
   </si>
   <si>
-    <t>/web-corporate/api/submit/corporate/account/insertAccounts</t>
-  </si>
-  <si>
-    <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC01","Description":"Test-AC01 Description","AccountTypeID":1,"PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100},{"Name":"Test-AC02","Description":"Test-AC02 Description","AccountTypeID":1001,"PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100}]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/insertAccounts_AllParams.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/insertAccounts_DupeParams.json</t>
-  </si>
-  <si>
-    <t>{"Header":{},"Params":{"Accounts":[{"Description":"Test-AC001 Description","AccountTypeID":1,"PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100},{"Description":"Test-AC002 Description","AccountTypeID":1001,"PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100}]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/insertAccounts_WithoutName.json</t>
-  </si>
-  <si>
-    <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC003","Description":"Test-AC003 Description","PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100},{"Name":"Test-AC004","Description":"Test-AC004 Description","PaymentTerm":"Pay Later","FEID":"222","EmployeeCount":100}]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/insertAccounts_WithoutAccountTypeID.json</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/insertAccounts_WithoutAccounts.json</t>
-  </si>
-  <si>
-    <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC003","Description":"Test-AC003 Description","AccountTypeID":1,"PaymentTerm":"Pay Later","FEID":"22222222222","EmployeeCount":100},{"Name":"Test-AC004","Description":"Test-AC004 Description","AccountTypeID":1001,"PaymentTerm":"Pay Later","FEID":"22222222222","EmployeeCount":100}]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/insertAccounts_MaxLimitData.json</t>
-  </si>
-  <si>
-    <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC003","AccountTypeID":1},{"Name":"Test-AC004","AccountTypeID":1001}]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/account/insertAccounts_RequiredParams.json</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/account/insertAccount</t>
   </si>
   <si>
@@ -1794,6 +1755,99 @@
   </si>
   <si>
     <t>jsonSchema/corporate/reference/get_reference_failure.json</t>
+  </si>
+  <si>
+    <t>POSTCOLLECTION_ACCOUNT_001</t>
+  </si>
+  <si>
+    <t>POSTCOLLECTION_ACCOUNT_002</t>
+  </si>
+  <si>
+    <t>POSTCOLLECTION_ACCOUNT_003</t>
+  </si>
+  <si>
+    <t>POST_ACCOUNT_001</t>
+  </si>
+  <si>
+    <t>POST_ACCOUNT_002</t>
+  </si>
+  <si>
+    <t>POST_ACCOUNT_003</t>
+  </si>
+  <si>
+    <t>POST_ACCOUNT_004</t>
+  </si>
+  <si>
+    <t>POST_ACCOUNT_005</t>
+  </si>
+  <si>
+    <t>POST_ACCOUNT_006</t>
+  </si>
+  <si>
+    <t>POST_ACCOUNT_007</t>
+  </si>
+  <si>
+    <t>POSTCOLLECTION_ACCOUNT_004</t>
+  </si>
+  <si>
+    <t>POSTCOLLECTION_ACCOUNT_005</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/account/postCollection</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Account" creates record &amp; returns success response when request sent with all available [params]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Account" creates record &amp; returns success response when request sent with only required [params]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Account" doesn't create record &amp; returns [error msg: "Name is required"] when request sent without required param ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Account" doesn't create record &amp; returns [error msg: "AccountTypeID is required"] when request sent without required param ["AccountTypeID"]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Account" doesn't create record &amp; returns [error msg: "Duplicate Account"] when request sent with duplicate param on ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Account" doesn't create record &amp; returns [error msg: "Max Limit"] when request sent over "max-data limit" on any available [params]</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC122115a","Description":"Test-AC122115a Description","AccountTypeID":1,"PaymentTerm":"Pay Later","PaymentTypeID":1,"FEID":"222","EmployeeCount":100,"Website":"www.sample.com","Addresses":[{"AddressTypeID":21,"Locality":"acbd","RegionCodeID":11,"PostalCode":"1216","CountryCodeID":126,"IsConfidential":true,"IsPrefered":true,"AddressLine1":"Test Address Line 01","AddressLine2":"Test Address Line 02","AddressLine3":"Test Address Line 03"}]}]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC122115b","AccountTypeID":1}]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC122115e","Description":"Test-AC122115e Description","AccountTypeID":1,"PaymentTerm":"Pay Later","PaymentTypeID":1,"FEID":"22222222222","EmployeeCount":100,"Website":"www.sample.com","Addresses":[{"AddressTypeID":21,"Locality":"acbd","RegionCodeID":11,"PostalCode":"1216","CountryCodeID":126,"IsConfidential":true,"IsPrefered":true,"AddressLine1":"Test Address Line 01","AddressLine2":"Test Address Line 02","AddressLine3":"Test Address Line 03"}]}]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/postCollection_account_AllParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/postCollection_account_RequiredParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/postCollection_account_WithoutName.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/postCollection_account_WithoutAccountTypeID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/postCollection_account_DupeParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/postCollection_account_MaxLimitData.json</t>
+  </si>
+  <si>
+    <t>POSTCOLLECTION_ACCOUNT_006</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Accounts":[{"AccountTypeID":1}]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC122115b"}]}}</t>
   </si>
 </sst>
 </file>
@@ -1996,7 +2050,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2099,11 +2153,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2113,6 +2170,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2443,31 +2506,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2503,7 +2566,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2542,7 +2605,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -2737,7 +2800,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2776,7 +2839,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
@@ -2811,7 +2874,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -2848,7 +2911,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -2926,7 +2989,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2967,7 +3030,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
         <v>45</v>
@@ -3004,7 +3067,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>48</v>
@@ -3041,7 +3104,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>17</v>
@@ -3076,7 +3139,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>17</v>
@@ -3113,7 +3176,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -3191,7 +3254,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3230,7 +3293,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>17</v>
@@ -3265,7 +3328,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
@@ -3302,7 +3365,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3341,7 +3404,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -3376,7 +3439,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
         <v>17</v>
@@ -3411,7 +3474,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
         <v>17</v>
@@ -3446,7 +3509,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
         <v>17</v>
@@ -3563,7 +3626,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3602,7 +3665,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
         <v>45</v>
@@ -3627,7 +3690,7 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>48</v>
@@ -3652,7 +3715,7 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3689,7 +3752,7 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
         <v>45</v>
@@ -3726,7 +3789,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
         <v>48</v>
@@ -3759,7 +3822,7 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3782,7 +3845,7 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="44" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3821,7 +3884,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3842,7 +3905,7 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3863,7 +3926,7 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="43" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3902,7 +3965,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3928,6 +3991,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -3936,11 +4004,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -5000,106 +5063,40 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK8"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" style="27"/>
-    <col min="2" max="2" width="73" style="27"/>
-    <col min="3" max="3" width="67.42578125" style="27"/>
-    <col min="4" max="1025" width="8.140625" style="27"/>
+    <col min="1" max="1" width="91.85546875" style="17"/>
+    <col min="2" max="2" width="74.85546875" style="17"/>
+    <col min="3" max="3" width="61.7109375" style="17"/>
+    <col min="4" max="1025" width="8.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>174</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5143,499 +5140,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK8"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.28515625" style="28"/>
-    <col min="2" max="2" width="82.5703125" style="28"/>
-    <col min="3" max="3" width="77.28515625" style="28"/>
-    <col min="4" max="1025" width="8.7109375" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" activeCellId="1" sqref="C7 C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.42578125" style="17"/>
-    <col min="2" max="2" width="74.85546875" style="27"/>
-    <col min="3" max="3" width="65.85546875" style="17"/>
-    <col min="4" max="1025" width="8.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="C7 B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.28515625" style="30"/>
-    <col min="2" max="2" width="64.28515625" style="28"/>
-    <col min="3" max="3" width="76.140625" style="30"/>
-    <col min="4" max="1025" width="64.28515625" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK5"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" activeCellId="1" sqref="C7 B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.28515625" style="17"/>
-    <col min="2" max="2" width="57.28515625" style="17"/>
-    <col min="3" max="3" width="73.85546875" style="17"/>
-    <col min="4" max="1025" width="8.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK2"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="91.85546875" style="17"/>
-    <col min="2" max="2" width="74.85546875" style="17"/>
-    <col min="3" max="3" width="61.7109375" style="17"/>
-    <col min="4" max="1025" width="8.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -6685,57 +6189,57 @@
     </row>
     <row r="2" spans="1:1024" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6744,7 +6248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -6773,79 +6277,79 @@
     </row>
     <row r="2" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6854,7 +6358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
@@ -6883,79 +6387,79 @@
     </row>
     <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6964,7 +6468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
@@ -6993,90 +6497,90 @@
     </row>
     <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7085,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
@@ -7114,95 +6618,1716 @@
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK6"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" activeCellId="1" sqref="C7 C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.28515625" style="17"/>
+    <col min="2" max="2" width="38.5703125" style="17"/>
+    <col min="3" max="3" width="73.85546875" style="17"/>
+    <col min="4" max="1021" width="11" style="17"/>
+    <col min="1022" max="1025" width="8.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79"/>
+    <col min="2" max="2" width="94.5703125"/>
+    <col min="3" max="3" width="85.5703125"/>
+    <col min="4" max="1025" width="11.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>374</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>388</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>395</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>396</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>397</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="86.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="161.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="1026" width="8.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7285,1631 +8410,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="C7 C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.28515625" style="17"/>
-    <col min="2" max="2" width="38.5703125" style="17"/>
-    <col min="3" max="3" width="73.85546875" style="17"/>
-    <col min="4" max="1021" width="11" style="17"/>
-    <col min="1022" max="1025" width="8.42578125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="79"/>
-    <col min="2" max="2" width="94.5703125"/>
-    <col min="3" max="3" width="85.5703125"/>
-    <col min="4" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>374</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>376</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>379</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>383</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>385</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>386</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>387</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>388</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>389</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>390</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>391</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>392</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>393</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>394</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>395</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>396</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>397</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>398</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>400</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>401</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>402</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>403</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>404</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>405</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>406</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>407</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>513</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>408</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>409</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>410</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" customWidth="1"/>
-    <col min="5" max="5" width="86.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E11" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>435</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E14" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>440</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E18" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>442</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>535</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>443</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>444</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>457</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>572</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML11"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="137.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="161.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="1026" width="8.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>472</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>551</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>461</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>542</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>466</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>559</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>562</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALK4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8924,10 +8428,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>81</v>
@@ -8941,58 +8445,679 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMM7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" style="41" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="102.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="83.85546875" style="25" customWidth="1"/>
+    <col min="6" max="1027" width="8.140625" style="25"/>
+    <col min="1028" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMM8"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="93.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="3" max="1027" width="93.28515625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK9"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" style="17"/>
+    <col min="2" max="2" width="74.85546875" style="27"/>
+    <col min="3" max="3" width="65.85546875" style="17"/>
+    <col min="4" max="1025" width="8.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK9"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.28515625" style="30"/>
+    <col min="2" max="2" width="64.28515625" style="28"/>
+    <col min="3" max="3" width="76.140625" style="30"/>
+    <col min="4" max="1025" width="64.28515625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK5"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.28515625" style="17"/>
+    <col min="2" max="2" width="57.28515625" style="17"/>
+    <col min="3" max="3" width="73.85546875" style="17"/>
+    <col min="4" max="1025" width="8.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="592">
   <si>
     <t>Api</t>
   </si>
@@ -1848,6 +1848,9 @@
   </si>
   <si>
     <t>{"Header":{},"Params":{"Accounts":[{"Name":"Test-AC122115b"}]}}</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
   </si>
 </sst>
 </file>
@@ -2162,6 +2165,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2170,12 +2179,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2506,31 +2509,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2566,7 +2569,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2605,7 +2608,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -2800,7 +2803,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="45" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2839,7 +2842,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
@@ -2874,7 +2877,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -2911,7 +2914,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -2989,7 +2992,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3030,7 +3033,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
         <v>45</v>
@@ -3067,7 +3070,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>48</v>
@@ -3104,7 +3107,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>17</v>
@@ -3139,7 +3142,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>17</v>
@@ -3176,7 +3179,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -3254,7 +3257,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3293,7 +3296,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>17</v>
@@ -3328,7 +3331,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
@@ -3365,7 +3368,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3404,7 +3407,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -3439,7 +3442,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
         <v>17</v>
@@ -3474,7 +3477,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
         <v>17</v>
@@ -3509,7 +3512,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
         <v>17</v>
@@ -3626,7 +3629,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3665,7 +3668,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
         <v>45</v>
@@ -3690,7 +3693,7 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>48</v>
@@ -3715,7 +3718,7 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="45" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3752,7 +3755,7 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
         <v>45</v>
@@ -3789,7 +3792,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
         <v>48</v>
@@ -3822,7 +3825,7 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3845,7 +3848,7 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="46" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3884,7 +3887,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3905,7 +3908,7 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3926,7 +3929,7 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="45" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3965,7 +3968,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3991,11 +3994,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="A41:A42"/>
@@ -4004,6 +4002,11 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
@@ -8502,10 +8505,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM7"/>
+  <dimension ref="A1:AMG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8515,11 +8518,12 @@
     <col min="3" max="3" width="61.85546875" style="25" customWidth="1"/>
     <col min="4" max="4" width="102.7109375" style="25" customWidth="1"/>
     <col min="5" max="5" width="83.85546875" style="25" customWidth="1"/>
-    <col min="6" max="1027" width="8.140625" style="25"/>
-    <col min="1028" max="16384" width="9.140625" style="41"/>
+    <col min="6" max="6" width="12.42578125" style="22" customWidth="1"/>
+    <col min="7" max="1021" width="8.140625" style="25"/>
+    <col min="1022" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>353</v>
       </c>
@@ -8535,8 +8539,11 @@
       <c r="E1" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="F1" s="38" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>560</v>
       </c>
@@ -8552,8 +8559,11 @@
       <c r="E2" s="25" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>561</v>
       </c>
@@ -8569,8 +8579,11 @@
       <c r="E3" s="25" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F3" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>562</v>
       </c>
@@ -8586,8 +8599,11 @@
       <c r="E4" s="25" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F4" s="22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>570</v>
       </c>
@@ -8603,8 +8619,11 @@
       <c r="E5" s="25" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F5" s="22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>571</v>
       </c>
@@ -8620,8 +8639,11 @@
       <c r="E6" s="25" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="F6" s="22">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>588</v>
       </c>
@@ -8637,10 +8659,13 @@
       <c r="E7" s="25" t="s">
         <v>587</v>
       </c>
+      <c r="F7" s="22">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
+++ b/CorporateAPIAutomation/src/test/resources/config/Api_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="36" activeTab="40"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" firstSheet="31" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="API Request Matrix" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,23 @@
     <sheet name="updateUser" sheetId="27" r:id="rId27"/>
     <sheet name="verifyPasswordResetToken" sheetId="28" r:id="rId28"/>
     <sheet name="getAccountContacts" sheetId="36" r:id="rId29"/>
-    <sheet name="getContacts" sheetId="37" r:id="rId30"/>
-    <sheet name="insertContacts" sheetId="38" r:id="rId31"/>
-    <sheet name="insertContact" sheetId="39" r:id="rId32"/>
-    <sheet name="updateContacts" sheetId="40" r:id="rId33"/>
-    <sheet name="updateContact" sheetId="41" r:id="rId34"/>
-    <sheet name="deleteContact" sheetId="42" r:id="rId35"/>
-    <sheet name="addAccountContactAffiliations" sheetId="43" r:id="rId36"/>
-    <sheet name="getCollection_reference" sheetId="44" r:id="rId37"/>
-    <sheet name="get_reference" sheetId="45" r:id="rId38"/>
-    <sheet name="getCollection_account" sheetId="33" r:id="rId39"/>
-    <sheet name="get_account" sheetId="34" r:id="rId40"/>
-    <sheet name="postCollection_account" sheetId="29" r:id="rId41"/>
-    <sheet name="post_account" sheetId="30" r:id="rId42"/>
-    <sheet name="updateAccounts" sheetId="31" r:id="rId43"/>
-    <sheet name="updateAccount" sheetId="32" r:id="rId44"/>
-    <sheet name="deleteAccount" sheetId="35" r:id="rId45"/>
+    <sheet name="addAccountContactAffiliations" sheetId="43" r:id="rId30"/>
+    <sheet name="getCollection_reference" sheetId="44" r:id="rId31"/>
+    <sheet name="get_reference" sheetId="45" r:id="rId32"/>
+    <sheet name="getCollection_account" sheetId="33" r:id="rId33"/>
+    <sheet name="get_account" sheetId="34" r:id="rId34"/>
+    <sheet name="getCollection_contact" sheetId="37" r:id="rId35"/>
+    <sheet name="get_contact" sheetId="46" r:id="rId36"/>
+    <sheet name="postCollection_account" sheetId="29" r:id="rId37"/>
+    <sheet name="post_account" sheetId="30" r:id="rId38"/>
+    <sheet name="patchCollection_account" sheetId="31" r:id="rId39"/>
+    <sheet name="patch_account" sheetId="32" r:id="rId40"/>
+    <sheet name="delete_account" sheetId="35" r:id="rId41"/>
+    <sheet name="postCollection_contact" sheetId="38" r:id="rId42"/>
+    <sheet name="post_contact" sheetId="39" r:id="rId43"/>
+    <sheet name="patchCollection_contact" sheetId="40" r:id="rId44"/>
+    <sheet name="patch_contact" sheetId="41" r:id="rId45"/>
+    <sheet name="delete_contact" sheetId="42" r:id="rId46"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="624">
   <si>
     <t>Api</t>
   </si>
@@ -731,39 +732,6 @@
     <t>jsonSchema/corporate/account/getAccountContacts.json</t>
   </si>
   <si>
-    <t>/web-corporate/api/submit/corporate/contact/getContacts</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"AccountName","Dir":"ASC"}]},"Params":{}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/contact/getContacts.json</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":1000,"StartPosition":0,"Sort":[{"By":"AccountName","Dir":"ASC"}]},"Params":{"ContactIDs":[4,5]}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/contact/getContacts_ContactIDs.json</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":2,"StartPosition":0,"Sort":[{"By":"ContactID","Dir":"DESC"}]},"Params":{}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/contact/getContacts_PageSize.json</t>
-  </si>
-  <si>
-    <t>{"Header":{"PageSize":2,"StartPosition":1,"Sort":[{"By":"ContactID","Dir":"DESC"}]},"Params":{}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/contact/getContacts_StartPosition.json</t>
-  </si>
-  <si>
-    <t>"Header":{"PageSize":2,"StartPosition":1,"Sort":[{"By":"ContactID","Dir":"DESC"}]},"Params":{}}</t>
-  </si>
-  <si>
-    <t>jsonSchema/corporate/contact/getContacts_InvalidHTTPRequestBody.json</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/contact/insertContacts</t>
   </si>
   <si>
@@ -1730,9 +1698,6 @@
     <t>Verify "get" api for "Account" returns record when request params sent with existing ["ID"]</t>
   </si>
   <si>
-    <t>Verify "get" api for "Account" returns [NULL Data] when request params sent with non-existing ["ID"]</t>
-  </si>
-  <si>
     <t>/web-corporate/api/submit/corporate/account/get</t>
   </si>
   <si>
@@ -1751,9 +1716,6 @@
     <t>jsonSchema/corporate/account/get_account_Failure.json</t>
   </si>
   <si>
-    <t>Verify "get" api for "Account" api returns [error msg: "ID is required"] when request params sent with [blank]</t>
-  </si>
-  <si>
     <t>jsonSchema/corporate/reference/get_reference_failure.json</t>
   </si>
   <si>
@@ -1851,6 +1813,141 @@
   </si>
   <si>
     <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Contact" creates record &amp; returns success response when request sent with all available [params]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Contact" creates record &amp; returns success response when request sent with only required [params]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Contact" doesn't create record &amp; returns [error msg: "Name is required"] when request sent without required param ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Contact" doesn't create record &amp; returns [error msg: "AccountTypeID is required"] when request sent without required param ["AccountTypeID"]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Contact" doesn't create record &amp; returns [error msg: "Duplicate Account"] when request sent with duplicate param on ["Name"]</t>
+  </si>
+  <si>
+    <t>Verify "postCollection" api for "Contact" doesn't create record &amp; returns [error msg: "Max Limit"] when request sent over "max-data limit" on any available [params]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Contact" returns [Complete List] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Contact" returns [Filtered List] when request params sent with ["ContactIDs"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Contact" returns [Filtered List] when request params sent with ["FirstName"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Contact" returns [Filtered List] when request params sent with ["LastName"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Contact" returns [Filtered List] when request params sent with ["ContactIDs", "FirstName" &amp; "LastName"]</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Contact" returns [List] according to request header [PageSize, StartPosition, SortBy, SortDir] value</t>
+  </si>
+  <si>
+    <t>Verify "getCollection" api for "Contact" returns [NULL Data] when request params sent with non-existing ["ContactIDs"]</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/contact/getCollection</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"ContactIDs","SortDir":"ASC"},"Params":{}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"ContactIDs","SortDir":"ASC"},"Params":{"ContactIDs":[125]}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"FirstName","SortDir":"ASC"},"Params":{"FirstName":"Test"}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"LastName","SortDir":"ASC"},"Params":{"LastName":"Contact_01a_UPD"}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"ContactIDs","SortDir":"ASC"},"Params":{"ContactIDs":[125],"FirstName":"Test","LastName":"Contact_01a_UPD"}}</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":3,"StartPosition":1,"SortBy":"ContactIDs","SortDir":"ASC"},"Params":{}}</t>
+  </si>
+  <si>
+    <t>GET_CONTACT_001</t>
+  </si>
+  <si>
+    <t>GET_CONTACT_002</t>
+  </si>
+  <si>
+    <t>GET_CONTACT_003</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Account" returns record when request params sent with existing ["AccountID"]</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Account" returns [NULL Data] when request params sent with non-existing ["AccountID"]</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"ContactID":-1}}</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Contact" returns record when request params sent with existing ["ContactID"]</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Contact" returns [NULL Data] when request params sent with non-existing ["ContactID"]</t>
+  </si>
+  <si>
+    <t>/web-corporate/api/submit/corporate/contact/get</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Account" returns [error msg: "AccountID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>{"Header":{},"Params":{"ContactID":125}}</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_CONTACT_001</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_CONTACT_002</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_CONTACT_003</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_CONTACT_004</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_CONTACT_005</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_CONTACT_006</t>
+  </si>
+  <si>
+    <t>GETCOLLECTION_CONTACT_007</t>
+  </si>
+  <si>
+    <t>Verify "get" api for "Contact" returns [error msg: "ContactID is required"] when request params sent with [blank]</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/getContact_ContactID.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getContact_non-existingParams.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/account/getContact_Failure.json</t>
+  </si>
+  <si>
+    <t>{"Header":{"PageSize":1000,"StartPosition":0,"SortBy":"ContactIDs","SortDir":"ASC"},"Params":{"ContactIDs":[-1]}}</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/getCollection_contact_All.json</t>
+  </si>
+  <si>
+    <t>jsonSchema/corporate/contact/getCollection_contact_Filtered.json</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2150,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -2165,6 +2262,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2179,6 +2279,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2509,31 +2615,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2675,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2608,7 +2714,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -2803,7 +2909,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2842,7 +2948,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
@@ -2877,7 +2983,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
         <v>17</v>
@@ -2914,7 +3020,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
@@ -2992,7 +3098,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3033,7 +3139,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
         <v>45</v>
@@ -3070,7 +3176,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
         <v>48</v>
@@ -3107,7 +3213,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
         <v>17</v>
@@ -3142,7 +3248,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
         <v>17</v>
@@ -3179,7 +3285,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -3257,7 +3363,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -3296,7 +3402,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
         <v>17</v>
@@ -3331,7 +3437,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
         <v>17</v>
@@ -3368,7 +3474,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="48" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3407,7 +3513,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
         <v>17</v>
@@ -3442,7 +3548,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
         <v>17</v>
@@ -3477,7 +3583,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
         <v>17</v>
@@ -3512,7 +3618,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
         <v>17</v>
@@ -3629,7 +3735,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3668,7 +3774,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12" t="s">
         <v>45</v>
@@ -3693,7 +3799,7 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>48</v>
@@ -3718,7 +3824,7 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3755,7 +3861,7 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
         <v>45</v>
@@ -3792,7 +3898,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12" t="s">
         <v>48</v>
@@ -3825,7 +3931,7 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3848,7 +3954,7 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3887,7 +3993,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3908,7 +4014,7 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3929,7 +4035,7 @@
       <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="46" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3968,7 +4074,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="46"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -5144,21 +5250,21 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" activeCellId="1" sqref="C7 B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" style="17"/>
-    <col min="2" max="2" width="69.85546875" style="32"/>
-    <col min="3" max="3" width="52.28515625" style="17"/>
-    <col min="4" max="1025" width="8.28515625" style="17"/>
+    <col min="1" max="1" width="79"/>
+    <col min="2" max="2" width="94.5703125"/>
+    <col min="3" max="3" width="85.5703125"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
@@ -5168,8 +5274,1888 @@
       <c r="C1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView topLeftCell="D22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>364</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F26" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F27" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F28" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F29" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F32" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F34" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F35" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F36" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="F38" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>381</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>382</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F41" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F42" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>385</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F44" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="43">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" t="s">
+        <v>429</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" t="s">
+        <v>424</v>
+      </c>
+      <c r="F16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" t="s">
+        <v>431</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" t="s">
+        <v>432</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="F23">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.7109375" customWidth="1"/>
+    <col min="3" max="3" width="131.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="17" customWidth="1"/>
+    <col min="7" max="1026" width="8.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F3" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F6" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F8" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F9" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="F10" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="F11" s="17">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALK4"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="999" width="8.42578125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="F2" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="F3" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="F4" s="17">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMM21"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="155.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="1027" width="8.28515625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -6189,60 +8175,1230 @@
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
-    </row>
-    <row r="2" spans="1:1024" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1024" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>228</v>
+      <c r="AMK1"/>
+      <c r="AML1"/>
+    </row>
+    <row r="2" spans="1:1027" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1027" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>614</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>589</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="24"/>
+      <c r="BB6" s="24"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="24"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="24"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="24"/>
+      <c r="BN6" s="24"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="24"/>
+      <c r="BV6" s="24"/>
+      <c r="BW6" s="24"/>
+      <c r="BX6" s="24"/>
+      <c r="BY6" s="24"/>
+      <c r="BZ6" s="24"/>
+      <c r="CA6" s="24"/>
+      <c r="CB6" s="24"/>
+      <c r="CC6" s="24"/>
+      <c r="CD6" s="24"/>
+      <c r="CE6" s="24"/>
+      <c r="CF6" s="24"/>
+      <c r="CG6" s="24"/>
+      <c r="CH6" s="24"/>
+      <c r="CI6" s="24"/>
+      <c r="CJ6" s="24"/>
+      <c r="CK6" s="24"/>
+      <c r="CL6" s="24"/>
+      <c r="CM6" s="24"/>
+      <c r="CN6" s="24"/>
+      <c r="CO6" s="24"/>
+      <c r="CP6" s="24"/>
+      <c r="CQ6" s="24"/>
+      <c r="CR6" s="24"/>
+      <c r="CS6" s="24"/>
+      <c r="CT6" s="24"/>
+      <c r="CU6" s="24"/>
+      <c r="CV6" s="24"/>
+      <c r="CW6" s="24"/>
+      <c r="CX6" s="24"/>
+      <c r="CY6" s="24"/>
+      <c r="CZ6" s="24"/>
+      <c r="DA6" s="24"/>
+      <c r="DB6" s="24"/>
+      <c r="DC6" s="24"/>
+      <c r="DD6" s="24"/>
+      <c r="DE6" s="24"/>
+      <c r="DF6" s="24"/>
+      <c r="DG6" s="24"/>
+      <c r="DH6" s="24"/>
+      <c r="DI6" s="24"/>
+      <c r="DJ6" s="24"/>
+      <c r="DK6" s="24"/>
+      <c r="DL6" s="24"/>
+      <c r="DM6" s="24"/>
+      <c r="DN6" s="24"/>
+      <c r="DO6" s="24"/>
+      <c r="DP6" s="24"/>
+      <c r="DQ6" s="24"/>
+      <c r="DR6" s="24"/>
+      <c r="DS6" s="24"/>
+      <c r="DT6" s="24"/>
+      <c r="DU6" s="24"/>
+      <c r="DV6" s="24"/>
+      <c r="DW6" s="24"/>
+      <c r="DX6" s="24"/>
+      <c r="DY6" s="24"/>
+      <c r="DZ6" s="24"/>
+      <c r="EA6" s="24"/>
+      <c r="EB6" s="24"/>
+      <c r="EC6" s="24"/>
+      <c r="ED6" s="24"/>
+      <c r="EE6" s="24"/>
+      <c r="EF6" s="24"/>
+      <c r="EG6" s="24"/>
+      <c r="EH6" s="24"/>
+      <c r="EI6" s="24"/>
+      <c r="EJ6" s="24"/>
+      <c r="EK6" s="24"/>
+      <c r="EL6" s="24"/>
+      <c r="EM6" s="24"/>
+      <c r="EN6" s="24"/>
+      <c r="EO6" s="24"/>
+      <c r="EP6" s="24"/>
+      <c r="EQ6" s="24"/>
+      <c r="ER6" s="24"/>
+      <c r="ES6" s="24"/>
+      <c r="ET6" s="24"/>
+      <c r="EU6" s="24"/>
+      <c r="EV6" s="24"/>
+      <c r="EW6" s="24"/>
+      <c r="EX6" s="24"/>
+      <c r="EY6" s="24"/>
+      <c r="EZ6" s="24"/>
+      <c r="FA6" s="24"/>
+      <c r="FB6" s="24"/>
+      <c r="FC6" s="24"/>
+      <c r="FD6" s="24"/>
+      <c r="FE6" s="24"/>
+      <c r="FF6" s="24"/>
+      <c r="FG6" s="24"/>
+      <c r="FH6" s="24"/>
+      <c r="FI6" s="24"/>
+      <c r="FJ6" s="24"/>
+      <c r="FK6" s="24"/>
+      <c r="FL6" s="24"/>
+      <c r="FM6" s="24"/>
+      <c r="FN6" s="24"/>
+      <c r="FO6" s="24"/>
+      <c r="FP6" s="24"/>
+      <c r="FQ6" s="24"/>
+      <c r="FR6" s="24"/>
+      <c r="FS6" s="24"/>
+      <c r="FT6" s="24"/>
+      <c r="FU6" s="24"/>
+      <c r="FV6" s="24"/>
+      <c r="FW6" s="24"/>
+      <c r="FX6" s="24"/>
+      <c r="FY6" s="24"/>
+      <c r="FZ6" s="24"/>
+      <c r="GA6" s="24"/>
+      <c r="GB6" s="24"/>
+      <c r="GC6" s="24"/>
+      <c r="GD6" s="24"/>
+      <c r="GE6" s="24"/>
+      <c r="GF6" s="24"/>
+      <c r="GG6" s="24"/>
+      <c r="GH6" s="24"/>
+      <c r="GI6" s="24"/>
+      <c r="GJ6" s="24"/>
+      <c r="GK6" s="24"/>
+      <c r="GL6" s="24"/>
+      <c r="GM6" s="24"/>
+      <c r="GN6" s="24"/>
+      <c r="GO6" s="24"/>
+      <c r="GP6" s="24"/>
+      <c r="GQ6" s="24"/>
+      <c r="GR6" s="24"/>
+      <c r="GS6" s="24"/>
+      <c r="GT6" s="24"/>
+      <c r="GU6" s="24"/>
+      <c r="GV6" s="24"/>
+      <c r="GW6" s="24"/>
+      <c r="GX6" s="24"/>
+      <c r="GY6" s="24"/>
+      <c r="GZ6" s="24"/>
+      <c r="HA6" s="24"/>
+      <c r="HB6" s="24"/>
+      <c r="HC6" s="24"/>
+      <c r="HD6" s="24"/>
+      <c r="HE6" s="24"/>
+      <c r="HF6" s="24"/>
+      <c r="HG6" s="24"/>
+      <c r="HH6" s="24"/>
+      <c r="HI6" s="24"/>
+      <c r="HJ6" s="24"/>
+      <c r="HK6" s="24"/>
+      <c r="HL6" s="24"/>
+      <c r="HM6" s="24"/>
+      <c r="HN6" s="24"/>
+      <c r="HO6" s="24"/>
+      <c r="HP6" s="24"/>
+      <c r="HQ6" s="24"/>
+      <c r="HR6" s="24"/>
+      <c r="HS6" s="24"/>
+      <c r="HT6" s="24"/>
+      <c r="HU6" s="24"/>
+      <c r="HV6" s="24"/>
+      <c r="HW6" s="24"/>
+      <c r="HX6" s="24"/>
+      <c r="HY6" s="24"/>
+      <c r="HZ6" s="24"/>
+      <c r="IA6" s="24"/>
+      <c r="IB6" s="24"/>
+      <c r="IC6" s="24"/>
+      <c r="ID6" s="24"/>
+      <c r="IE6" s="24"/>
+      <c r="IF6" s="24"/>
+      <c r="IG6" s="24"/>
+      <c r="IH6" s="24"/>
+      <c r="II6" s="24"/>
+      <c r="IJ6" s="24"/>
+      <c r="IK6" s="24"/>
+      <c r="IL6" s="24"/>
+      <c r="IM6" s="24"/>
+      <c r="IN6" s="24"/>
+      <c r="IO6" s="24"/>
+      <c r="IP6" s="24"/>
+      <c r="IQ6" s="24"/>
+      <c r="IR6" s="24"/>
+      <c r="IS6" s="24"/>
+      <c r="IT6" s="24"/>
+      <c r="IU6" s="24"/>
+      <c r="IV6" s="24"/>
+      <c r="IW6" s="24"/>
+      <c r="IX6" s="24"/>
+      <c r="IY6" s="24"/>
+      <c r="IZ6" s="24"/>
+      <c r="JA6" s="24"/>
+      <c r="JB6" s="24"/>
+      <c r="JC6" s="24"/>
+      <c r="JD6" s="24"/>
+      <c r="JE6" s="24"/>
+      <c r="JF6" s="24"/>
+      <c r="JG6" s="24"/>
+      <c r="JH6" s="24"/>
+      <c r="JI6" s="24"/>
+      <c r="JJ6" s="24"/>
+      <c r="JK6" s="24"/>
+      <c r="JL6" s="24"/>
+      <c r="JM6" s="24"/>
+      <c r="JN6" s="24"/>
+      <c r="JO6" s="24"/>
+      <c r="JP6" s="24"/>
+      <c r="JQ6" s="24"/>
+      <c r="JR6" s="24"/>
+      <c r="JS6" s="24"/>
+      <c r="JT6" s="24"/>
+      <c r="JU6" s="24"/>
+      <c r="JV6" s="24"/>
+      <c r="JW6" s="24"/>
+      <c r="JX6" s="24"/>
+      <c r="JY6" s="24"/>
+      <c r="JZ6" s="24"/>
+      <c r="KA6" s="24"/>
+      <c r="KB6" s="24"/>
+      <c r="KC6" s="24"/>
+      <c r="KD6" s="24"/>
+      <c r="KE6" s="24"/>
+      <c r="KF6" s="24"/>
+      <c r="KG6" s="24"/>
+      <c r="KH6" s="24"/>
+      <c r="KI6" s="24"/>
+      <c r="KJ6" s="24"/>
+      <c r="KK6" s="24"/>
+      <c r="KL6" s="24"/>
+      <c r="KM6" s="24"/>
+      <c r="KN6" s="24"/>
+      <c r="KO6" s="24"/>
+      <c r="KP6" s="24"/>
+      <c r="KQ6" s="24"/>
+      <c r="KR6" s="24"/>
+      <c r="KS6" s="24"/>
+      <c r="KT6" s="24"/>
+      <c r="KU6" s="24"/>
+      <c r="KV6" s="24"/>
+      <c r="KW6" s="24"/>
+      <c r="KX6" s="24"/>
+      <c r="KY6" s="24"/>
+      <c r="KZ6" s="24"/>
+      <c r="LA6" s="24"/>
+      <c r="LB6" s="24"/>
+      <c r="LC6" s="24"/>
+      <c r="LD6" s="24"/>
+      <c r="LE6" s="24"/>
+      <c r="LF6" s="24"/>
+      <c r="LG6" s="24"/>
+      <c r="LH6" s="24"/>
+      <c r="LI6" s="24"/>
+      <c r="LJ6" s="24"/>
+      <c r="LK6" s="24"/>
+      <c r="LL6" s="24"/>
+      <c r="LM6" s="24"/>
+      <c r="LN6" s="24"/>
+      <c r="LO6" s="24"/>
+      <c r="LP6" s="24"/>
+      <c r="LQ6" s="24"/>
+      <c r="LR6" s="24"/>
+      <c r="LS6" s="24"/>
+      <c r="LT6" s="24"/>
+      <c r="LU6" s="24"/>
+      <c r="LV6" s="24"/>
+      <c r="LW6" s="24"/>
+      <c r="LX6" s="24"/>
+      <c r="LY6" s="24"/>
+      <c r="LZ6" s="24"/>
+      <c r="MA6" s="24"/>
+      <c r="MB6" s="24"/>
+      <c r="MC6" s="24"/>
+      <c r="MD6" s="24"/>
+      <c r="ME6" s="24"/>
+      <c r="MF6" s="24"/>
+      <c r="MG6" s="24"/>
+      <c r="MH6" s="24"/>
+      <c r="MI6" s="24"/>
+      <c r="MJ6" s="24"/>
+      <c r="MK6" s="24"/>
+      <c r="ML6" s="24"/>
+      <c r="MM6" s="24"/>
+      <c r="MN6" s="24"/>
+      <c r="MO6" s="24"/>
+      <c r="MP6" s="24"/>
+      <c r="MQ6" s="24"/>
+      <c r="MR6" s="24"/>
+      <c r="MS6" s="24"/>
+      <c r="MT6" s="24"/>
+      <c r="MU6" s="24"/>
+      <c r="MV6" s="24"/>
+      <c r="MW6" s="24"/>
+      <c r="MX6" s="24"/>
+      <c r="MY6" s="24"/>
+      <c r="MZ6" s="24"/>
+      <c r="NA6" s="24"/>
+      <c r="NB6" s="24"/>
+      <c r="NC6" s="24"/>
+      <c r="ND6" s="24"/>
+      <c r="NE6" s="24"/>
+      <c r="NF6" s="24"/>
+      <c r="NG6" s="24"/>
+      <c r="NH6" s="24"/>
+      <c r="NI6" s="24"/>
+      <c r="NJ6" s="24"/>
+      <c r="NK6" s="24"/>
+      <c r="NL6" s="24"/>
+      <c r="NM6" s="24"/>
+      <c r="NN6" s="24"/>
+      <c r="NO6" s="24"/>
+      <c r="NP6" s="24"/>
+      <c r="NQ6" s="24"/>
+      <c r="NR6" s="24"/>
+      <c r="NS6" s="24"/>
+      <c r="NT6" s="24"/>
+      <c r="NU6" s="24"/>
+      <c r="NV6" s="24"/>
+      <c r="NW6" s="24"/>
+      <c r="NX6" s="24"/>
+      <c r="NY6" s="24"/>
+      <c r="NZ6" s="24"/>
+      <c r="OA6" s="24"/>
+      <c r="OB6" s="24"/>
+      <c r="OC6" s="24"/>
+      <c r="OD6" s="24"/>
+      <c r="OE6" s="24"/>
+      <c r="OF6" s="24"/>
+      <c r="OG6" s="24"/>
+      <c r="OH6" s="24"/>
+      <c r="OI6" s="24"/>
+      <c r="OJ6" s="24"/>
+      <c r="OK6" s="24"/>
+      <c r="OL6" s="24"/>
+      <c r="OM6" s="24"/>
+      <c r="ON6" s="24"/>
+      <c r="OO6" s="24"/>
+      <c r="OP6" s="24"/>
+      <c r="OQ6" s="24"/>
+      <c r="OR6" s="24"/>
+      <c r="OS6" s="24"/>
+      <c r="OT6" s="24"/>
+      <c r="OU6" s="24"/>
+      <c r="OV6" s="24"/>
+      <c r="OW6" s="24"/>
+      <c r="OX6" s="24"/>
+      <c r="OY6" s="24"/>
+      <c r="OZ6" s="24"/>
+      <c r="PA6" s="24"/>
+      <c r="PB6" s="24"/>
+      <c r="PC6" s="24"/>
+      <c r="PD6" s="24"/>
+      <c r="PE6" s="24"/>
+      <c r="PF6" s="24"/>
+      <c r="PG6" s="24"/>
+      <c r="PH6" s="24"/>
+      <c r="PI6" s="24"/>
+      <c r="PJ6" s="24"/>
+      <c r="PK6" s="24"/>
+      <c r="PL6" s="24"/>
+      <c r="PM6" s="24"/>
+      <c r="PN6" s="24"/>
+      <c r="PO6" s="24"/>
+      <c r="PP6" s="24"/>
+      <c r="PQ6" s="24"/>
+      <c r="PR6" s="24"/>
+      <c r="PS6" s="24"/>
+      <c r="PT6" s="24"/>
+      <c r="PU6" s="24"/>
+      <c r="PV6" s="24"/>
+      <c r="PW6" s="24"/>
+      <c r="PX6" s="24"/>
+      <c r="PY6" s="24"/>
+      <c r="PZ6" s="24"/>
+      <c r="QA6" s="24"/>
+      <c r="QB6" s="24"/>
+      <c r="QC6" s="24"/>
+      <c r="QD6" s="24"/>
+      <c r="QE6" s="24"/>
+      <c r="QF6" s="24"/>
+      <c r="QG6" s="24"/>
+      <c r="QH6" s="24"/>
+      <c r="QI6" s="24"/>
+      <c r="QJ6" s="24"/>
+      <c r="QK6" s="24"/>
+      <c r="QL6" s="24"/>
+      <c r="QM6" s="24"/>
+      <c r="QN6" s="24"/>
+      <c r="QO6" s="24"/>
+      <c r="QP6" s="24"/>
+      <c r="QQ6" s="24"/>
+      <c r="QR6" s="24"/>
+      <c r="QS6" s="24"/>
+      <c r="QT6" s="24"/>
+      <c r="QU6" s="24"/>
+      <c r="QV6" s="24"/>
+      <c r="QW6" s="24"/>
+      <c r="QX6" s="24"/>
+      <c r="QY6" s="24"/>
+      <c r="QZ6" s="24"/>
+      <c r="RA6" s="24"/>
+      <c r="RB6" s="24"/>
+      <c r="RC6" s="24"/>
+      <c r="RD6" s="24"/>
+      <c r="RE6" s="24"/>
+      <c r="RF6" s="24"/>
+      <c r="RG6" s="24"/>
+      <c r="RH6" s="24"/>
+      <c r="RI6" s="24"/>
+      <c r="RJ6" s="24"/>
+      <c r="RK6" s="24"/>
+      <c r="RL6" s="24"/>
+      <c r="RM6" s="24"/>
+      <c r="RN6" s="24"/>
+      <c r="RO6" s="24"/>
+      <c r="RP6" s="24"/>
+      <c r="RQ6" s="24"/>
+      <c r="RR6" s="24"/>
+      <c r="RS6" s="24"/>
+      <c r="RT6" s="24"/>
+      <c r="RU6" s="24"/>
+      <c r="RV6" s="24"/>
+      <c r="RW6" s="24"/>
+      <c r="RX6" s="24"/>
+      <c r="RY6" s="24"/>
+      <c r="RZ6" s="24"/>
+      <c r="SA6" s="24"/>
+      <c r="SB6" s="24"/>
+      <c r="SC6" s="24"/>
+      <c r="SD6" s="24"/>
+      <c r="SE6" s="24"/>
+      <c r="SF6" s="24"/>
+      <c r="SG6" s="24"/>
+      <c r="SH6" s="24"/>
+      <c r="SI6" s="24"/>
+      <c r="SJ6" s="24"/>
+      <c r="SK6" s="24"/>
+      <c r="SL6" s="24"/>
+      <c r="SM6" s="24"/>
+      <c r="SN6" s="24"/>
+      <c r="SO6" s="24"/>
+      <c r="SP6" s="24"/>
+      <c r="SQ6" s="24"/>
+      <c r="SR6" s="24"/>
+      <c r="SS6" s="24"/>
+      <c r="ST6" s="24"/>
+      <c r="SU6" s="24"/>
+      <c r="SV6" s="24"/>
+      <c r="SW6" s="24"/>
+      <c r="SX6" s="24"/>
+      <c r="SY6" s="24"/>
+      <c r="SZ6" s="24"/>
+      <c r="TA6" s="24"/>
+      <c r="TB6" s="24"/>
+      <c r="TC6" s="24"/>
+      <c r="TD6" s="24"/>
+      <c r="TE6" s="24"/>
+      <c r="TF6" s="24"/>
+      <c r="TG6" s="24"/>
+      <c r="TH6" s="24"/>
+      <c r="TI6" s="24"/>
+      <c r="TJ6" s="24"/>
+      <c r="TK6" s="24"/>
+      <c r="TL6" s="24"/>
+      <c r="TM6" s="24"/>
+      <c r="TN6" s="24"/>
+      <c r="TO6" s="24"/>
+      <c r="TP6" s="24"/>
+      <c r="TQ6" s="24"/>
+      <c r="TR6" s="24"/>
+      <c r="TS6" s="24"/>
+      <c r="TT6" s="24"/>
+      <c r="TU6" s="24"/>
+      <c r="TV6" s="24"/>
+      <c r="TW6" s="24"/>
+      <c r="TX6" s="24"/>
+      <c r="TY6" s="24"/>
+      <c r="TZ6" s="24"/>
+      <c r="UA6" s="24"/>
+      <c r="UB6" s="24"/>
+      <c r="UC6" s="24"/>
+      <c r="UD6" s="24"/>
+      <c r="UE6" s="24"/>
+      <c r="UF6" s="24"/>
+      <c r="UG6" s="24"/>
+      <c r="UH6" s="24"/>
+      <c r="UI6" s="24"/>
+      <c r="UJ6" s="24"/>
+      <c r="UK6" s="24"/>
+      <c r="UL6" s="24"/>
+      <c r="UM6" s="24"/>
+      <c r="UN6" s="24"/>
+      <c r="UO6" s="24"/>
+      <c r="UP6" s="24"/>
+      <c r="UQ6" s="24"/>
+      <c r="UR6" s="24"/>
+      <c r="US6" s="24"/>
+      <c r="UT6" s="24"/>
+      <c r="UU6" s="24"/>
+      <c r="UV6" s="24"/>
+      <c r="UW6" s="24"/>
+      <c r="UX6" s="24"/>
+      <c r="UY6" s="24"/>
+      <c r="UZ6" s="24"/>
+      <c r="VA6" s="24"/>
+      <c r="VB6" s="24"/>
+      <c r="VC6" s="24"/>
+      <c r="VD6" s="24"/>
+      <c r="VE6" s="24"/>
+      <c r="VF6" s="24"/>
+      <c r="VG6" s="24"/>
+      <c r="VH6" s="24"/>
+      <c r="VI6" s="24"/>
+      <c r="VJ6" s="24"/>
+      <c r="VK6" s="24"/>
+      <c r="VL6" s="24"/>
+      <c r="VM6" s="24"/>
+      <c r="VN6" s="24"/>
+      <c r="VO6" s="24"/>
+      <c r="VP6" s="24"/>
+      <c r="VQ6" s="24"/>
+      <c r="VR6" s="24"/>
+      <c r="VS6" s="24"/>
+      <c r="VT6" s="24"/>
+      <c r="VU6" s="24"/>
+      <c r="VV6" s="24"/>
+      <c r="VW6" s="24"/>
+      <c r="VX6" s="24"/>
+      <c r="VY6" s="24"/>
+      <c r="VZ6" s="24"/>
+      <c r="WA6" s="24"/>
+      <c r="WB6" s="24"/>
+      <c r="WC6" s="24"/>
+      <c r="WD6" s="24"/>
+      <c r="WE6" s="24"/>
+      <c r="WF6" s="24"/>
+      <c r="WG6" s="24"/>
+      <c r="WH6" s="24"/>
+      <c r="WI6" s="24"/>
+      <c r="WJ6" s="24"/>
+      <c r="WK6" s="24"/>
+      <c r="WL6" s="24"/>
+      <c r="WM6" s="24"/>
+      <c r="WN6" s="24"/>
+      <c r="WO6" s="24"/>
+      <c r="WP6" s="24"/>
+      <c r="WQ6" s="24"/>
+      <c r="WR6" s="24"/>
+      <c r="WS6" s="24"/>
+      <c r="WT6" s="24"/>
+      <c r="WU6" s="24"/>
+      <c r="WV6" s="24"/>
+      <c r="WW6" s="24"/>
+      <c r="WX6" s="24"/>
+      <c r="WY6" s="24"/>
+      <c r="WZ6" s="24"/>
+      <c r="XA6" s="24"/>
+      <c r="XB6" s="24"/>
+      <c r="XC6" s="24"/>
+      <c r="XD6" s="24"/>
+      <c r="XE6" s="24"/>
+      <c r="XF6" s="24"/>
+      <c r="XG6" s="24"/>
+      <c r="XH6" s="24"/>
+      <c r="XI6" s="24"/>
+      <c r="XJ6" s="24"/>
+      <c r="XK6" s="24"/>
+      <c r="XL6" s="24"/>
+      <c r="XM6" s="24"/>
+      <c r="XN6" s="24"/>
+      <c r="XO6" s="24"/>
+      <c r="XP6" s="24"/>
+      <c r="XQ6" s="24"/>
+      <c r="XR6" s="24"/>
+      <c r="XS6" s="24"/>
+      <c r="XT6" s="24"/>
+      <c r="XU6" s="24"/>
+      <c r="XV6" s="24"/>
+      <c r="XW6" s="24"/>
+      <c r="XX6" s="24"/>
+      <c r="XY6" s="24"/>
+      <c r="XZ6" s="24"/>
+      <c r="YA6" s="24"/>
+      <c r="YB6" s="24"/>
+      <c r="YC6" s="24"/>
+      <c r="YD6" s="24"/>
+      <c r="YE6" s="24"/>
+      <c r="YF6" s="24"/>
+      <c r="YG6" s="24"/>
+      <c r="YH6" s="24"/>
+      <c r="YI6" s="24"/>
+      <c r="YJ6" s="24"/>
+      <c r="YK6" s="24"/>
+      <c r="YL6" s="24"/>
+      <c r="YM6" s="24"/>
+      <c r="YN6" s="24"/>
+      <c r="YO6" s="24"/>
+      <c r="YP6" s="24"/>
+      <c r="YQ6" s="24"/>
+      <c r="YR6" s="24"/>
+      <c r="YS6" s="24"/>
+      <c r="YT6" s="24"/>
+      <c r="YU6" s="24"/>
+      <c r="YV6" s="24"/>
+      <c r="YW6" s="24"/>
+      <c r="YX6" s="24"/>
+      <c r="YY6" s="24"/>
+      <c r="YZ6" s="24"/>
+      <c r="ZA6" s="24"/>
+      <c r="ZB6" s="24"/>
+      <c r="ZC6" s="24"/>
+      <c r="ZD6" s="24"/>
+      <c r="ZE6" s="24"/>
+      <c r="ZF6" s="24"/>
+      <c r="ZG6" s="24"/>
+      <c r="ZH6" s="24"/>
+      <c r="ZI6" s="24"/>
+      <c r="ZJ6" s="24"/>
+      <c r="ZK6" s="24"/>
+      <c r="ZL6" s="24"/>
+      <c r="ZM6" s="24"/>
+      <c r="ZN6" s="24"/>
+      <c r="ZO6" s="24"/>
+      <c r="ZP6" s="24"/>
+      <c r="ZQ6" s="24"/>
+      <c r="ZR6" s="24"/>
+      <c r="ZS6" s="24"/>
+      <c r="ZT6" s="24"/>
+      <c r="ZU6" s="24"/>
+      <c r="ZV6" s="24"/>
+      <c r="ZW6" s="24"/>
+      <c r="ZX6" s="24"/>
+      <c r="ZY6" s="24"/>
+      <c r="ZZ6" s="24"/>
+      <c r="AAA6" s="24"/>
+      <c r="AAB6" s="24"/>
+      <c r="AAC6" s="24"/>
+      <c r="AAD6" s="24"/>
+      <c r="AAE6" s="24"/>
+      <c r="AAF6" s="24"/>
+      <c r="AAG6" s="24"/>
+      <c r="AAH6" s="24"/>
+      <c r="AAI6" s="24"/>
+      <c r="AAJ6" s="24"/>
+      <c r="AAK6" s="24"/>
+      <c r="AAL6" s="24"/>
+      <c r="AAM6" s="24"/>
+      <c r="AAN6" s="24"/>
+      <c r="AAO6" s="24"/>
+      <c r="AAP6" s="24"/>
+      <c r="AAQ6" s="24"/>
+      <c r="AAR6" s="24"/>
+      <c r="AAS6" s="24"/>
+      <c r="AAT6" s="24"/>
+      <c r="AAU6" s="24"/>
+      <c r="AAV6" s="24"/>
+      <c r="AAW6" s="24"/>
+      <c r="AAX6" s="24"/>
+      <c r="AAY6" s="24"/>
+      <c r="AAZ6" s="24"/>
+      <c r="ABA6" s="24"/>
+      <c r="ABB6" s="24"/>
+      <c r="ABC6" s="24"/>
+      <c r="ABD6" s="24"/>
+      <c r="ABE6" s="24"/>
+      <c r="ABF6" s="24"/>
+      <c r="ABG6" s="24"/>
+      <c r="ABH6" s="24"/>
+      <c r="ABI6" s="24"/>
+      <c r="ABJ6" s="24"/>
+      <c r="ABK6" s="24"/>
+      <c r="ABL6" s="24"/>
+      <c r="ABM6" s="24"/>
+      <c r="ABN6" s="24"/>
+      <c r="ABO6" s="24"/>
+      <c r="ABP6" s="24"/>
+      <c r="ABQ6" s="24"/>
+      <c r="ABR6" s="24"/>
+      <c r="ABS6" s="24"/>
+      <c r="ABT6" s="24"/>
+      <c r="ABU6" s="24"/>
+      <c r="ABV6" s="24"/>
+      <c r="ABW6" s="24"/>
+      <c r="ABX6" s="24"/>
+      <c r="ABY6" s="24"/>
+      <c r="ABZ6" s="24"/>
+      <c r="ACA6" s="24"/>
+      <c r="ACB6" s="24"/>
+      <c r="ACC6" s="24"/>
+      <c r="ACD6" s="24"/>
+      <c r="ACE6" s="24"/>
+      <c r="ACF6" s="24"/>
+      <c r="ACG6" s="24"/>
+      <c r="ACH6" s="24"/>
+      <c r="ACI6" s="24"/>
+      <c r="ACJ6" s="24"/>
+      <c r="ACK6" s="24"/>
+      <c r="ACL6" s="24"/>
+      <c r="ACM6" s="24"/>
+      <c r="ACN6" s="24"/>
+      <c r="ACO6" s="24"/>
+      <c r="ACP6" s="24"/>
+      <c r="ACQ6" s="24"/>
+      <c r="ACR6" s="24"/>
+      <c r="ACS6" s="24"/>
+      <c r="ACT6" s="24"/>
+      <c r="ACU6" s="24"/>
+      <c r="ACV6" s="24"/>
+      <c r="ACW6" s="24"/>
+      <c r="ACX6" s="24"/>
+      <c r="ACY6" s="24"/>
+      <c r="ACZ6" s="24"/>
+      <c r="ADA6" s="24"/>
+      <c r="ADB6" s="24"/>
+      <c r="ADC6" s="24"/>
+      <c r="ADD6" s="24"/>
+      <c r="ADE6" s="24"/>
+      <c r="ADF6" s="24"/>
+      <c r="ADG6" s="24"/>
+      <c r="ADH6" s="24"/>
+      <c r="ADI6" s="24"/>
+      <c r="ADJ6" s="24"/>
+      <c r="ADK6" s="24"/>
+      <c r="ADL6" s="24"/>
+      <c r="ADM6" s="24"/>
+      <c r="ADN6" s="24"/>
+      <c r="ADO6" s="24"/>
+      <c r="ADP6" s="24"/>
+      <c r="ADQ6" s="24"/>
+      <c r="ADR6" s="24"/>
+      <c r="ADS6" s="24"/>
+      <c r="ADT6" s="24"/>
+      <c r="ADU6" s="24"/>
+      <c r="ADV6" s="24"/>
+      <c r="ADW6" s="24"/>
+      <c r="ADX6" s="24"/>
+      <c r="ADY6" s="24"/>
+      <c r="ADZ6" s="24"/>
+      <c r="AEA6" s="24"/>
+      <c r="AEB6" s="24"/>
+      <c r="AEC6" s="24"/>
+      <c r="AED6" s="24"/>
+      <c r="AEE6" s="24"/>
+      <c r="AEF6" s="24"/>
+      <c r="AEG6" s="24"/>
+      <c r="AEH6" s="24"/>
+      <c r="AEI6" s="24"/>
+      <c r="AEJ6" s="24"/>
+      <c r="AEK6" s="24"/>
+      <c r="AEL6" s="24"/>
+      <c r="AEM6" s="24"/>
+      <c r="AEN6" s="24"/>
+      <c r="AEO6" s="24"/>
+      <c r="AEP6" s="24"/>
+      <c r="AEQ6" s="24"/>
+      <c r="AER6" s="24"/>
+      <c r="AES6" s="24"/>
+      <c r="AET6" s="24"/>
+      <c r="AEU6" s="24"/>
+      <c r="AEV6" s="24"/>
+      <c r="AEW6" s="24"/>
+      <c r="AEX6" s="24"/>
+      <c r="AEY6" s="24"/>
+      <c r="AEZ6" s="24"/>
+      <c r="AFA6" s="24"/>
+      <c r="AFB6" s="24"/>
+      <c r="AFC6" s="24"/>
+      <c r="AFD6" s="24"/>
+      <c r="AFE6" s="24"/>
+      <c r="AFF6" s="24"/>
+      <c r="AFG6" s="24"/>
+      <c r="AFH6" s="24"/>
+      <c r="AFI6" s="24"/>
+      <c r="AFJ6" s="24"/>
+      <c r="AFK6" s="24"/>
+      <c r="AFL6" s="24"/>
+      <c r="AFM6" s="24"/>
+      <c r="AFN6" s="24"/>
+      <c r="AFO6" s="24"/>
+      <c r="AFP6" s="24"/>
+      <c r="AFQ6" s="24"/>
+      <c r="AFR6" s="24"/>
+      <c r="AFS6" s="24"/>
+      <c r="AFT6" s="24"/>
+      <c r="AFU6" s="24"/>
+      <c r="AFV6" s="24"/>
+      <c r="AFW6" s="24"/>
+      <c r="AFX6" s="24"/>
+      <c r="AFY6" s="24"/>
+      <c r="AFZ6" s="24"/>
+      <c r="AGA6" s="24"/>
+      <c r="AGB6" s="24"/>
+      <c r="AGC6" s="24"/>
+      <c r="AGD6" s="24"/>
+      <c r="AGE6" s="24"/>
+      <c r="AGF6" s="24"/>
+      <c r="AGG6" s="24"/>
+      <c r="AGH6" s="24"/>
+      <c r="AGI6" s="24"/>
+      <c r="AGJ6" s="24"/>
+      <c r="AGK6" s="24"/>
+      <c r="AGL6" s="24"/>
+      <c r="AGM6" s="24"/>
+      <c r="AGN6" s="24"/>
+      <c r="AGO6" s="24"/>
+      <c r="AGP6" s="24"/>
+      <c r="AGQ6" s="24"/>
+      <c r="AGR6" s="24"/>
+      <c r="AGS6" s="24"/>
+      <c r="AGT6" s="24"/>
+      <c r="AGU6" s="24"/>
+      <c r="AGV6" s="24"/>
+      <c r="AGW6" s="24"/>
+      <c r="AGX6" s="24"/>
+      <c r="AGY6" s="24"/>
+      <c r="AGZ6" s="24"/>
+      <c r="AHA6" s="24"/>
+      <c r="AHB6" s="24"/>
+      <c r="AHC6" s="24"/>
+      <c r="AHD6" s="24"/>
+      <c r="AHE6" s="24"/>
+      <c r="AHF6" s="24"/>
+      <c r="AHG6" s="24"/>
+      <c r="AHH6" s="24"/>
+      <c r="AHI6" s="24"/>
+      <c r="AHJ6" s="24"/>
+      <c r="AHK6" s="24"/>
+      <c r="AHL6" s="24"/>
+      <c r="AHM6" s="24"/>
+      <c r="AHN6" s="24"/>
+      <c r="AHO6" s="24"/>
+      <c r="AHP6" s="24"/>
+      <c r="AHQ6" s="24"/>
+      <c r="AHR6" s="24"/>
+      <c r="AHS6" s="24"/>
+      <c r="AHT6" s="24"/>
+      <c r="AHU6" s="24"/>
+      <c r="AHV6" s="24"/>
+      <c r="AHW6" s="24"/>
+      <c r="AHX6" s="24"/>
+      <c r="AHY6" s="24"/>
+      <c r="AHZ6" s="24"/>
+      <c r="AIA6" s="24"/>
+      <c r="AIB6" s="24"/>
+      <c r="AIC6" s="24"/>
+      <c r="AID6" s="24"/>
+      <c r="AIE6" s="24"/>
+      <c r="AIF6" s="24"/>
+      <c r="AIG6" s="24"/>
+      <c r="AIH6" s="24"/>
+      <c r="AII6" s="24"/>
+      <c r="AIJ6" s="24"/>
+      <c r="AIK6" s="24"/>
+      <c r="AIL6" s="24"/>
+      <c r="AIM6" s="24"/>
+      <c r="AIN6" s="24"/>
+      <c r="AIO6" s="24"/>
+      <c r="AIP6" s="24"/>
+      <c r="AIQ6" s="24"/>
+      <c r="AIR6" s="24"/>
+      <c r="AIS6" s="24"/>
+      <c r="AIT6" s="24"/>
+      <c r="AIU6" s="24"/>
+      <c r="AIV6" s="24"/>
+      <c r="AIW6" s="24"/>
+      <c r="AIX6" s="24"/>
+      <c r="AIY6" s="24"/>
+      <c r="AIZ6" s="24"/>
+      <c r="AJA6" s="24"/>
+      <c r="AJB6" s="24"/>
+      <c r="AJC6" s="24"/>
+      <c r="AJD6" s="24"/>
+      <c r="AJE6" s="24"/>
+      <c r="AJF6" s="24"/>
+      <c r="AJG6" s="24"/>
+      <c r="AJH6" s="24"/>
+      <c r="AJI6" s="24"/>
+      <c r="AJJ6" s="24"/>
+      <c r="AJK6" s="24"/>
+      <c r="AJL6" s="24"/>
+      <c r="AJM6" s="24"/>
+      <c r="AJN6" s="24"/>
+      <c r="AJO6" s="24"/>
+      <c r="AJP6" s="24"/>
+      <c r="AJQ6" s="24"/>
+      <c r="AJR6" s="24"/>
+      <c r="AJS6" s="24"/>
+      <c r="AJT6" s="24"/>
+      <c r="AJU6" s="24"/>
+      <c r="AJV6" s="24"/>
+      <c r="AJW6" s="24"/>
+      <c r="AJX6" s="24"/>
+      <c r="AJY6" s="24"/>
+      <c r="AJZ6" s="24"/>
+      <c r="AKA6" s="24"/>
+      <c r="AKB6" s="24"/>
+      <c r="AKC6" s="24"/>
+      <c r="AKD6" s="24"/>
+      <c r="AKE6" s="24"/>
+      <c r="AKF6" s="24"/>
+      <c r="AKG6" s="24"/>
+      <c r="AKH6" s="24"/>
+      <c r="AKI6" s="24"/>
+      <c r="AKJ6" s="24"/>
+      <c r="AKK6" s="24"/>
+      <c r="AKL6" s="24"/>
+      <c r="AKM6" s="24"/>
+      <c r="AKN6" s="24"/>
+      <c r="AKO6" s="24"/>
+      <c r="AKP6" s="24"/>
+      <c r="AKQ6" s="24"/>
+      <c r="AKR6" s="24"/>
+      <c r="AKS6" s="24"/>
+      <c r="AKT6" s="24"/>
+      <c r="AKU6" s="24"/>
+      <c r="AKV6" s="24"/>
+      <c r="AKW6" s="24"/>
+      <c r="AKX6" s="24"/>
+      <c r="AKY6" s="24"/>
+      <c r="AKZ6" s="24"/>
+      <c r="ALA6" s="24"/>
+      <c r="ALB6" s="24"/>
+      <c r="ALC6" s="24"/>
+      <c r="ALD6" s="24"/>
+      <c r="ALE6" s="24"/>
+      <c r="ALF6" s="24"/>
+      <c r="ALG6" s="24"/>
+      <c r="ALH6" s="24"/>
+      <c r="ALI6" s="24"/>
+      <c r="ALJ6" s="24"/>
+      <c r="ALK6" s="24"/>
+      <c r="ALL6" s="24"/>
+      <c r="ALM6" s="24"/>
+      <c r="ALN6" s="24"/>
+      <c r="ALO6" s="24"/>
+      <c r="ALP6" s="24"/>
+      <c r="ALQ6" s="24"/>
+      <c r="ALR6" s="24"/>
+      <c r="ALS6" s="24"/>
+      <c r="ALT6" s="24"/>
+      <c r="ALU6" s="24"/>
+      <c r="ALV6" s="24"/>
+      <c r="ALW6" s="24"/>
+      <c r="ALX6" s="24"/>
+      <c r="ALY6" s="24"/>
+      <c r="ALZ6" s="24"/>
+      <c r="AMA6" s="24"/>
+      <c r="AMB6" s="24"/>
+      <c r="AMC6" s="24"/>
+      <c r="AMD6" s="24"/>
+      <c r="AME6" s="24"/>
+      <c r="AMF6" s="24"/>
+      <c r="AMG6" s="24"/>
+      <c r="AMH6" s="24"/>
+      <c r="AMI6" s="24"/>
+      <c r="AMJ6" s="24"/>
+      <c r="AMK6" s="24"/>
+      <c r="AML6" s="24"/>
+      <c r="AMM6" s="24"/>
+    </row>
+    <row r="7" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="E11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="E12" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="F12" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="E13" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="E14" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F14" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="E15" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="E16" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="F20" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="F21" s="17">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6251,108 +9407,1123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK8"/>
+  <dimension ref="A1:AMM4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCellId="1" sqref="C7 A1"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="58.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" style="17"/>
-    <col min="2" max="2" width="64" style="32"/>
-    <col min="3" max="3" width="69.85546875" style="17"/>
-    <col min="4" max="1025" width="8.28515625" style="17"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="105.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="17" customWidth="1"/>
+    <col min="7" max="1027" width="58.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="F1" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
+      <c r="FM1"/>
+      <c r="FN1"/>
+      <c r="FO1"/>
+      <c r="FP1"/>
+      <c r="FQ1"/>
+      <c r="FR1"/>
+      <c r="FS1"/>
+      <c r="FT1"/>
+      <c r="FU1"/>
+      <c r="FV1"/>
+      <c r="FW1"/>
+      <c r="FX1"/>
+      <c r="FY1"/>
+      <c r="FZ1"/>
+      <c r="GA1"/>
+      <c r="GB1"/>
+      <c r="GC1"/>
+      <c r="GD1"/>
+      <c r="GE1"/>
+      <c r="GF1"/>
+      <c r="GG1"/>
+      <c r="GH1"/>
+      <c r="GI1"/>
+      <c r="GJ1"/>
+      <c r="GK1"/>
+      <c r="GL1"/>
+      <c r="GM1"/>
+      <c r="GN1"/>
+      <c r="GO1"/>
+      <c r="GP1"/>
+      <c r="GQ1"/>
+      <c r="GR1"/>
+      <c r="GS1"/>
+      <c r="GT1"/>
+      <c r="GU1"/>
+      <c r="GV1"/>
+      <c r="GW1"/>
+      <c r="GX1"/>
+      <c r="GY1"/>
+      <c r="GZ1"/>
+      <c r="HA1"/>
+      <c r="HB1"/>
+      <c r="HC1"/>
+      <c r="HD1"/>
+      <c r="HE1"/>
+      <c r="HF1"/>
+      <c r="HG1"/>
+      <c r="HH1"/>
+      <c r="HI1"/>
+      <c r="HJ1"/>
+      <c r="HK1"/>
+      <c r="HL1"/>
+      <c r="HM1"/>
+      <c r="HN1"/>
+      <c r="HO1"/>
+      <c r="HP1"/>
+      <c r="HQ1"/>
+      <c r="HR1"/>
+      <c r="HS1"/>
+      <c r="HT1"/>
+      <c r="HU1"/>
+      <c r="HV1"/>
+      <c r="HW1"/>
+      <c r="HX1"/>
+      <c r="HY1"/>
+      <c r="HZ1"/>
+      <c r="IA1"/>
+      <c r="IB1"/>
+      <c r="IC1"/>
+      <c r="ID1"/>
+      <c r="IE1"/>
+      <c r="IF1"/>
+      <c r="IG1"/>
+      <c r="IH1"/>
+      <c r="II1"/>
+      <c r="IJ1"/>
+      <c r="IK1"/>
+      <c r="IL1"/>
+      <c r="IM1"/>
+      <c r="IN1"/>
+      <c r="IO1"/>
+      <c r="IP1"/>
+      <c r="IQ1"/>
+      <c r="IR1"/>
+      <c r="IS1"/>
+      <c r="IT1"/>
+      <c r="IU1"/>
+      <c r="IV1"/>
+      <c r="IW1"/>
+      <c r="IX1"/>
+      <c r="IY1"/>
+      <c r="IZ1"/>
+      <c r="JA1"/>
+      <c r="JB1"/>
+      <c r="JC1"/>
+      <c r="JD1"/>
+      <c r="JE1"/>
+      <c r="JF1"/>
+      <c r="JG1"/>
+      <c r="JH1"/>
+      <c r="JI1"/>
+      <c r="JJ1"/>
+      <c r="JK1"/>
+      <c r="JL1"/>
+      <c r="JM1"/>
+      <c r="JN1"/>
+      <c r="JO1"/>
+      <c r="JP1"/>
+      <c r="JQ1"/>
+      <c r="JR1"/>
+      <c r="JS1"/>
+      <c r="JT1"/>
+      <c r="JU1"/>
+      <c r="JV1"/>
+      <c r="JW1"/>
+      <c r="JX1"/>
+      <c r="JY1"/>
+      <c r="JZ1"/>
+      <c r="KA1"/>
+      <c r="KB1"/>
+      <c r="KC1"/>
+      <c r="KD1"/>
+      <c r="KE1"/>
+      <c r="KF1"/>
+      <c r="KG1"/>
+      <c r="KH1"/>
+      <c r="KI1"/>
+      <c r="KJ1"/>
+      <c r="KK1"/>
+      <c r="KL1"/>
+      <c r="KM1"/>
+      <c r="KN1"/>
+      <c r="KO1"/>
+      <c r="KP1"/>
+      <c r="KQ1"/>
+      <c r="KR1"/>
+      <c r="KS1"/>
+      <c r="KT1"/>
+      <c r="KU1"/>
+      <c r="KV1"/>
+      <c r="KW1"/>
+      <c r="KX1"/>
+      <c r="KY1"/>
+      <c r="KZ1"/>
+      <c r="LA1"/>
+      <c r="LB1"/>
+      <c r="LC1"/>
+      <c r="LD1"/>
+      <c r="LE1"/>
+      <c r="LF1"/>
+      <c r="LG1"/>
+      <c r="LH1"/>
+      <c r="LI1"/>
+      <c r="LJ1"/>
+      <c r="LK1"/>
+      <c r="LL1"/>
+      <c r="LM1"/>
+      <c r="LN1"/>
+      <c r="LO1"/>
+      <c r="LP1"/>
+      <c r="LQ1"/>
+      <c r="LR1"/>
+      <c r="LS1"/>
+      <c r="LT1"/>
+      <c r="LU1"/>
+      <c r="LV1"/>
+      <c r="LW1"/>
+      <c r="LX1"/>
+      <c r="LY1"/>
+      <c r="LZ1"/>
+      <c r="MA1"/>
+      <c r="MB1"/>
+      <c r="MC1"/>
+      <c r="MD1"/>
+      <c r="ME1"/>
+      <c r="MF1"/>
+      <c r="MG1"/>
+      <c r="MH1"/>
+      <c r="MI1"/>
+      <c r="MJ1"/>
+      <c r="MK1"/>
+      <c r="ML1"/>
+      <c r="MM1"/>
+      <c r="MN1"/>
+      <c r="MO1"/>
+      <c r="MP1"/>
+      <c r="MQ1"/>
+      <c r="MR1"/>
+      <c r="MS1"/>
+      <c r="MT1"/>
+      <c r="MU1"/>
+      <c r="MV1"/>
+      <c r="MW1"/>
+      <c r="MX1"/>
+      <c r="MY1"/>
+      <c r="MZ1"/>
+      <c r="NA1"/>
+      <c r="NB1"/>
+      <c r="NC1"/>
+      <c r="ND1"/>
+      <c r="NE1"/>
+      <c r="NF1"/>
+      <c r="NG1"/>
+      <c r="NH1"/>
+      <c r="NI1"/>
+      <c r="NJ1"/>
+      <c r="NK1"/>
+      <c r="NL1"/>
+      <c r="NM1"/>
+      <c r="NN1"/>
+      <c r="NO1"/>
+      <c r="NP1"/>
+      <c r="NQ1"/>
+      <c r="NR1"/>
+      <c r="NS1"/>
+      <c r="NT1"/>
+      <c r="NU1"/>
+      <c r="NV1"/>
+      <c r="NW1"/>
+      <c r="NX1"/>
+      <c r="NY1"/>
+      <c r="NZ1"/>
+      <c r="OA1"/>
+      <c r="OB1"/>
+      <c r="OC1"/>
+      <c r="OD1"/>
+      <c r="OE1"/>
+      <c r="OF1"/>
+      <c r="OG1"/>
+      <c r="OH1"/>
+      <c r="OI1"/>
+      <c r="OJ1"/>
+      <c r="OK1"/>
+      <c r="OL1"/>
+      <c r="OM1"/>
+      <c r="ON1"/>
+      <c r="OO1"/>
+      <c r="OP1"/>
+      <c r="OQ1"/>
+      <c r="OR1"/>
+      <c r="OS1"/>
+      <c r="OT1"/>
+      <c r="OU1"/>
+      <c r="OV1"/>
+      <c r="OW1"/>
+      <c r="OX1"/>
+      <c r="OY1"/>
+      <c r="OZ1"/>
+      <c r="PA1"/>
+      <c r="PB1"/>
+      <c r="PC1"/>
+      <c r="PD1"/>
+      <c r="PE1"/>
+      <c r="PF1"/>
+      <c r="PG1"/>
+      <c r="PH1"/>
+      <c r="PI1"/>
+      <c r="PJ1"/>
+      <c r="PK1"/>
+      <c r="PL1"/>
+      <c r="PM1"/>
+      <c r="PN1"/>
+      <c r="PO1"/>
+      <c r="PP1"/>
+      <c r="PQ1"/>
+      <c r="PR1"/>
+      <c r="PS1"/>
+      <c r="PT1"/>
+      <c r="PU1"/>
+      <c r="PV1"/>
+      <c r="PW1"/>
+      <c r="PX1"/>
+      <c r="PY1"/>
+      <c r="PZ1"/>
+      <c r="QA1"/>
+      <c r="QB1"/>
+      <c r="QC1"/>
+      <c r="QD1"/>
+      <c r="QE1"/>
+      <c r="QF1"/>
+      <c r="QG1"/>
+      <c r="QH1"/>
+      <c r="QI1"/>
+      <c r="QJ1"/>
+      <c r="QK1"/>
+      <c r="QL1"/>
+      <c r="QM1"/>
+      <c r="QN1"/>
+      <c r="QO1"/>
+      <c r="QP1"/>
+      <c r="QQ1"/>
+      <c r="QR1"/>
+      <c r="QS1"/>
+      <c r="QT1"/>
+      <c r="QU1"/>
+      <c r="QV1"/>
+      <c r="QW1"/>
+      <c r="QX1"/>
+      <c r="QY1"/>
+      <c r="QZ1"/>
+      <c r="RA1"/>
+      <c r="RB1"/>
+      <c r="RC1"/>
+      <c r="RD1"/>
+      <c r="RE1"/>
+      <c r="RF1"/>
+      <c r="RG1"/>
+      <c r="RH1"/>
+      <c r="RI1"/>
+      <c r="RJ1"/>
+      <c r="RK1"/>
+      <c r="RL1"/>
+      <c r="RM1"/>
+      <c r="RN1"/>
+      <c r="RO1"/>
+      <c r="RP1"/>
+      <c r="RQ1"/>
+      <c r="RR1"/>
+      <c r="RS1"/>
+      <c r="RT1"/>
+      <c r="RU1"/>
+      <c r="RV1"/>
+      <c r="RW1"/>
+      <c r="RX1"/>
+      <c r="RY1"/>
+      <c r="RZ1"/>
+      <c r="SA1"/>
+      <c r="SB1"/>
+      <c r="SC1"/>
+      <c r="SD1"/>
+      <c r="SE1"/>
+      <c r="SF1"/>
+      <c r="SG1"/>
+      <c r="SH1"/>
+      <c r="SI1"/>
+      <c r="SJ1"/>
+      <c r="SK1"/>
+      <c r="SL1"/>
+      <c r="SM1"/>
+      <c r="SN1"/>
+      <c r="SO1"/>
+      <c r="SP1"/>
+      <c r="SQ1"/>
+      <c r="SR1"/>
+      <c r="SS1"/>
+      <c r="ST1"/>
+      <c r="SU1"/>
+      <c r="SV1"/>
+      <c r="SW1"/>
+      <c r="SX1"/>
+      <c r="SY1"/>
+      <c r="SZ1"/>
+      <c r="TA1"/>
+      <c r="TB1"/>
+      <c r="TC1"/>
+      <c r="TD1"/>
+      <c r="TE1"/>
+      <c r="TF1"/>
+      <c r="TG1"/>
+      <c r="TH1"/>
+      <c r="TI1"/>
+      <c r="TJ1"/>
+      <c r="TK1"/>
+      <c r="TL1"/>
+      <c r="TM1"/>
+      <c r="TN1"/>
+      <c r="TO1"/>
+      <c r="TP1"/>
+      <c r="TQ1"/>
+      <c r="TR1"/>
+      <c r="TS1"/>
+      <c r="TT1"/>
+      <c r="TU1"/>
+      <c r="TV1"/>
+      <c r="TW1"/>
+      <c r="TX1"/>
+      <c r="TY1"/>
+      <c r="TZ1"/>
+      <c r="UA1"/>
+      <c r="UB1"/>
+      <c r="UC1"/>
+      <c r="UD1"/>
+      <c r="UE1"/>
+      <c r="UF1"/>
+      <c r="UG1"/>
+      <c r="UH1"/>
+      <c r="UI1"/>
+      <c r="UJ1"/>
+      <c r="UK1"/>
+      <c r="UL1"/>
+      <c r="UM1"/>
+      <c r="UN1"/>
+      <c r="UO1"/>
+      <c r="UP1"/>
+      <c r="UQ1"/>
+      <c r="UR1"/>
+      <c r="US1"/>
+      <c r="UT1"/>
+      <c r="UU1"/>
+      <c r="UV1"/>
+      <c r="UW1"/>
+      <c r="UX1"/>
+      <c r="UY1"/>
+      <c r="UZ1"/>
+      <c r="VA1"/>
+      <c r="VB1"/>
+      <c r="VC1"/>
+      <c r="VD1"/>
+      <c r="VE1"/>
+      <c r="VF1"/>
+      <c r="VG1"/>
+      <c r="VH1"/>
+      <c r="VI1"/>
+      <c r="VJ1"/>
+      <c r="VK1"/>
+      <c r="VL1"/>
+      <c r="VM1"/>
+      <c r="VN1"/>
+      <c r="VO1"/>
+      <c r="VP1"/>
+      <c r="VQ1"/>
+      <c r="VR1"/>
+      <c r="VS1"/>
+      <c r="VT1"/>
+      <c r="VU1"/>
+      <c r="VV1"/>
+      <c r="VW1"/>
+      <c r="VX1"/>
+      <c r="VY1"/>
+      <c r="VZ1"/>
+      <c r="WA1"/>
+      <c r="WB1"/>
+      <c r="WC1"/>
+      <c r="WD1"/>
+      <c r="WE1"/>
+      <c r="WF1"/>
+      <c r="WG1"/>
+      <c r="WH1"/>
+      <c r="WI1"/>
+      <c r="WJ1"/>
+      <c r="WK1"/>
+      <c r="WL1"/>
+      <c r="WM1"/>
+      <c r="WN1"/>
+      <c r="WO1"/>
+      <c r="WP1"/>
+      <c r="WQ1"/>
+      <c r="WR1"/>
+      <c r="WS1"/>
+      <c r="WT1"/>
+      <c r="WU1"/>
+      <c r="WV1"/>
+      <c r="WW1"/>
+      <c r="WX1"/>
+      <c r="WY1"/>
+      <c r="WZ1"/>
+      <c r="XA1"/>
+      <c r="XB1"/>
+      <c r="XC1"/>
+      <c r="XD1"/>
+      <c r="XE1"/>
+      <c r="XF1"/>
+      <c r="XG1"/>
+      <c r="XH1"/>
+      <c r="XI1"/>
+      <c r="XJ1"/>
+      <c r="XK1"/>
+      <c r="XL1"/>
+      <c r="XM1"/>
+      <c r="XN1"/>
+      <c r="XO1"/>
+      <c r="XP1"/>
+      <c r="XQ1"/>
+      <c r="XR1"/>
+      <c r="XS1"/>
+      <c r="XT1"/>
+      <c r="XU1"/>
+      <c r="XV1"/>
+      <c r="XW1"/>
+      <c r="XX1"/>
+      <c r="XY1"/>
+      <c r="XZ1"/>
+      <c r="YA1"/>
+      <c r="YB1"/>
+      <c r="YC1"/>
+      <c r="YD1"/>
+      <c r="YE1"/>
+      <c r="YF1"/>
+      <c r="YG1"/>
+      <c r="YH1"/>
+      <c r="YI1"/>
+      <c r="YJ1"/>
+      <c r="YK1"/>
+      <c r="YL1"/>
+      <c r="YM1"/>
+      <c r="YN1"/>
+      <c r="YO1"/>
+      <c r="YP1"/>
+      <c r="YQ1"/>
+      <c r="YR1"/>
+      <c r="YS1"/>
+      <c r="YT1"/>
+      <c r="YU1"/>
+      <c r="YV1"/>
+      <c r="YW1"/>
+      <c r="YX1"/>
+      <c r="YY1"/>
+      <c r="YZ1"/>
+      <c r="ZA1"/>
+      <c r="ZB1"/>
+      <c r="ZC1"/>
+      <c r="ZD1"/>
+      <c r="ZE1"/>
+      <c r="ZF1"/>
+      <c r="ZG1"/>
+      <c r="ZH1"/>
+      <c r="ZI1"/>
+      <c r="ZJ1"/>
+      <c r="ZK1"/>
+      <c r="ZL1"/>
+      <c r="ZM1"/>
+      <c r="ZN1"/>
+      <c r="ZO1"/>
+      <c r="ZP1"/>
+      <c r="ZQ1"/>
+      <c r="ZR1"/>
+      <c r="ZS1"/>
+      <c r="ZT1"/>
+      <c r="ZU1"/>
+      <c r="ZV1"/>
+      <c r="ZW1"/>
+      <c r="ZX1"/>
+      <c r="ZY1"/>
+      <c r="ZZ1"/>
+      <c r="AAA1"/>
+      <c r="AAB1"/>
+      <c r="AAC1"/>
+      <c r="AAD1"/>
+      <c r="AAE1"/>
+      <c r="AAF1"/>
+      <c r="AAG1"/>
+      <c r="AAH1"/>
+      <c r="AAI1"/>
+      <c r="AAJ1"/>
+      <c r="AAK1"/>
+      <c r="AAL1"/>
+      <c r="AAM1"/>
+      <c r="AAN1"/>
+      <c r="AAO1"/>
+      <c r="AAP1"/>
+      <c r="AAQ1"/>
+      <c r="AAR1"/>
+      <c r="AAS1"/>
+      <c r="AAT1"/>
+      <c r="AAU1"/>
+      <c r="AAV1"/>
+      <c r="AAW1"/>
+      <c r="AAX1"/>
+      <c r="AAY1"/>
+      <c r="AAZ1"/>
+      <c r="ABA1"/>
+      <c r="ABB1"/>
+      <c r="ABC1"/>
+      <c r="ABD1"/>
+      <c r="ABE1"/>
+      <c r="ABF1"/>
+      <c r="ABG1"/>
+      <c r="ABH1"/>
+      <c r="ABI1"/>
+      <c r="ABJ1"/>
+      <c r="ABK1"/>
+      <c r="ABL1"/>
+      <c r="ABM1"/>
+      <c r="ABN1"/>
+      <c r="ABO1"/>
+      <c r="ABP1"/>
+      <c r="ABQ1"/>
+      <c r="ABR1"/>
+      <c r="ABS1"/>
+      <c r="ABT1"/>
+      <c r="ABU1"/>
+      <c r="ABV1"/>
+      <c r="ABW1"/>
+      <c r="ABX1"/>
+      <c r="ABY1"/>
+      <c r="ABZ1"/>
+      <c r="ACA1"/>
+      <c r="ACB1"/>
+      <c r="ACC1"/>
+      <c r="ACD1"/>
+      <c r="ACE1"/>
+      <c r="ACF1"/>
+      <c r="ACG1"/>
+      <c r="ACH1"/>
+      <c r="ACI1"/>
+      <c r="ACJ1"/>
+      <c r="ACK1"/>
+      <c r="ACL1"/>
+      <c r="ACM1"/>
+      <c r="ACN1"/>
+      <c r="ACO1"/>
+      <c r="ACP1"/>
+      <c r="ACQ1"/>
+      <c r="ACR1"/>
+      <c r="ACS1"/>
+      <c r="ACT1"/>
+      <c r="ACU1"/>
+      <c r="ACV1"/>
+      <c r="ACW1"/>
+      <c r="ACX1"/>
+      <c r="ACY1"/>
+      <c r="ACZ1"/>
+      <c r="ADA1"/>
+      <c r="ADB1"/>
+      <c r="ADC1"/>
+      <c r="ADD1"/>
+      <c r="ADE1"/>
+      <c r="ADF1"/>
+      <c r="ADG1"/>
+      <c r="ADH1"/>
+      <c r="ADI1"/>
+      <c r="ADJ1"/>
+      <c r="ADK1"/>
+      <c r="ADL1"/>
+      <c r="ADM1"/>
+      <c r="ADN1"/>
+      <c r="ADO1"/>
+      <c r="ADP1"/>
+      <c r="ADQ1"/>
+      <c r="ADR1"/>
+      <c r="ADS1"/>
+      <c r="ADT1"/>
+      <c r="ADU1"/>
+      <c r="ADV1"/>
+      <c r="ADW1"/>
+      <c r="ADX1"/>
+      <c r="ADY1"/>
+      <c r="ADZ1"/>
+      <c r="AEA1"/>
+      <c r="AEB1"/>
+      <c r="AEC1"/>
+      <c r="AED1"/>
+      <c r="AEE1"/>
+      <c r="AEF1"/>
+      <c r="AEG1"/>
+      <c r="AEH1"/>
+      <c r="AEI1"/>
+      <c r="AEJ1"/>
+      <c r="AEK1"/>
+      <c r="AEL1"/>
+      <c r="AEM1"/>
+      <c r="AEN1"/>
+      <c r="AEO1"/>
+      <c r="AEP1"/>
+      <c r="AEQ1"/>
+      <c r="AER1"/>
+      <c r="AES1"/>
+      <c r="AET1"/>
+      <c r="AEU1"/>
+      <c r="AEV1"/>
+      <c r="AEW1"/>
+      <c r="AEX1"/>
+      <c r="AEY1"/>
+      <c r="AEZ1"/>
+      <c r="AFA1"/>
+      <c r="AFB1"/>
+      <c r="AFC1"/>
+      <c r="AFD1"/>
+      <c r="AFE1"/>
+      <c r="AFF1"/>
+      <c r="AFG1"/>
+      <c r="AFH1"/>
+      <c r="AFI1"/>
+      <c r="AFJ1"/>
+      <c r="AFK1"/>
+      <c r="AFL1"/>
+      <c r="AFM1"/>
+      <c r="AFN1"/>
+      <c r="AFO1"/>
+      <c r="AFP1"/>
+      <c r="AFQ1"/>
+      <c r="AFR1"/>
+      <c r="AFS1"/>
+      <c r="AFT1"/>
+      <c r="AFU1"/>
+      <c r="AFV1"/>
+      <c r="AFW1"/>
+      <c r="AFX1"/>
+      <c r="AFY1"/>
+      <c r="AFZ1"/>
+      <c r="AGA1"/>
+      <c r="AGB1"/>
+      <c r="AGC1"/>
+      <c r="AGD1"/>
+      <c r="AGE1"/>
+      <c r="AGF1"/>
+      <c r="AGG1"/>
+      <c r="AGH1"/>
+      <c r="AGI1"/>
+      <c r="AGJ1"/>
+      <c r="AGK1"/>
+      <c r="AGL1"/>
+      <c r="AGM1"/>
+      <c r="AGN1"/>
+      <c r="AGO1"/>
+      <c r="AGP1"/>
+      <c r="AGQ1"/>
+      <c r="AGR1"/>
+      <c r="AGS1"/>
+      <c r="AGT1"/>
+      <c r="AGU1"/>
+      <c r="AGV1"/>
+      <c r="AGW1"/>
+      <c r="AGX1"/>
+      <c r="AGY1"/>
+      <c r="AGZ1"/>
+      <c r="AHA1"/>
+      <c r="AHB1"/>
+      <c r="AHC1"/>
+      <c r="AHD1"/>
+      <c r="AHE1"/>
+      <c r="AHF1"/>
+      <c r="AHG1"/>
+      <c r="AHH1"/>
+      <c r="AHI1"/>
+      <c r="AHJ1"/>
+      <c r="AHK1"/>
+      <c r="AHL1"/>
+      <c r="AHM1"/>
+      <c r="AHN1"/>
+      <c r="AHO1"/>
+      <c r="AHP1"/>
+      <c r="AHQ1"/>
+      <c r="AHR1"/>
+      <c r="AHS1"/>
+      <c r="AHT1"/>
+      <c r="AHU1"/>
+      <c r="AHV1"/>
+      <c r="AHW1"/>
+      <c r="AHX1"/>
+      <c r="AHY1"/>
+      <c r="AHZ1"/>
+      <c r="AIA1"/>
+      <c r="AIB1"/>
+      <c r="AIC1"/>
+      <c r="AID1"/>
+      <c r="AIE1"/>
+      <c r="AIF1"/>
+      <c r="AIG1"/>
+      <c r="AIH1"/>
+      <c r="AII1"/>
+      <c r="AIJ1"/>
+      <c r="AIK1"/>
+      <c r="AIL1"/>
+      <c r="AIM1"/>
+      <c r="AIN1"/>
+      <c r="AIO1"/>
+      <c r="AIP1"/>
+      <c r="AIQ1"/>
+      <c r="AIR1"/>
+      <c r="AIS1"/>
+      <c r="AIT1"/>
+      <c r="AIU1"/>
+      <c r="AIV1"/>
+      <c r="AIW1"/>
+      <c r="AIX1"/>
+      <c r="AIY1"/>
+      <c r="AIZ1"/>
+      <c r="AJA1"/>
+      <c r="AJB1"/>
+      <c r="AJC1"/>
+      <c r="AJD1"/>
+      <c r="AJE1"/>
+      <c r="AJF1"/>
+      <c r="AJG1"/>
+      <c r="AJH1"/>
+      <c r="AJI1"/>
+      <c r="AJJ1"/>
+      <c r="AJK1"/>
+      <c r="AJL1"/>
+      <c r="AJM1"/>
+      <c r="AJN1"/>
+      <c r="AJO1"/>
+      <c r="AJP1"/>
+      <c r="AJQ1"/>
+      <c r="AJR1"/>
+      <c r="AJS1"/>
+      <c r="AJT1"/>
+      <c r="AJU1"/>
+      <c r="AJV1"/>
+      <c r="AJW1"/>
+      <c r="AJX1"/>
+      <c r="AJY1"/>
+      <c r="AJZ1"/>
+      <c r="AKA1"/>
+      <c r="AKB1"/>
+      <c r="AKC1"/>
+      <c r="AKD1"/>
+      <c r="AKE1"/>
+      <c r="AKF1"/>
+      <c r="AKG1"/>
+      <c r="AKH1"/>
+      <c r="AKI1"/>
+      <c r="AKJ1"/>
+      <c r="AKK1"/>
+      <c r="AKL1"/>
+      <c r="AKM1"/>
+      <c r="AKN1"/>
+      <c r="AKO1"/>
+      <c r="AKP1"/>
+      <c r="AKQ1"/>
+      <c r="AKR1"/>
+      <c r="AKS1"/>
+      <c r="AKT1"/>
+      <c r="AKU1"/>
+      <c r="AKV1"/>
+      <c r="AKW1"/>
+      <c r="AKX1"/>
+      <c r="AKY1"/>
+      <c r="AKZ1"/>
+      <c r="ALA1"/>
+      <c r="ALB1"/>
+      <c r="ALC1"/>
+      <c r="ALD1"/>
+      <c r="ALE1"/>
+      <c r="ALF1"/>
+      <c r="ALG1"/>
+      <c r="ALH1"/>
+      <c r="ALI1"/>
+      <c r="ALJ1"/>
+      <c r="ALK1"/>
+      <c r="ALL1"/>
+      <c r="ALM1"/>
+      <c r="ALN1"/>
+      <c r="ALO1"/>
+      <c r="ALP1"/>
+      <c r="ALQ1"/>
+      <c r="ALR1"/>
+      <c r="ALS1"/>
+      <c r="ALT1"/>
+      <c r="ALU1"/>
+      <c r="ALV1"/>
+      <c r="ALW1"/>
+      <c r="ALX1"/>
+      <c r="ALY1"/>
+      <c r="ALZ1"/>
+      <c r="AMA1"/>
+      <c r="AMB1"/>
+      <c r="AMC1"/>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+      <c r="AMF1"/>
+      <c r="AMG1"/>
+      <c r="AMH1"/>
+      <c r="AMI1"/>
+      <c r="AMJ1"/>
+      <c r="AMK1"/>
+      <c r="AML1"/>
+    </row>
+    <row r="2" spans="1:1026" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="F3" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>240</v>
+      <c r="D4" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="F4" s="17">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -6361,1334 +10532,164 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK8"/>
+  <dimension ref="A1:AMG7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="C7 C2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" style="17"/>
-    <col min="2" max="2" width="64" style="32"/>
-    <col min="3" max="3" width="69.85546875" style="17"/>
-    <col min="4" max="1025" width="8.28515625" style="17"/>
+    <col min="1" max="1" width="33" style="41" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="102.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="83.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="22" customWidth="1"/>
+    <col min="7" max="1021" width="8.140625" style="25"/>
+    <col min="1022" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="C7 A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.85546875" style="32"/>
-    <col min="2" max="2" width="46.7109375" style="32"/>
-    <col min="3" max="3" width="75.7109375" style="32"/>
-    <col min="4" max="1025" width="8.7109375" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="1" sqref="C7 B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.85546875" style="32"/>
-    <col min="2" max="2" width="46.7109375" style="32"/>
-    <col min="3" max="3" width="61.7109375" style="32"/>
-    <col min="4" max="1025" width="8.7109375" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="C7 C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.28515625" style="17"/>
-    <col min="2" max="2" width="38.5703125" style="17"/>
-    <col min="3" max="3" width="73.85546875" style="17"/>
-    <col min="4" max="1021" width="11" style="17"/>
-    <col min="1022" max="1025" width="8.42578125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="79"/>
-    <col min="2" max="2" width="94.5703125"/>
-    <col min="3" max="3" width="85.5703125"/>
-    <col min="4" max="1025" width="11.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="144.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>361</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>368</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>369</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>371</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>372</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>373</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>374</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>377</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>378</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>379</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>380</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>381</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>382</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>384</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>385</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>386</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>387</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>388</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>389</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>390</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>391</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>393</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>394</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>395</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>396</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>397</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>302</v>
+      <c r="F1" s="38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="F2" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="F3" s="43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" s="43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" s="43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="F6" s="43">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="F7" s="43">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -7703,410 +10704,134 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:AMM8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="93.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" customWidth="1"/>
-    <col min="5" max="5" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="3" max="1027" width="93.28515625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="38" t="s">
+    <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>398</v>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>550</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>351</v>
+        <v>539</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>432</v>
+      <c r="A3" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>507</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>513</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>423</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>424</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>425</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E16" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>427</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E18" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>429</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>430</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>431</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>444</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>559</v>
+      <c r="A7" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -8121,207 +10846,117 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML11"/>
+  <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="137.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="161.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="1026" width="8.140625" style="17"/>
+    <col min="1" max="1" width="67.42578125" style="17"/>
+    <col min="2" max="2" width="74.85546875" style="27"/>
+    <col min="3" max="3" width="65.85546875" style="17"/>
+    <col min="4" max="1025" width="8.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>538</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>539</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>530</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>540</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>541</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>532</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>533</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>453</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>527</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>549</v>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -8413,539 +11048,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALK4"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="999" width="8.42578125" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>557</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33" style="41" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="102.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="83.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="22" customWidth="1"/>
-    <col min="7" max="1021" width="8.140625" style="25"/>
-    <col min="1022" max="16384" width="9.140625" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>573</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="F2" s="22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>561</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>574</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="F3" s="22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>562</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>575</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="F4" s="22">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>576</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="F5" s="22">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="F6" s="22">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>578</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="F7" s="22">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM8"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="93.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="3" max="1027" width="93.28515625" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.42578125" style="17"/>
-    <col min="2" max="2" width="74.85546875" style="27"/>
-    <col min="3" max="3" width="65.85546875" style="17"/>
-    <col min="4" max="1025" width="8.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK9"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9065,12 +11171,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="C7 A2"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9134,6 +11240,619 @@
       </c>
       <c r="C5" s="17" t="s">
         <v>214</v>
+      </c>
+